--- a/input data__file dummy.xlsx
+++ b/input data__file dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FECA54-EFD5-4F47-A248-8F8C2376F5DE}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC8BE90-9B71-4DF4-8A09-B5C7C58AC9AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>p-name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>p-quality</t>
   </si>
   <si>
-    <t>p-acceptance</t>
-  </si>
-  <si>
     <t>p-shelf-life</t>
   </si>
   <si>
@@ -83,24 +80,6 @@
     <t>p-quality-max</t>
   </si>
   <si>
-    <t>p-acceptance-min</t>
-  </si>
-  <si>
-    <t>p-acceptance-max</t>
-  </si>
-  <si>
-    <t>p-shelf-life-min</t>
-  </si>
-  <si>
-    <t>p-shelf-life-max</t>
-  </si>
-  <si>
-    <t>p-residual-life-min</t>
-  </si>
-  <si>
-    <t>p-residual-life-max</t>
-  </si>
-  <si>
     <t>cons-per-user</t>
   </si>
   <si>
@@ -129,18 +108,6 @@
   </si>
   <si>
     <t>0.56</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>5.2</t>
   </si>
   <si>
     <t>Frozen food</t>
@@ -611,20 +578,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B9E16F-D9C0-4E55-ADC5-98580F6C2F9D}">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,648 +651,480 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="1">
-        <v>15</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>299</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>300</v>
-      </c>
-      <c r="G3" s="1">
-        <v>299</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>210</v>
-      </c>
-      <c r="S3" s="1">
-        <v>390</v>
-      </c>
-      <c r="T3" s="1">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1">
-        <v>389</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1">
-        <v>25</v>
-      </c>
-      <c r="X3" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="1">
         <v>0.05</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>14</v>
-      </c>
-      <c r="S4" s="1">
-        <v>26</v>
-      </c>
-      <c r="T4" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1">
-        <v>20</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="1">
-        <v>35</v>
-      </c>
-      <c r="X4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>720</v>
+      </c>
+      <c r="F5" s="1">
+        <v>717</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>720</v>
-      </c>
-      <c r="G5" s="1">
-        <v>717</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>504</v>
-      </c>
-      <c r="S5" s="1">
-        <v>936</v>
-      </c>
-      <c r="T5" s="1">
-        <v>502</v>
+        <v>8</v>
       </c>
       <c r="U5" s="1">
-        <v>932</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="1">
-        <v>45</v>
-      </c>
-      <c r="X5" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="1">
         <v>0.04</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8</v>
-      </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1">
         <v>26</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
+      <c r="O6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>4</v>
-      </c>
-      <c r="S6" s="1">
         <v>7</v>
       </c>
-      <c r="T6" s="1">
-        <v>2</v>
-      </c>
       <c r="U6" s="1">
-        <v>4</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="1">
-        <v>55</v>
-      </c>
-      <c r="X6" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="1">
         <v>0.04</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1">
         <v>33</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2</v>
-      </c>
-      <c r="S7" s="1">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="1">
-        <v>65</v>
-      </c>
-      <c r="X7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
+        <v>365</v>
+      </c>
+      <c r="F8" s="1">
+        <v>350</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>365</v>
-      </c>
-      <c r="G8" s="1">
-        <v>350</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
+      <c r="O8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>256</v>
-      </c>
-      <c r="S8" s="1">
-        <v>475</v>
-      </c>
-      <c r="T8" s="1">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1">
-        <v>455</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="1">
-        <v>75</v>
-      </c>
-      <c r="X8" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="AB9" s="1">
+      <c r="W8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U9" s="1">
         <v>0.05</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="AA10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB10" s="1">
-        <f>SUM(AB3:AB9)</f>
+      <c r="W9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="1">
+        <f>SUM(U3:U9)</f>
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A1:X1)</f>
-        <v>p-name,p-price,p-sustainability,p-quality,p-acceptance,p-shelf-life,p-residual-life,p-production-cost,owner-ID,p-price-min,p-price-max,p-sustainability-min,p-sustainability-max,p-quality-min,p-quality-max,p-acceptance-min,p-acceptance-max,p-shelf-life-min,p-shelf-life-max,p-residual-life-min,p-residual-life-max,cons-per-user,color,p-stock-threshold</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A1:Q1)</f>
+        <v>p-name,p-price,p-sustainability,p-quality,p-shelf-life,p-residual-life,p-production-cost,owner-ID,p-price-min,p-price-max,p-sustainability-min,p-sustainability-max,p-quality-min,p-quality-max,cons-per-user,color,p-stock-threshold</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
-        <f t="shared" ref="A12:A19" si="0">_xlfn.TEXTJOIN(",",TRUE,A2:X2)</f>
-        <v>Fresh fruits and vegetables,2.5,0.8,0,1,6,4,0.3,1,1.75,3.25,0.56,1,0,0,1,1,4.2,7.8,2.8,5.2,0.05,15,12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A12:A19" si="0">_xlfn.TEXTJOIN(",",TRUE,A2:Q2)</f>
+        <v>Fresh fruits and vegetables,2.5,0.8,0,6,4,0.3,1,1.75,3.25,0.56,1,0,0,0.05,15,12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Frozen food,7,0.2,0,1,300,299,4,1,4.9,9.1,0.14,0.26,0,0,1,1,210,390,209,389,0.075,25,6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+        <v>Frozen food,7,0.2,0,300,299,4,1,4.9,9.1,0.14,0.26,0,0,0.075,25,6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sweets,5,0.5,0,1,20,15,1,1,3.5,6.5,0.35,0.65,0,0,1,1,14,26,11,20,0.04,35,6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+        <v>Sweets,5,0.5,0,20,15,1,1,3.5,6.5,0.35,0.65,0,0,0.04,35,6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Canned food,3,0.3,0,1,720,717,2,1,2.1,3.9,0.21,0.4,0,0,1,1,504,936,502,932,0.04,45,8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+        <v>Canned food,3,0.3,0,720,717,2,1,2.1,3.9,0.21,0.4,0,0,0.04,45,8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Meat,20,0.3,0,1,5,3,8,1,14,26,0.21,0.4,0,0,1,1,4,7,2,4,0.075,55,7</v>
+        <v>Meat,20,0.3,0,5,3,8,1,14,26,0.21,0.4,0,0,0.075,55,7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fish,25,0.4,0,1,3,2,10,1,18,33,0.28,0.52,0,0,1,1,2,4,1,3,0.065,65,7</v>
+        <v>Fish,25,0.4,0,3,2,10,1,18,33,0.28,0.52,0,0,0.065,65,7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pasta,2,0.6,0,1,365,350,0.5,1,1.4,2.6,0.42,0.78,0,0,1,1,256,475,245,455,0.05,75,12</v>
+        <v>Pasta,2,0.6,0,365,350,0.5,1,1.4,2.6,0.42,0.78,0,0,0.05,75,12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">

--- a/input data__file dummy.xlsx
+++ b/input data__file dummy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC8BE90-9B71-4DF4-8A09-B5C7C58AC9AB}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6E0A8E-CCCA-4215-80F7-2C9813B072D9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>p-name</t>
   </si>
@@ -74,142 +75,151 @@
     <t>p-sustainability-max</t>
   </si>
   <si>
+    <t>cons-per-user</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>p-stock-threshold</t>
+  </si>
+  <si>
+    <t>Fresh fruits and vegetables</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>Frozen food</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>Sweets</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>Canned food</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
     <t>p-quality-min</t>
   </si>
   <si>
     <t>p-quality-max</t>
   </si>
   <si>
-    <t>cons-per-user</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>p-stock-threshold</t>
-  </si>
-  <si>
-    <t>Fresh fruits and vegetables</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>Frozen food</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>Sweets</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>Canned food</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>Pasta</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>TOT</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.065</t>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>pesi norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,12 +229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,11 +255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B9E16F-D9C0-4E55-ADC5-98580F6C2F9D}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,8 +612,10 @@
     <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -637,30 +658,30 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -672,31 +693,25 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P2" s="1">
         <v>15</v>
@@ -705,18 +720,18 @@
         <v>12</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -734,25 +749,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="1">
         <v>25</v>
@@ -764,18 +773,18 @@
         <v>0.05</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -793,25 +802,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="1">
         <v>35</v>
@@ -823,18 +826,18 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -852,25 +855,19 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P5" s="1">
         <v>45</v>
@@ -882,18 +879,18 @@
         <v>0.04</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -917,19 +914,13 @@
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6" s="1">
         <v>55</v>
@@ -941,18 +932,18 @@
         <v>0.04</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -976,19 +967,13 @@
         <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P7" s="1">
         <v>65</v>
@@ -1000,18 +985,18 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1023,31 +1008,25 @@
         <v>350</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="P8" s="1">
         <v>75</v>
@@ -1059,7 +1038,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1067,12 +1046,12 @@
         <v>0.05</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U10" s="1">
         <f>SUM(U3:U9)</f>
@@ -1088,43 +1067,43 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" ref="A12:A19" si="0">_xlfn.TEXTJOIN(",",TRUE,A2:Q2)</f>
-        <v>Fresh fruits and vegetables,2.5,0.8,0,6,4,0.3,1,1.75,3.25,0.56,1,0,0,0.05,15,12</v>
+        <v>Fresh fruits and vegetables,2.5,0.8,0,6,4,0.3,1,1.75,3.25,0.56,1,0.05,15,12</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Frozen food,7,0.2,0,300,299,4,1,4.9,9.1,0.14,0.26,0,0,0.075,25,6</v>
+        <v>Frozen food,7,0.2,0,300,299,4,1,4.9,9.1,0.14,0.26,0.075,25,6</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sweets,5,0.5,0,20,15,1,1,3.5,6.5,0.35,0.65,0,0,0.04,35,6</v>
+        <v>Sweets,5,0.5,0,20,15,1,1,3.5,6.5,0.35,0.65,0.04,35,6</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Canned food,3,0.3,0,720,717,2,1,2.1,3.9,0.21,0.4,0,0,0.04,45,8</v>
+        <v>Canned food,3,0.3,0,720,717,2,1,2.1,3.9,0.21,0.4,0.04,45,8</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Meat,20,0.3,0,5,3,8,1,14,26,0.21,0.4,0,0,0.075,55,7</v>
+        <v>Meat,20,0.3,0,5,3,8,1,14,26,0.21,0.4,0.075,55,7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fish,25,0.4,0,3,2,10,1,18,33,0.28,0.52,0,0,0.065,65,7</v>
+        <v>Fish,25,0.4,0,3,2,10,1,18,33,0.28,0.52,0.065,65,7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pasta,2,0.6,0,365,350,0.5,1,1.4,2.6,0.42,0.78,0,0,0.05,75,12</v>
+        <v>Pasta,2,0.6,0,365,350,0.5,1,1.4,2.6,0.42,0.78,0.05,75,12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1136,4 +1115,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD36335-87A3-4C61-9BD2-ED655A7897D7}">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C3:C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input data__file dummy.xlsx
+++ b/input data__file dummy.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6E0A8E-CCCA-4215-80F7-2C9813B072D9}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{190BB929-C392-48F4-B38E-CB4E14D8537F}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>p-name</t>
   </si>
@@ -212,15 +213,104 @@
   <si>
     <t>pesi norm</t>
   </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>utile annuale</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>target rev</t>
+  </si>
+  <si>
+    <t>miglioramento % max</t>
+  </si>
+  <si>
+    <t>c-target-revenues</t>
+  </si>
+  <si>
+    <t>weight-sustainability</t>
+  </si>
+  <si>
+    <t>weight-sustainability corretto</t>
+  </si>
+  <si>
+    <t>peso medio</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha norm</t>
+  </si>
+  <si>
+    <t>beta norm</t>
+  </si>
+  <si>
+    <t>gamma norm</t>
+  </si>
+  <si>
+    <t>riga</t>
+  </si>
+  <si>
+    <t>delta  2 anni</t>
+  </si>
+  <si>
+    <t>delta 3 anni</t>
+  </si>
+  <si>
+    <t>anno 0</t>
+  </si>
+  <si>
+    <t>incremento di beta per ogni tick</t>
+  </si>
+  <si>
+    <t>somma pesi</t>
+  </si>
+  <si>
+    <t>beta corretto norm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="186" formatCode="0.000000000000000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +318,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,20 +363,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B9E16F-D9C0-4E55-ADC5-98580F6C2F9D}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,80 +1250,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD36335-87A3-4C61-9BD2-ED655A7897D7}">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3 + ($I$11-I3) * (I3/$I$11)</f>
+        <v>198.8235294117647</v>
+      </c>
+      <c r="K3">
+        <f>J3/I3</f>
+        <v>1.9882352941176469</v>
+      </c>
+      <c r="L3">
+        <f ca="1">I3 + RANDBETWEEN(0, $I$11-I3) * (I3/$I$11)</f>
+        <v>103.05882352941177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I4 + ($I$11-I4) * (I4/$I$11)</f>
+        <v>3529.4117647058824</v>
+      </c>
+      <c r="K4">
+        <f>J4/I4</f>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" ca="1" si="0">I4 + RANDBETWEEN(0, $I$11-I4) * (I4/$I$11)</f>
+        <v>3045.1764705882351</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>8500</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J7" si="1">I5 + ($I$11-I5) * (I5/$I$11)</f>
+        <v>8500</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="2">J5/I5</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f ca="1">I5 + RANDBETWEEN(0, $I$11-I5) * (I5/$I$11)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>1157.6470588235293</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>1.9294117647058822</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1090.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>950</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>1793.8235294117649</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1.8882352941176472</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>964.64117647058822</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="2">
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <f>MIN($I$3:$I$7)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <f>MAX($I$3:$I$7)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -1207,4 +1459,7363 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E11A6DF-F54D-4B09-8C8A-4CFD042F8AFB}">
+  <dimension ref="B1:AO66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>9</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>13</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>15</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>20</v>
+      </c>
+      <c r="Z1">
+        <v>21</v>
+      </c>
+      <c r="AA1">
+        <v>22</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+      <c r="AC1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G2">
+        <v>1.002</v>
+      </c>
+      <c r="H2">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.004</v>
+      </c>
+      <c r="J2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="K2">
+        <v>1.006</v>
+      </c>
+      <c r="L2">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="M2">
+        <v>1.008</v>
+      </c>
+      <c r="N2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="O2">
+        <v>1.01</v>
+      </c>
+      <c r="P2">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>1.012</v>
+      </c>
+      <c r="R2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="S2">
+        <v>1.014</v>
+      </c>
+      <c r="T2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="U2">
+        <v>1.016</v>
+      </c>
+      <c r="V2">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="W2">
+        <v>1.018</v>
+      </c>
+      <c r="X2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>1.02</v>
+      </c>
+      <c r="Z2">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.022</v>
+      </c>
+      <c r="AB2">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>1.024</v>
+      </c>
+      <c r="AD2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>1.026</v>
+      </c>
+      <c r="AF2">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>1.028</v>
+      </c>
+      <c r="AH2">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>1.03</v>
+      </c>
+      <c r="AJ2">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>1.032</v>
+      </c>
+      <c r="AL2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>1.034</v>
+      </c>
+      <c r="AN2">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="3" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E4" s="5">
+        <f ca="1">RAND()</f>
+        <v>3.7278262647587601E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <f ca="1">$E4*F$2</f>
+        <v>3.7315540910235184E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <f ca="1">$E4*G$2</f>
+        <v>3.7352819172882775E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <f ca="1">$E4*H$2</f>
+        <v>3.7390097435530362E-3</v>
+      </c>
+      <c r="I4" s="5">
+        <f ca="1">$E4*I$2</f>
+        <v>3.7427375698177953E-3</v>
+      </c>
+      <c r="J4" s="5">
+        <f ca="1">$E4*J$2</f>
+        <v>3.7464653960825535E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <f ca="1">$E4*K$2</f>
+        <v>3.7501932223473126E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <f ca="1">$E4*L$2</f>
+        <v>3.7539210486120709E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <f ca="1">$E4*M$2</f>
+        <v>3.7576488748768304E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <f ca="1">$E4*N$2</f>
+        <v>3.7613767011415887E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f ca="1">$E4*O$2</f>
+        <v>3.7651045274063478E-3</v>
+      </c>
+      <c r="P4" s="5">
+        <f ca="1">$E4*P$2</f>
+        <v>3.768832353671106E-3</v>
+      </c>
+      <c r="Q4" s="5">
+        <f ca="1">$E4*Q$2</f>
+        <v>3.7725601799358651E-3</v>
+      </c>
+      <c r="R4" s="5">
+        <f ca="1">$E4*R$2</f>
+        <v>3.7762880062006238E-3</v>
+      </c>
+      <c r="S4" s="5">
+        <f ca="1">$E4*S$2</f>
+        <v>3.7800158324653829E-3</v>
+      </c>
+      <c r="T4" s="5">
+        <f ca="1">$E4*T$2</f>
+        <v>3.7837436587301412E-3</v>
+      </c>
+      <c r="U4" s="5">
+        <f ca="1">$E4*U$2</f>
+        <v>3.7874714849949003E-3</v>
+      </c>
+      <c r="V4" s="5">
+        <f ca="1">$E4*V$2</f>
+        <v>3.7911993112596585E-3</v>
+      </c>
+      <c r="W4" s="5">
+        <f ca="1">$E4*W$2</f>
+        <v>3.7949271375244177E-3</v>
+      </c>
+      <c r="X4" s="5">
+        <f ca="1">$E4*X$2</f>
+        <v>3.7986549637891763E-3</v>
+      </c>
+      <c r="Y4" s="5">
+        <f ca="1">$E4*Y$2</f>
+        <v>3.8023827900539355E-3</v>
+      </c>
+      <c r="Z4" s="5">
+        <f ca="1">$E4*Z$2</f>
+        <v>3.8061106163186937E-3</v>
+      </c>
+      <c r="AA4" s="5">
+        <f ca="1">$E4*AA$2</f>
+        <v>3.8098384425834528E-3</v>
+      </c>
+      <c r="AB4" s="5">
+        <f ca="1">$E4*AB$2</f>
+        <v>3.8135662688482111E-3</v>
+      </c>
+      <c r="AC4" s="5">
+        <f ca="1">$E4*AC$2</f>
+        <v>3.8172940951129706E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E17" ca="1" si="0">RAND()</f>
+        <v>0.52248881160568572</v>
+      </c>
+      <c r="F5" s="5">
+        <f ca="1">$E5*F$2</f>
+        <v>0.52301130041729138</v>
+      </c>
+      <c r="G5" s="5">
+        <f ca="1">$E5*G$2</f>
+        <v>0.52353378922889704</v>
+      </c>
+      <c r="H5" s="5">
+        <f ca="1">$E5*H$2</f>
+        <v>0.5240562780405027</v>
+      </c>
+      <c r="I5" s="5">
+        <f ca="1">$E5*I$2</f>
+        <v>0.52457876685210847</v>
+      </c>
+      <c r="J5" s="5">
+        <f ca="1">$E5*J$2</f>
+        <v>0.52510125566371413</v>
+      </c>
+      <c r="K5" s="5">
+        <f ca="1">$E5*K$2</f>
+        <v>0.52562374447531979</v>
+      </c>
+      <c r="L5" s="5">
+        <f ca="1">$E5*L$2</f>
+        <v>0.52614623328692545</v>
+      </c>
+      <c r="M5" s="5">
+        <f ca="1">$E5*M$2</f>
+        <v>0.52666872209853122</v>
+      </c>
+      <c r="N5" s="5">
+        <f ca="1">$E5*N$2</f>
+        <v>0.52719121091013688</v>
+      </c>
+      <c r="O5" s="5">
+        <f ca="1">$E5*O$2</f>
+        <v>0.52771369972174254</v>
+      </c>
+      <c r="P5" s="5">
+        <f ca="1">$E5*P$2</f>
+        <v>0.52823618853334819</v>
+      </c>
+      <c r="Q5" s="5">
+        <f ca="1">$E5*Q$2</f>
+        <v>0.52875867734495396</v>
+      </c>
+      <c r="R5" s="5">
+        <f ca="1">$E5*R$2</f>
+        <v>0.52928116615655962</v>
+      </c>
+      <c r="S5" s="5">
+        <f ca="1">$E5*S$2</f>
+        <v>0.52980365496816528</v>
+      </c>
+      <c r="T5" s="5">
+        <f ca="1">$E5*T$2</f>
+        <v>0.53032614377977094</v>
+      </c>
+      <c r="U5" s="5">
+        <f ca="1">$E5*U$2</f>
+        <v>0.53084863259137671</v>
+      </c>
+      <c r="V5" s="5">
+        <f ca="1">$E5*V$2</f>
+        <v>0.53137112140298237</v>
+      </c>
+      <c r="W5" s="5">
+        <f ca="1">$E5*W$2</f>
+        <v>0.53189361021458803</v>
+      </c>
+      <c r="X5" s="5">
+        <f ca="1">$E5*X$2</f>
+        <v>0.53241609902619369</v>
+      </c>
+      <c r="Y5" s="5">
+        <f ca="1">$E5*Y$2</f>
+        <v>0.53293858783779946</v>
+      </c>
+      <c r="Z5" s="5">
+        <f ca="1">$E5*Z$2</f>
+        <v>0.53346107664940512</v>
+      </c>
+      <c r="AA5" s="5">
+        <f ca="1">$E5*AA$2</f>
+        <v>0.53398356546101078</v>
+      </c>
+      <c r="AB5" s="5">
+        <f ca="1">$E5*AB$2</f>
+        <v>0.53450605427261644</v>
+      </c>
+      <c r="AC5" s="5">
+        <f ca="1">$E5*AC$2</f>
+        <v>0.53502854308422221</v>
+      </c>
+    </row>
+    <row r="6" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50029860030164042</v>
+      </c>
+      <c r="F6" s="5">
+        <f ca="1">$E6*F$2</f>
+        <v>0.50079889890194196</v>
+      </c>
+      <c r="G6" s="5">
+        <f ca="1">$E6*G$2</f>
+        <v>0.50129919750224372</v>
+      </c>
+      <c r="H6" s="5">
+        <f ca="1">$E6*H$2</f>
+        <v>0.50179949610254526</v>
+      </c>
+      <c r="I6" s="5">
+        <f ca="1">$E6*I$2</f>
+        <v>0.50229979470284702</v>
+      </c>
+      <c r="J6" s="5">
+        <f ca="1">$E6*J$2</f>
+        <v>0.50280009330314857</v>
+      </c>
+      <c r="K6" s="5">
+        <f ca="1">$E6*K$2</f>
+        <v>0.50330039190345022</v>
+      </c>
+      <c r="L6" s="5">
+        <f ca="1">$E6*L$2</f>
+        <v>0.50380069050375187</v>
+      </c>
+      <c r="M6" s="5">
+        <f ca="1">$E6*M$2</f>
+        <v>0.50430098910405352</v>
+      </c>
+      <c r="N6" s="5">
+        <f ca="1">$E6*N$2</f>
+        <v>0.50480128770435517</v>
+      </c>
+      <c r="O6" s="5">
+        <f ca="1">$E6*O$2</f>
+        <v>0.50530158630465682</v>
+      </c>
+      <c r="P6" s="5">
+        <f ca="1">$E6*P$2</f>
+        <v>0.50580188490495837</v>
+      </c>
+      <c r="Q6" s="5">
+        <f ca="1">$E6*Q$2</f>
+        <v>0.50630218350526013</v>
+      </c>
+      <c r="R6" s="5">
+        <f ca="1">$E6*R$2</f>
+        <v>0.50680248210556167</v>
+      </c>
+      <c r="S6" s="5">
+        <f ca="1">$E6*S$2</f>
+        <v>0.50730278070586343</v>
+      </c>
+      <c r="T6" s="5">
+        <f ca="1">$E6*T$2</f>
+        <v>0.50780307930616497</v>
+      </c>
+      <c r="U6" s="5">
+        <f ca="1">$E6*U$2</f>
+        <v>0.50830337790646662</v>
+      </c>
+      <c r="V6" s="5">
+        <f ca="1">$E6*V$2</f>
+        <v>0.50880367650676828</v>
+      </c>
+      <c r="W6" s="5">
+        <f ca="1">$E6*W$2</f>
+        <v>0.50930397510706993</v>
+      </c>
+      <c r="X6" s="5">
+        <f ca="1">$E6*X$2</f>
+        <v>0.50980427370737158</v>
+      </c>
+      <c r="Y6" s="5">
+        <f ca="1">$E6*Y$2</f>
+        <v>0.51030457230767323</v>
+      </c>
+      <c r="Z6" s="5">
+        <f ca="1">$E6*Z$2</f>
+        <v>0.51080487090797477</v>
+      </c>
+      <c r="AA6" s="5">
+        <f ca="1">$E6*AA$2</f>
+        <v>0.51130516950827654</v>
+      </c>
+      <c r="AB6" s="5">
+        <f ca="1">$E6*AB$2</f>
+        <v>0.51180546810857808</v>
+      </c>
+      <c r="AC6" s="5">
+        <f ca="1">$E6*AC$2</f>
+        <v>0.51230576670887984</v>
+      </c>
+    </row>
+    <row r="7" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32381573454371393</v>
+      </c>
+      <c r="F7" s="5">
+        <f ca="1">$E7*F$2</f>
+        <v>0.32413955027825758</v>
+      </c>
+      <c r="G7" s="5">
+        <f ca="1">$E7*G$2</f>
+        <v>0.32446336601280135</v>
+      </c>
+      <c r="H7" s="5">
+        <f ca="1">$E7*H$2</f>
+        <v>0.32478718174734506</v>
+      </c>
+      <c r="I7" s="5">
+        <f ca="1">$E7*I$2</f>
+        <v>0.32511099748188876</v>
+      </c>
+      <c r="J7" s="5">
+        <f ca="1">$E7*J$2</f>
+        <v>0.32543481321643247</v>
+      </c>
+      <c r="K7" s="5">
+        <f ca="1">$E7*K$2</f>
+        <v>0.32575862895097624</v>
+      </c>
+      <c r="L7" s="5">
+        <f ca="1">$E7*L$2</f>
+        <v>0.32608244468551989</v>
+      </c>
+      <c r="M7" s="5">
+        <f ca="1">$E7*M$2</f>
+        <v>0.32640626042006365</v>
+      </c>
+      <c r="N7" s="5">
+        <f ca="1">$E7*N$2</f>
+        <v>0.32673007615460731</v>
+      </c>
+      <c r="O7" s="5">
+        <f ca="1">$E7*O$2</f>
+        <v>0.32705389188915107</v>
+      </c>
+      <c r="P7" s="5">
+        <f ca="1">$E7*P$2</f>
+        <v>0.32737770762369472</v>
+      </c>
+      <c r="Q7" s="5">
+        <f ca="1">$E7*Q$2</f>
+        <v>0.32770152335823849</v>
+      </c>
+      <c r="R7" s="5">
+        <f ca="1">$E7*R$2</f>
+        <v>0.3280253390927822</v>
+      </c>
+      <c r="S7" s="5">
+        <f ca="1">$E7*S$2</f>
+        <v>0.32834915482732591</v>
+      </c>
+      <c r="T7" s="5">
+        <f ca="1">$E7*T$2</f>
+        <v>0.32867297056186962</v>
+      </c>
+      <c r="U7" s="5">
+        <f ca="1">$E7*U$2</f>
+        <v>0.32899678629641338</v>
+      </c>
+      <c r="V7" s="5">
+        <f ca="1">$E7*V$2</f>
+        <v>0.32932060203095703</v>
+      </c>
+      <c r="W7" s="5">
+        <f ca="1">$E7*W$2</f>
+        <v>0.3296444177655008</v>
+      </c>
+      <c r="X7" s="5">
+        <f ca="1">$E7*X$2</f>
+        <v>0.32996823350004445</v>
+      </c>
+      <c r="Y7" s="5">
+        <f ca="1">$E7*Y$2</f>
+        <v>0.33029204923458821</v>
+      </c>
+      <c r="Z7" s="5">
+        <f ca="1">$E7*Z$2</f>
+        <v>0.33061586496913187</v>
+      </c>
+      <c r="AA7" s="5">
+        <f ca="1">$E7*AA$2</f>
+        <v>0.33093968070367563</v>
+      </c>
+      <c r="AB7" s="5">
+        <f ca="1">$E7*AB$2</f>
+        <v>0.33126349643821934</v>
+      </c>
+      <c r="AC7" s="5">
+        <f ca="1">$E7*AC$2</f>
+        <v>0.33158731217276305</v>
+      </c>
+    </row>
+    <row r="8" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69706512539465704</v>
+      </c>
+      <c r="F8" s="5">
+        <f ca="1">$E8*F$2</f>
+        <v>0.69776219052005162</v>
+      </c>
+      <c r="G8" s="5">
+        <f ca="1">$E8*G$2</f>
+        <v>0.69845925564544631</v>
+      </c>
+      <c r="H8" s="5">
+        <f ca="1">$E8*H$2</f>
+        <v>0.69915632077084089</v>
+      </c>
+      <c r="I8" s="5">
+        <f ca="1">$E8*I$2</f>
+        <v>0.69985338589623569</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">$E8*J$2</f>
+        <v>0.70055045102163027</v>
+      </c>
+      <c r="K8" s="5">
+        <f ca="1">$E8*K$2</f>
+        <v>0.70124751614702496</v>
+      </c>
+      <c r="L8" s="5">
+        <f ca="1">$E8*L$2</f>
+        <v>0.70194458127241954</v>
+      </c>
+      <c r="M8" s="5">
+        <f ca="1">$E8*M$2</f>
+        <v>0.70264164639781435</v>
+      </c>
+      <c r="N8" s="5">
+        <f ca="1">$E8*N$2</f>
+        <v>0.70333871152320893</v>
+      </c>
+      <c r="O8" s="5">
+        <f ca="1">$E8*O$2</f>
+        <v>0.70403577664860362</v>
+      </c>
+      <c r="P8" s="5">
+        <f ca="1">$E8*P$2</f>
+        <v>0.7047328417739982</v>
+      </c>
+      <c r="Q8" s="5">
+        <f ca="1">$E8*Q$2</f>
+        <v>0.70542990689939289</v>
+      </c>
+      <c r="R8" s="5">
+        <f ca="1">$E8*R$2</f>
+        <v>0.70612697202478747</v>
+      </c>
+      <c r="S8" s="5">
+        <f ca="1">$E8*S$2</f>
+        <v>0.70682403715018227</v>
+      </c>
+      <c r="T8" s="5">
+        <f ca="1">$E8*T$2</f>
+        <v>0.70752110227557685</v>
+      </c>
+      <c r="U8" s="5">
+        <f ca="1">$E8*U$2</f>
+        <v>0.70821816740097154</v>
+      </c>
+      <c r="V8" s="5">
+        <f ca="1">$E8*V$2</f>
+        <v>0.70891523252636612</v>
+      </c>
+      <c r="W8" s="5">
+        <f ca="1">$E8*W$2</f>
+        <v>0.70961229765176093</v>
+      </c>
+      <c r="X8" s="5">
+        <f ca="1">$E8*X$2</f>
+        <v>0.71030936277715551</v>
+      </c>
+      <c r="Y8" s="5">
+        <f ca="1">$E8*Y$2</f>
+        <v>0.7110064279025502</v>
+      </c>
+      <c r="Z8" s="5">
+        <f ca="1">$E8*Z$2</f>
+        <v>0.71170349302794478</v>
+      </c>
+      <c r="AA8" s="5">
+        <f ca="1">$E8*AA$2</f>
+        <v>0.71240055815333947</v>
+      </c>
+      <c r="AB8" s="5">
+        <f ca="1">$E8*AB$2</f>
+        <v>0.71309762327873405</v>
+      </c>
+      <c r="AC8" s="5">
+        <f ca="1">$E8*AC$2</f>
+        <v>0.71379468840412885</v>
+      </c>
+    </row>
+    <row r="9" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29741014545168343</v>
+      </c>
+      <c r="F9" s="5">
+        <f ca="1">$E9*F$2</f>
+        <v>0.29770755559713508</v>
+      </c>
+      <c r="G9" s="5">
+        <f ca="1">$E9*G$2</f>
+        <v>0.29800496574258678</v>
+      </c>
+      <c r="H9" s="5">
+        <f ca="1">$E9*H$2</f>
+        <v>0.29830237588803843</v>
+      </c>
+      <c r="I9" s="5">
+        <f ca="1">$E9*I$2</f>
+        <v>0.29859978603349019</v>
+      </c>
+      <c r="J9" s="5">
+        <f ca="1">$E9*J$2</f>
+        <v>0.29889719617894184</v>
+      </c>
+      <c r="K9" s="5">
+        <f ca="1">$E9*K$2</f>
+        <v>0.29919460632439354</v>
+      </c>
+      <c r="L9" s="5">
+        <f ca="1">$E9*L$2</f>
+        <v>0.29949201646984519</v>
+      </c>
+      <c r="M9" s="5">
+        <f ca="1">$E9*M$2</f>
+        <v>0.29978942661529689</v>
+      </c>
+      <c r="N9" s="5">
+        <f ca="1">$E9*N$2</f>
+        <v>0.30008683676074854</v>
+      </c>
+      <c r="O9" s="5">
+        <f ca="1">$E9*O$2</f>
+        <v>0.30038424690620025</v>
+      </c>
+      <c r="P9" s="5">
+        <f ca="1">$E9*P$2</f>
+        <v>0.3006816570516519</v>
+      </c>
+      <c r="Q9" s="5">
+        <f ca="1">$E9*Q$2</f>
+        <v>0.30097906719710366</v>
+      </c>
+      <c r="R9" s="5">
+        <f ca="1">$E9*R$2</f>
+        <v>0.3012764773425553</v>
+      </c>
+      <c r="S9" s="5">
+        <f ca="1">$E9*S$2</f>
+        <v>0.30157388748800701</v>
+      </c>
+      <c r="T9" s="5">
+        <f ca="1">$E9*T$2</f>
+        <v>0.30187129763345866</v>
+      </c>
+      <c r="U9" s="5">
+        <f ca="1">$E9*U$2</f>
+        <v>0.30216870777891036</v>
+      </c>
+      <c r="V9" s="5">
+        <f ca="1">$E9*V$2</f>
+        <v>0.30246611792436201</v>
+      </c>
+      <c r="W9" s="5">
+        <f ca="1">$E9*W$2</f>
+        <v>0.30276352806981371</v>
+      </c>
+      <c r="X9" s="5">
+        <f ca="1">$E9*X$2</f>
+        <v>0.30306093821526536</v>
+      </c>
+      <c r="Y9" s="5">
+        <f ca="1">$E9*Y$2</f>
+        <v>0.30335834836071712</v>
+      </c>
+      <c r="Z9" s="5">
+        <f ca="1">$E9*Z$2</f>
+        <v>0.30365575850616877</v>
+      </c>
+      <c r="AA9" s="5">
+        <f ca="1">$E9*AA$2</f>
+        <v>0.30395316865162048</v>
+      </c>
+      <c r="AB9" s="5">
+        <f ca="1">$E9*AB$2</f>
+        <v>0.30425057879707212</v>
+      </c>
+      <c r="AC9" s="5">
+        <f ca="1">$E9*AC$2</f>
+        <v>0.30454798894252383</v>
+      </c>
+    </row>
+    <row r="10" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96807175229714482</v>
+      </c>
+      <c r="F10" s="5">
+        <f ca="1">$E10*F$2</f>
+        <v>0.96903982404944189</v>
+      </c>
+      <c r="G10" s="5">
+        <f ca="1">$E10*G$2</f>
+        <v>0.97000789580173907</v>
+      </c>
+      <c r="H10" s="5">
+        <f ca="1">$E10*H$2</f>
+        <v>0.97097596755403615</v>
+      </c>
+      <c r="I10" s="5">
+        <f ca="1">$E10*I$2</f>
+        <v>0.97194403930633344</v>
+      </c>
+      <c r="J10" s="5">
+        <f ca="1">$E10*J$2</f>
+        <v>0.9729121110586304</v>
+      </c>
+      <c r="K10" s="5">
+        <f ca="1">$E10*K$2</f>
+        <v>0.9738801828109277</v>
+      </c>
+      <c r="L10" s="5">
+        <f ca="1">$E10*L$2</f>
+        <v>0.97484825456322477</v>
+      </c>
+      <c r="M10" s="5">
+        <f ca="1">$E10*M$2</f>
+        <v>0.97581632631552195</v>
+      </c>
+      <c r="N10" s="5">
+        <f ca="1">$E10*N$2</f>
+        <v>0.97678439806781903</v>
+      </c>
+      <c r="O10" s="5">
+        <f ca="1">$E10*O$2</f>
+        <v>0.97775246982011632</v>
+      </c>
+      <c r="P10" s="5">
+        <f ca="1">$E10*P$2</f>
+        <v>0.97872054157241328</v>
+      </c>
+      <c r="Q10" s="5">
+        <f ca="1">$E10*Q$2</f>
+        <v>0.97968861332471058</v>
+      </c>
+      <c r="R10" s="5">
+        <f ca="1">$E10*R$2</f>
+        <v>0.98065668507700765</v>
+      </c>
+      <c r="S10" s="5">
+        <f ca="1">$E10*S$2</f>
+        <v>0.98162475682930483</v>
+      </c>
+      <c r="T10" s="5">
+        <f ca="1">$E10*T$2</f>
+        <v>0.98259282858160191</v>
+      </c>
+      <c r="U10" s="5">
+        <f ca="1">$E10*U$2</f>
+        <v>0.9835609003338992</v>
+      </c>
+      <c r="V10" s="5">
+        <f ca="1">$E10*V$2</f>
+        <v>0.98452897208619616</v>
+      </c>
+      <c r="W10" s="5">
+        <f ca="1">$E10*W$2</f>
+        <v>0.98549704383849346</v>
+      </c>
+      <c r="X10" s="5">
+        <f ca="1">$E10*X$2</f>
+        <v>0.98646511559079053</v>
+      </c>
+      <c r="Y10" s="5">
+        <f ca="1">$E10*Y$2</f>
+        <v>0.98743318734308771</v>
+      </c>
+      <c r="Z10" s="5">
+        <f ca="1">$E10*Z$2</f>
+        <v>0.98840125909538479</v>
+      </c>
+      <c r="AA10" s="5">
+        <f ca="1">$E10*AA$2</f>
+        <v>0.98936933084768197</v>
+      </c>
+      <c r="AB10" s="5">
+        <f ca="1">$E10*AB$2</f>
+        <v>0.99033740259997904</v>
+      </c>
+      <c r="AC10" s="5">
+        <f ca="1">$E10*AC$2</f>
+        <v>0.99130547435227634</v>
+      </c>
+    </row>
+    <row r="11" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68862929524347372</v>
+      </c>
+      <c r="F11" s="5">
+        <f ca="1">$E11*F$2</f>
+        <v>0.6893179245387171</v>
+      </c>
+      <c r="G11" s="5">
+        <f ca="1">$E11*G$2</f>
+        <v>0.6900065538339607</v>
+      </c>
+      <c r="H11" s="5">
+        <f ca="1">$E11*H$2</f>
+        <v>0.69069518312920408</v>
+      </c>
+      <c r="I11" s="5">
+        <f ca="1">$E11*I$2</f>
+        <v>0.69138381242444757</v>
+      </c>
+      <c r="J11" s="5">
+        <f ca="1">$E11*J$2</f>
+        <v>0.69207244171969096</v>
+      </c>
+      <c r="K11" s="5">
+        <f ca="1">$E11*K$2</f>
+        <v>0.69276107101493456</v>
+      </c>
+      <c r="L11" s="5">
+        <f ca="1">$E11*L$2</f>
+        <v>0.69344970031017794</v>
+      </c>
+      <c r="M11" s="5">
+        <f ca="1">$E11*M$2</f>
+        <v>0.69413832960542154</v>
+      </c>
+      <c r="N11" s="5">
+        <f ca="1">$E11*N$2</f>
+        <v>0.69482695890066493</v>
+      </c>
+      <c r="O11" s="5">
+        <f ca="1">$E11*O$2</f>
+        <v>0.69551558819590842</v>
+      </c>
+      <c r="P11" s="5">
+        <f ca="1">$E11*P$2</f>
+        <v>0.69620421749115191</v>
+      </c>
+      <c r="Q11" s="5">
+        <f ca="1">$E11*Q$2</f>
+        <v>0.6968928467863954</v>
+      </c>
+      <c r="R11" s="5">
+        <f ca="1">$E11*R$2</f>
+        <v>0.69758147608163878</v>
+      </c>
+      <c r="S11" s="5">
+        <f ca="1">$E11*S$2</f>
+        <v>0.69827010537688239</v>
+      </c>
+      <c r="T11" s="5">
+        <f ca="1">$E11*T$2</f>
+        <v>0.69895873467212577</v>
+      </c>
+      <c r="U11" s="5">
+        <f ca="1">$E11*U$2</f>
+        <v>0.69964736396736926</v>
+      </c>
+      <c r="V11" s="5">
+        <f ca="1">$E11*V$2</f>
+        <v>0.70033599326261275</v>
+      </c>
+      <c r="W11" s="5">
+        <f ca="1">$E11*W$2</f>
+        <v>0.70102462255785625</v>
+      </c>
+      <c r="X11" s="5">
+        <f ca="1">$E11*X$2</f>
+        <v>0.70171325185309963</v>
+      </c>
+      <c r="Y11" s="5">
+        <f ca="1">$E11*Y$2</f>
+        <v>0.70240188114834323</v>
+      </c>
+      <c r="Z11" s="5">
+        <f ca="1">$E11*Z$2</f>
+        <v>0.70309051044358661</v>
+      </c>
+      <c r="AA11" s="5">
+        <f ca="1">$E11*AA$2</f>
+        <v>0.70377913973883011</v>
+      </c>
+      <c r="AB11" s="5">
+        <f ca="1">$E11*AB$2</f>
+        <v>0.7044677690340736</v>
+      </c>
+      <c r="AC11" s="5">
+        <f ca="1">$E11*AC$2</f>
+        <v>0.70515639832931709</v>
+      </c>
+    </row>
+    <row r="12" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16136126148329211</v>
+      </c>
+      <c r="F12" s="5">
+        <f ca="1">$E12*F$2</f>
+        <v>0.16152262274477538</v>
+      </c>
+      <c r="G12" s="5">
+        <f ca="1">$E12*G$2</f>
+        <v>0.16168398400625869</v>
+      </c>
+      <c r="H12" s="5">
+        <f ca="1">$E12*H$2</f>
+        <v>0.16184534526774197</v>
+      </c>
+      <c r="I12" s="5">
+        <f ca="1">$E12*I$2</f>
+        <v>0.16200670652922528</v>
+      </c>
+      <c r="J12" s="5">
+        <f ca="1">$E12*J$2</f>
+        <v>0.16216806779070855</v>
+      </c>
+      <c r="K12" s="5">
+        <f ca="1">$E12*K$2</f>
+        <v>0.16232942905219186</v>
+      </c>
+      <c r="L12" s="5">
+        <f ca="1">$E12*L$2</f>
+        <v>0.16249079031367514</v>
+      </c>
+      <c r="M12" s="5">
+        <f ca="1">$E12*M$2</f>
+        <v>0.16265215157515844</v>
+      </c>
+      <c r="N12" s="5">
+        <f ca="1">$E12*N$2</f>
+        <v>0.16281351283664172</v>
+      </c>
+      <c r="O12" s="5">
+        <f ca="1">$E12*O$2</f>
+        <v>0.16297487409812503</v>
+      </c>
+      <c r="P12" s="5">
+        <f ca="1">$E12*P$2</f>
+        <v>0.16313623535960831</v>
+      </c>
+      <c r="Q12" s="5">
+        <f ca="1">$E12*Q$2</f>
+        <v>0.16329759662109161</v>
+      </c>
+      <c r="R12" s="5">
+        <f ca="1">$E12*R$2</f>
+        <v>0.16345895788257489</v>
+      </c>
+      <c r="S12" s="5">
+        <f ca="1">$E12*S$2</f>
+        <v>0.1636203191440582</v>
+      </c>
+      <c r="T12" s="5">
+        <f ca="1">$E12*T$2</f>
+        <v>0.16378168040554147</v>
+      </c>
+      <c r="U12" s="5">
+        <f ca="1">$E12*U$2</f>
+        <v>0.16394304166702478</v>
+      </c>
+      <c r="V12" s="5">
+        <f ca="1">$E12*V$2</f>
+        <v>0.16410440292850806</v>
+      </c>
+      <c r="W12" s="5">
+        <f ca="1">$E12*W$2</f>
+        <v>0.16426576418999136</v>
+      </c>
+      <c r="X12" s="5">
+        <f ca="1">$E12*X$2</f>
+        <v>0.16442712545147464</v>
+      </c>
+      <c r="Y12" s="5">
+        <f ca="1">$E12*Y$2</f>
+        <v>0.16458848671295795</v>
+      </c>
+      <c r="Z12" s="5">
+        <f ca="1">$E12*Z$2</f>
+        <v>0.16474984797444123</v>
+      </c>
+      <c r="AA12" s="5">
+        <f ca="1">$E12*AA$2</f>
+        <v>0.16491120923592453</v>
+      </c>
+      <c r="AB12" s="5">
+        <f ca="1">$E12*AB$2</f>
+        <v>0.16507257049740781</v>
+      </c>
+      <c r="AC12" s="5">
+        <f ca="1">$E12*AC$2</f>
+        <v>0.16523393175889112</v>
+      </c>
+    </row>
+    <row r="13" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32233226851644603</v>
+      </c>
+      <c r="F13" s="5">
+        <f ca="1">$E13*F$2</f>
+        <v>0.32265460078496244</v>
+      </c>
+      <c r="G13" s="5">
+        <f ca="1">$E13*G$2</f>
+        <v>0.32297693305347891</v>
+      </c>
+      <c r="H13" s="5">
+        <f ca="1">$E13*H$2</f>
+        <v>0.32329926532199532</v>
+      </c>
+      <c r="I13" s="5">
+        <f ca="1">$E13*I$2</f>
+        <v>0.32362159759051179</v>
+      </c>
+      <c r="J13" s="5">
+        <f ca="1">$E13*J$2</f>
+        <v>0.3239439298590282</v>
+      </c>
+      <c r="K13" s="5">
+        <f ca="1">$E13*K$2</f>
+        <v>0.32426626212754472</v>
+      </c>
+      <c r="L13" s="5">
+        <f ca="1">$E13*L$2</f>
+        <v>0.32458859439606114</v>
+      </c>
+      <c r="M13" s="5">
+        <f ca="1">$E13*M$2</f>
+        <v>0.3249109266645776</v>
+      </c>
+      <c r="N13" s="5">
+        <f ca="1">$E13*N$2</f>
+        <v>0.32523325893309402</v>
+      </c>
+      <c r="O13" s="5">
+        <f ca="1">$E13*O$2</f>
+        <v>0.32555559120161048</v>
+      </c>
+      <c r="P13" s="5">
+        <f ca="1">$E13*P$2</f>
+        <v>0.3258779234701269</v>
+      </c>
+      <c r="Q13" s="5">
+        <f ca="1">$E13*Q$2</f>
+        <v>0.32620025573864336</v>
+      </c>
+      <c r="R13" s="5">
+        <f ca="1">$E13*R$2</f>
+        <v>0.32652258800715978</v>
+      </c>
+      <c r="S13" s="5">
+        <f ca="1">$E13*S$2</f>
+        <v>0.3268449202756763</v>
+      </c>
+      <c r="T13" s="5">
+        <f ca="1">$E13*T$2</f>
+        <v>0.32716725254419271</v>
+      </c>
+      <c r="U13" s="5">
+        <f ca="1">$E13*U$2</f>
+        <v>0.32748958481270918</v>
+      </c>
+      <c r="V13" s="5">
+        <f ca="1">$E13*V$2</f>
+        <v>0.32781191708122559</v>
+      </c>
+      <c r="W13" s="5">
+        <f ca="1">$E13*W$2</f>
+        <v>0.32813424934974206</v>
+      </c>
+      <c r="X13" s="5">
+        <f ca="1">$E13*X$2</f>
+        <v>0.32845658161825847</v>
+      </c>
+      <c r="Y13" s="5">
+        <f ca="1">$E13*Y$2</f>
+        <v>0.32877891388677494</v>
+      </c>
+      <c r="Z13" s="5">
+        <f ca="1">$E13*Z$2</f>
+        <v>0.32910124615529135</v>
+      </c>
+      <c r="AA13" s="5">
+        <f ca="1">$E13*AA$2</f>
+        <v>0.32942357842380787</v>
+      </c>
+      <c r="AB13" s="5">
+        <f ca="1">$E13*AB$2</f>
+        <v>0.32974591069232428</v>
+      </c>
+      <c r="AC13" s="5">
+        <f ca="1">$E13*AC$2</f>
+        <v>0.33006824296084075</v>
+      </c>
+    </row>
+    <row r="14" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8695203337644255</v>
+      </c>
+      <c r="F14" s="5">
+        <f ca="1">$E14*F$2</f>
+        <v>0.87038985409818981</v>
+      </c>
+      <c r="G14" s="5">
+        <f ca="1">$E14*G$2</f>
+        <v>0.87125937443195434</v>
+      </c>
+      <c r="H14" s="5">
+        <f ca="1">$E14*H$2</f>
+        <v>0.87212889476571864</v>
+      </c>
+      <c r="I14" s="5">
+        <f ca="1">$E14*I$2</f>
+        <v>0.87299841509948317</v>
+      </c>
+      <c r="J14" s="5">
+        <f ca="1">$E14*J$2</f>
+        <v>0.87386793543324759</v>
+      </c>
+      <c r="K14" s="5">
+        <f ca="1">$E14*K$2</f>
+        <v>0.87473745576701201</v>
+      </c>
+      <c r="L14" s="5">
+        <f ca="1">$E14*L$2</f>
+        <v>0.87560697610077642</v>
+      </c>
+      <c r="M14" s="5">
+        <f ca="1">$E14*M$2</f>
+        <v>0.87647649643454095</v>
+      </c>
+      <c r="N14" s="5">
+        <f ca="1">$E14*N$2</f>
+        <v>0.87734601676830526</v>
+      </c>
+      <c r="O14" s="5">
+        <f ca="1">$E14*O$2</f>
+        <v>0.87821553710206979</v>
+      </c>
+      <c r="P14" s="5">
+        <f ca="1">$E14*P$2</f>
+        <v>0.87908505743583409</v>
+      </c>
+      <c r="Q14" s="5">
+        <f ca="1">$E14*Q$2</f>
+        <v>0.87995457776959862</v>
+      </c>
+      <c r="R14" s="5">
+        <f ca="1">$E14*R$2</f>
+        <v>0.88082409810336293</v>
+      </c>
+      <c r="S14" s="5">
+        <f ca="1">$E14*S$2</f>
+        <v>0.88169361843712746</v>
+      </c>
+      <c r="T14" s="5">
+        <f ca="1">$E14*T$2</f>
+        <v>0.88256313877089176</v>
+      </c>
+      <c r="U14" s="5">
+        <f ca="1">$E14*U$2</f>
+        <v>0.88343265910465629</v>
+      </c>
+      <c r="V14" s="5">
+        <f ca="1">$E14*V$2</f>
+        <v>0.8843021794384206</v>
+      </c>
+      <c r="W14" s="5">
+        <f ca="1">$E14*W$2</f>
+        <v>0.88517169977218513</v>
+      </c>
+      <c r="X14" s="5">
+        <f ca="1">$E14*X$2</f>
+        <v>0.88604122010594955</v>
+      </c>
+      <c r="Y14" s="5">
+        <f ca="1">$E14*Y$2</f>
+        <v>0.88691074043971407</v>
+      </c>
+      <c r="Z14" s="5">
+        <f ca="1">$E14*Z$2</f>
+        <v>0.88778026077347838</v>
+      </c>
+      <c r="AA14" s="5">
+        <f ca="1">$E14*AA$2</f>
+        <v>0.88864978110724291</v>
+      </c>
+      <c r="AB14" s="5">
+        <f ca="1">$E14*AB$2</f>
+        <v>0.88951930144100722</v>
+      </c>
+      <c r="AC14" s="5">
+        <f ca="1">$E14*AC$2</f>
+        <v>0.89038882177477174</v>
+      </c>
+    </row>
+    <row r="15" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27067359274981828</v>
+      </c>
+      <c r="F15" s="5">
+        <f ca="1">$E15*F$2</f>
+        <v>0.27094426634256807</v>
+      </c>
+      <c r="G15" s="5">
+        <f ca="1">$E15*G$2</f>
+        <v>0.27121493993531792</v>
+      </c>
+      <c r="H15" s="5">
+        <f ca="1">$E15*H$2</f>
+        <v>0.27148561352806772</v>
+      </c>
+      <c r="I15" s="5">
+        <f ca="1">$E15*I$2</f>
+        <v>0.27175628712081756</v>
+      </c>
+      <c r="J15" s="5">
+        <f ca="1">$E15*J$2</f>
+        <v>0.27202696071356736</v>
+      </c>
+      <c r="K15" s="5">
+        <f ca="1">$E15*K$2</f>
+        <v>0.2722976343063172</v>
+      </c>
+      <c r="L15" s="5">
+        <f ca="1">$E15*L$2</f>
+        <v>0.272568307899067</v>
+      </c>
+      <c r="M15" s="5">
+        <f ca="1">$E15*M$2</f>
+        <v>0.27283898149181685</v>
+      </c>
+      <c r="N15" s="5">
+        <f ca="1">$E15*N$2</f>
+        <v>0.27310965508456664</v>
+      </c>
+      <c r="O15" s="5">
+        <f ca="1">$E15*O$2</f>
+        <v>0.27338032867731649</v>
+      </c>
+      <c r="P15" s="5">
+        <f ca="1">$E15*P$2</f>
+        <v>0.27365100227006628</v>
+      </c>
+      <c r="Q15" s="5">
+        <f ca="1">$E15*Q$2</f>
+        <v>0.27392167586281613</v>
+      </c>
+      <c r="R15" s="5">
+        <f ca="1">$E15*R$2</f>
+        <v>0.27419234945556586</v>
+      </c>
+      <c r="S15" s="5">
+        <f ca="1">$E15*S$2</f>
+        <v>0.27446302304831577</v>
+      </c>
+      <c r="T15" s="5">
+        <f ca="1">$E15*T$2</f>
+        <v>0.27473369664106551</v>
+      </c>
+      <c r="U15" s="5">
+        <f ca="1">$E15*U$2</f>
+        <v>0.27500437023381535</v>
+      </c>
+      <c r="V15" s="5">
+        <f ca="1">$E15*V$2</f>
+        <v>0.27527504382656515</v>
+      </c>
+      <c r="W15" s="5">
+        <f ca="1">$E15*W$2</f>
+        <v>0.27554571741931499</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" ref="X15:AC17" ca="1" si="1">$E15*X$2</f>
+        <v>0.27581639101206479</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27608706460481464</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27635773819756443</v>
+      </c>
+      <c r="AA15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27662841179031428</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27689908538306407</v>
+      </c>
+      <c r="AC15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27716975897581392</v>
+      </c>
+    </row>
+    <row r="16" spans="5:41" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67404052173214368</v>
+      </c>
+      <c r="F16" s="5">
+        <f ca="1">$E16*F$2</f>
+        <v>0.67471456225387572</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16:W17" ca="1" si="2">$E16*G$2</f>
+        <v>0.67538860277560797</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67606264329734</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67673668381907226</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67741072434080429</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67808476486253655</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67875880538426858</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67943284590600084</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68010688642773287</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68078092694946513</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68145496747119716</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68212900799292941</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68280304851466145</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6834770890363937</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68415112955812574</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68482517007985799</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68549921060159003</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68617325112332228</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68684729164505431</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68752133216678657</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6881953726885186</v>
+      </c>
+      <c r="AA16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68886941321025086</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68954345373198289</v>
+      </c>
+      <c r="AC16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69021749425371515</v>
+      </c>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65984822897241635</v>
+      </c>
+      <c r="F17" s="5">
+        <f ca="1">$E17*F$2</f>
+        <v>0.66050807720138871</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66116792543036118</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66182777365933354</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66248762188830601</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66314747011727837</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66380731834625084</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6644671665752232</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66512701480419567</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66578686303316803</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6664467112621405</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66710655949111286</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66776640772008533</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66842625594905769</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66908610417803016</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66974595240700252</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67040580063597499</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67106564886494735</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67172549709391982</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67238534532289218</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67304519355186465</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67370504178083701</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67436489000980948</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67502473823878184</v>
+      </c>
+      <c r="AC17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67568458646775431</v>
+      </c>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1">AVERAGE(E4:E17)</f>
+        <v>0.49709167845152141</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:AC19" ca="1" si="3">AVERAGE(F4:F17)</f>
+        <v>0.49758877012997288</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4980858618084244</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49858295348687587</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4990800451653275</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49957713684377897</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50007422852223038</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50057132020068196</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50106841187913365</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.501565503557585</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50206259523603658</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50255968691448794</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50305677859293974</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5035538702713912</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50405096194984278</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50454805362829425</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50504514530674571</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50554223698519729</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50603932866364887</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50653642034210022</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50703351202055191</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50753060369900338</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50802769537745485</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50852478705590642</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50902187873435789</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="12">
+        <f>F2</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22:U22" si="4">G2</f>
+        <v>1.002</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.004</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.006</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.008</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.01</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.012</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.014</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.016</v>
+      </c>
+      <c r="V22" s="12">
+        <f>V2</f>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" ref="W22:AB22" si="5">W2</f>
+        <v>1.018</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="5"/>
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="Y22" s="12">
+        <f t="shared" si="5"/>
+        <v>1.02</v>
+      </c>
+      <c r="Z22" s="12">
+        <f t="shared" si="5"/>
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="AA22" s="12">
+        <f t="shared" si="5"/>
+        <v>1.022</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="5"/>
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="AC22" s="12">
+        <f>AC2</f>
+        <v>1.024</v>
+      </c>
+      <c r="AD22" s="12">
+        <f>AD2</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AE22" s="12">
+        <f t="shared" ref="AE22:AO22" si="6">AE2</f>
+        <v>1.026</v>
+      </c>
+      <c r="AF22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="AG22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.028</v>
+      </c>
+      <c r="AH22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="AI22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.03</v>
+      </c>
+      <c r="AJ22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="AK22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.032</v>
+      </c>
+      <c r="AL22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="AM22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.034</v>
+      </c>
+      <c r="AN22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="AO22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.67456847068250103</v>
+      </c>
+      <c r="D23" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.44266607557698578</v>
+      </c>
+      <c r="E23" s="10">
+        <f ca="1">RAND()</f>
+        <v>0.84947119241994473</v>
+      </c>
+      <c r="F23" s="10">
+        <f ca="1">$E23*F$22</f>
+        <v>0.85032066361236458</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" ref="G23:AC34" ca="1" si="7">$E23*G$22</f>
+        <v>0.85117013480478465</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8520196059972045</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85286907718962446</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85371854838204442</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85456801957446438</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85541749076688423</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8562669619593043</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85711643315172414</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85796590434414421</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85881537553656406</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.85966484672898402</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86051431792140398</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86136378911382394</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86221326030624379</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86306273149866386</v>
+      </c>
+      <c r="V23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86391220269108371</v>
+      </c>
+      <c r="W23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86476167388350378</v>
+      </c>
+      <c r="X23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86561114507592363</v>
+      </c>
+      <c r="Y23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86646061626834359</v>
+      </c>
+      <c r="Z23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86731008746076355</v>
+      </c>
+      <c r="AA23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86815955865318351</v>
+      </c>
+      <c r="AB23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86900902984560335</v>
+      </c>
+      <c r="AC23" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86985850103802342</v>
+      </c>
+      <c r="AD23" s="10">
+        <f ca="1">$E23*AD$22</f>
+        <v>0.87070797223044327</v>
+      </c>
+      <c r="AE23" s="10">
+        <f t="shared" ref="AE23:AO37" ca="1" si="8">$E23*AE$22</f>
+        <v>0.87155744342286334</v>
+      </c>
+      <c r="AF23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87240691461528319</v>
+      </c>
+      <c r="AG23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87325638580770315</v>
+      </c>
+      <c r="AH23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87410585700012311</v>
+      </c>
+      <c r="AI23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87495532819254307</v>
+      </c>
+      <c r="AJ23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87580479938496292</v>
+      </c>
+      <c r="AK23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87665427057738299</v>
+      </c>
+      <c r="AL23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87750374176980284</v>
+      </c>
+      <c r="AM23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87835321296222291</v>
+      </c>
+      <c r="AN23" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87920268415464276</v>
+      </c>
+      <c r="AO23" s="10">
+        <f ca="1">$E23*AO$22</f>
+        <v>0.88005215534706271</v>
+      </c>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:E37" ca="1" si="9">RAND()</f>
+        <v>0.20830772227365757</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.18493420604460409</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.46426896255411865</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:U37" ca="1" si="10">$E24*F$22</f>
+        <v>0.46473323151667273</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46519750047922687</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46566176944178095</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46612603840433514</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46659030736688917</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46705457632944336</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46751884529199744</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46798311425455158</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46844738321710566</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46891165217965985</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46937592114221388</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46984019010476807</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47030445906732216</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47076872802987629</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47123299699243038</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47169726595498457</v>
+      </c>
+      <c r="V24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47216153491753859</v>
+      </c>
+      <c r="W24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47262580388009279</v>
+      </c>
+      <c r="X24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47309007284264687</v>
+      </c>
+      <c r="Y24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47355434180520101</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47401861076775509</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47448287973030928</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.47494714869286331</v>
+      </c>
+      <c r="AC24" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.4754114176554175</v>
+      </c>
+      <c r="AD24" s="10">
+        <f t="shared" ref="AD24:AO37" ca="1" si="11">$E24*AD$22</f>
+        <v>0.47587568661797158</v>
+      </c>
+      <c r="AE24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47633995558052572</v>
+      </c>
+      <c r="AF24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.4768042245430798</v>
+      </c>
+      <c r="AG24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47726849350563399</v>
+      </c>
+      <c r="AH24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47773276246818802</v>
+      </c>
+      <c r="AI24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47819703143074221</v>
+      </c>
+      <c r="AJ24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.4786613003932963</v>
+      </c>
+      <c r="AK24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47912556935585043</v>
+      </c>
+      <c r="AL24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47958983831840452</v>
+      </c>
+      <c r="AM24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.48005410728095871</v>
+      </c>
+      <c r="AN24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.48051837624351279</v>
+      </c>
+      <c r="AO24" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.48098264520606693</v>
+      </c>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.21612383182221762</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.34160840223648714</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32903189078057871</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.32936092267135925</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32968995456213984</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33001898645292038</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33034801834370103</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33067705023448157</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33100608212526217</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33133511401604271</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33166414590682336</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.3319931777976039</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.3323222096883845</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33265124157916504</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33298027346994563</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33330930536072617</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33363833725150682</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33396736914228736</v>
+      </c>
+      <c r="U25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33429640103306796</v>
+      </c>
+      <c r="V25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.3346254329238485</v>
+      </c>
+      <c r="W25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33495446481462915</v>
+      </c>
+      <c r="X25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33528349670540969</v>
+      </c>
+      <c r="Y25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33561252859619028</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33594156048697082</v>
+      </c>
+      <c r="AA25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33627059237775142</v>
+      </c>
+      <c r="AB25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33659962426853196</v>
+      </c>
+      <c r="AC25" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.33692865615931261</v>
+      </c>
+      <c r="AD25" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.33725768805009315</v>
+      </c>
+      <c r="AE25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33758671994087375</v>
+      </c>
+      <c r="AF25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33791575183165429</v>
+      </c>
+      <c r="AG25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33824478372243494</v>
+      </c>
+      <c r="AH25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33857381561321548</v>
+      </c>
+      <c r="AI25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33890284750399607</v>
+      </c>
+      <c r="AJ25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33923187939477661</v>
+      </c>
+      <c r="AK25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33956091128555721</v>
+      </c>
+      <c r="AL25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33988994317633775</v>
+      </c>
+      <c r="AM25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3402189750671184</v>
+      </c>
+      <c r="AN25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34054800695789894</v>
+      </c>
+      <c r="AO25" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34087703884867954</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.50341663208697918</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.59627285449859024</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.7176070492474691</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.71832465629671649</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.71904226334596399</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.71975987039521139</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.720477477444459</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7211950844937064</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7219126915429539</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.72263029859220129</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.72334790564144891</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7240655126906963</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7247831197399438</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7255007267891912</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7262183338384387</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.72693594088768609</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.72765354793693371</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7283711549861811</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.72908876203542861</v>
+      </c>
+      <c r="V26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.729806369084676</v>
+      </c>
+      <c r="W26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7305239761339235</v>
+      </c>
+      <c r="X26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7312415831831709</v>
+      </c>
+      <c r="Y26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73195919023241851</v>
+      </c>
+      <c r="Z26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7326767972816659</v>
+      </c>
+      <c r="AA26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73339440433091341</v>
+      </c>
+      <c r="AB26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.7341120113801608</v>
+      </c>
+      <c r="AC26" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.73482961842940842</v>
+      </c>
+      <c r="AD26" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.73554722547865581</v>
+      </c>
+      <c r="AE26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73626483252790331</v>
+      </c>
+      <c r="AF26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73698243957715071</v>
+      </c>
+      <c r="AG26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73770004662639821</v>
+      </c>
+      <c r="AH26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.7384176536756456</v>
+      </c>
+      <c r="AI26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73913526072489322</v>
+      </c>
+      <c r="AJ26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73985286777414061</v>
+      </c>
+      <c r="AK26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74057047482338811</v>
+      </c>
+      <c r="AL26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74128808187263551</v>
+      </c>
+      <c r="AM26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74200568892188312</v>
+      </c>
+      <c r="AN26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.7427232959711304</v>
+      </c>
+      <c r="AO26" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74344090302037802</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.70297464214330163</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.66679802060578897</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.86080412514861326</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.86166492927376181</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86252573339891048</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86338653752405903</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86424734164920769</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86510814577435624</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8659689498995049</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86682975402465345</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86769055814980223</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86855136227495067</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.86941216640009944</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87027297052524788</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87113377465039665</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8719945787755452</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87285538290069387</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87371618702584242</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87457699115099108</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87543779527613963</v>
+      </c>
+      <c r="W27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87629859940128829</v>
+      </c>
+      <c r="X27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87715940352643684</v>
+      </c>
+      <c r="Y27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8780202076515855</v>
+      </c>
+      <c r="Z27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87888101177673406</v>
+      </c>
+      <c r="AA27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87974181590188272</v>
+      </c>
+      <c r="AB27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.88060262002703127</v>
+      </c>
+      <c r="AC27" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.88146342415218004</v>
+      </c>
+      <c r="AD27" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.88232422827732848</v>
+      </c>
+      <c r="AE27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88318503240247725</v>
+      </c>
+      <c r="AF27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88404583652762569</v>
+      </c>
+      <c r="AG27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88490664065277447</v>
+      </c>
+      <c r="AH27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88576744477792302</v>
+      </c>
+      <c r="AI27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88662824890307168</v>
+      </c>
+      <c r="AJ27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88748905302822023</v>
+      </c>
+      <c r="AK27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88834985715336889</v>
+      </c>
+      <c r="AL27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.88921066127851744</v>
+      </c>
+      <c r="AM27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.89007146540366611</v>
+      </c>
+      <c r="AN27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.89093226952881466</v>
+      </c>
+      <c r="AO27" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.89179307365396332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32074903766288387</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.33024540732734353</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.91384739167274476</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.91476123906441742</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9156750864560903</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91658893384776285</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91750278123943574</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9184166286311084</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91933047602278128</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92024432341445384</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92115817080612672</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92207201819779938</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92298586558947227</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92389971298114482</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9248135603728177</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92572740776449036</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92664125515616325</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9275551025478358</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92846894993950868</v>
+      </c>
+      <c r="V28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92938279733118134</v>
+      </c>
+      <c r="W28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93029664472285423</v>
+      </c>
+      <c r="X28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93121049211452678</v>
+      </c>
+      <c r="Y28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93212433950619966</v>
+      </c>
+      <c r="Z28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93303818689787232</v>
+      </c>
+      <c r="AA28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93395203428954521</v>
+      </c>
+      <c r="AB28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93486588168121776</v>
+      </c>
+      <c r="AC28" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93577972907289064</v>
+      </c>
+      <c r="AD28" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.9366935764645633</v>
+      </c>
+      <c r="AE28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93760742385623619</v>
+      </c>
+      <c r="AF28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93852127124790874</v>
+      </c>
+      <c r="AG28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93943511863958162</v>
+      </c>
+      <c r="AH28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94034896603125429</v>
+      </c>
+      <c r="AI28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94126281342292717</v>
+      </c>
+      <c r="AJ28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94217666081459972</v>
+      </c>
+      <c r="AK28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.9430905082062726</v>
+      </c>
+      <c r="AL28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94400435559794527</v>
+      </c>
+      <c r="AM28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94491820298961815</v>
+      </c>
+      <c r="AN28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.9458320503812907</v>
+      </c>
+      <c r="AO28" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94674589777296358</v>
+      </c>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.6514828383092035</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.48887374393130034</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.90920501545375254</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.9101142204692062</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91102342548466009</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91193263050011375</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91284183551556752</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91375104053102119</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91466024554647507</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91556945056192873</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91647865557738262</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91738786059283617</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91829706560829005</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91920627062374372</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9201154756391976</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92102468065465126</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92193388567010504</v>
+      </c>
+      <c r="T29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9228430906855587</v>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92375229570101258</v>
+      </c>
+      <c r="V29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92466150071646624</v>
+      </c>
+      <c r="W29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92557070573192013</v>
+      </c>
+      <c r="X29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92647991074737379</v>
+      </c>
+      <c r="Y29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92738911576282756</v>
+      </c>
+      <c r="Z29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92829832077828123</v>
+      </c>
+      <c r="AA29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.92920752579373511</v>
+      </c>
+      <c r="AB29" s="10">
+        <f ca="1">$E29*AB$22</f>
+        <v>0.93011673080918877</v>
+      </c>
+      <c r="AC29" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.93102593582464266</v>
+      </c>
+      <c r="AD29" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.93193514084009632</v>
+      </c>
+      <c r="AE29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93284434585555009</v>
+      </c>
+      <c r="AF29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93375355087100376</v>
+      </c>
+      <c r="AG29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93466275588645764</v>
+      </c>
+      <c r="AH29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.9355719609019113</v>
+      </c>
+      <c r="AI29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93648116591736519</v>
+      </c>
+      <c r="AJ29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93739037093281874</v>
+      </c>
+      <c r="AK29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93829957594827262</v>
+      </c>
+      <c r="AL29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93920878096372629</v>
+      </c>
+      <c r="AM29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94011798597918017</v>
+      </c>
+      <c r="AN29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94102719099463383</v>
+      </c>
+      <c r="AO29" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.94193639601008761</v>
+      </c>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.84917943477903E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.24406166120993733</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.63434475851728012</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.63497910327579732</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63561344803431463</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63624779279283183</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63688213755134926</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63751648230986646</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63815082706838377</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.63878517182690098</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.6394195165854184</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.6400538613439356</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64068820610245292</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64132255086097012</v>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64195689561948743</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64259124037800475</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64322558513652206</v>
+      </c>
+      <c r="T30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64385992989503926</v>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64449427465355658</v>
+      </c>
+      <c r="V30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64512861941207378</v>
+      </c>
+      <c r="W30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.6457629641705912</v>
+      </c>
+      <c r="X30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64639730892910841</v>
+      </c>
+      <c r="Y30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64703165368762572</v>
+      </c>
+      <c r="Z30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64766599844614292</v>
+      </c>
+      <c r="AA30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64830034320466035</v>
+      </c>
+      <c r="AB30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64893468796317755</v>
+      </c>
+      <c r="AC30" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.64956903272169486</v>
+      </c>
+      <c r="AD30" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.65020337748021206</v>
+      </c>
+      <c r="AE30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65083772223872938</v>
+      </c>
+      <c r="AF30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65147206699724658</v>
+      </c>
+      <c r="AG30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.652106411755764</v>
+      </c>
+      <c r="AH30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65274075651428121</v>
+      </c>
+      <c r="AI30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65337510127279852</v>
+      </c>
+      <c r="AJ30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65400944603131572</v>
+      </c>
+      <c r="AK30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65464379078983315</v>
+      </c>
+      <c r="AL30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65527813554835035</v>
+      </c>
+      <c r="AM30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65591248030686766</v>
+      </c>
+      <c r="AN30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65654682506538486</v>
+      </c>
+      <c r="AO30" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65718116982390218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.83041299787170786</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.14356941585450456</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.4625054098284442E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.4679679152382719E-2</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.473430420648101E-2</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.4788929260579287E-2</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.4843554314677578E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.4898179368775855E-2</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.4952804422874146E-2</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.500742947697243E-2</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5062054531070721E-2</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5116679585168998E-2</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5171304639267289E-2</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5225929693365566E-2</v>
+      </c>
+      <c r="Q31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5280554747463857E-2</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5335179801562134E-2</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5389804855660425E-2</v>
+      </c>
+      <c r="T31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5444429909758702E-2</v>
+      </c>
+      <c r="U31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5499054963856993E-2</v>
+      </c>
+      <c r="V31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.555368001795527E-2</v>
+      </c>
+      <c r="W31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5608305072053561E-2</v>
+      </c>
+      <c r="X31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5662930126151838E-2</v>
+      </c>
+      <c r="Y31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5717555180250129E-2</v>
+      </c>
+      <c r="Z31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5772180234348413E-2</v>
+      </c>
+      <c r="AA31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5826805288446704E-2</v>
+      </c>
+      <c r="AB31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5881430342544981E-2</v>
+      </c>
+      <c r="AC31" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5936055396643272E-2</v>
+      </c>
+      <c r="AD31" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5990680450741549E-2</v>
+      </c>
+      <c r="AE31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.604530550483984E-2</v>
+      </c>
+      <c r="AF31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6099930558938117E-2</v>
+      </c>
+      <c r="AG31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6154555613036408E-2</v>
+      </c>
+      <c r="AH31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6209180667134685E-2</v>
+      </c>
+      <c r="AI31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6263805721232976E-2</v>
+      </c>
+      <c r="AJ31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6318430775331253E-2</v>
+      </c>
+      <c r="AK31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6373055829429544E-2</v>
+      </c>
+      <c r="AL31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6427680883527821E-2</v>
+      </c>
+      <c r="AM31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6482305937626112E-2</v>
+      </c>
+      <c r="AN31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6536930991724396E-2</v>
+      </c>
+      <c r="AO31" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6591556045822687E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.82504179880223338</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.87062784832314688</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.31754482055149691</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.31786236537204837</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31817991019259989</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31849745501315135</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31881499983370287</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31913254465425434</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31945008947480591</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.31976763429535737</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32008517911590889</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32040272393646035</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32072026875701187</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32103781357756334</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32135535839811485</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32167290321866632</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32199044803921789</v>
+      </c>
+      <c r="T32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32230799285976935</v>
+      </c>
+      <c r="U32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32262553768032087</v>
+      </c>
+      <c r="V32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32294308250087234</v>
+      </c>
+      <c r="W32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32326062732142385</v>
+      </c>
+      <c r="X32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32357817214197532</v>
+      </c>
+      <c r="Y32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32389571696252684</v>
+      </c>
+      <c r="Z32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.3242132617830783</v>
+      </c>
+      <c r="AA32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32453080660362987</v>
+      </c>
+      <c r="AB32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32484835142418134</v>
+      </c>
+      <c r="AC32" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.32516589624473285</v>
+      </c>
+      <c r="AD32" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32548344106528432</v>
+      </c>
+      <c r="AE32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32580098588583584</v>
+      </c>
+      <c r="AF32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3261185307063873</v>
+      </c>
+      <c r="AG32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32643607552693882</v>
+      </c>
+      <c r="AH32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32675362034749028</v>
+      </c>
+      <c r="AI32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3270711651680418</v>
+      </c>
+      <c r="AJ32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32738870998859326</v>
+      </c>
+      <c r="AK32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32770625480914484</v>
+      </c>
+      <c r="AL32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3280237996296963</v>
+      </c>
+      <c r="AM32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32834134445024782</v>
+      </c>
+      <c r="AN32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32865888927079928</v>
+      </c>
+      <c r="AO32" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3289764340913508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.73608873468189484</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.59181823661499011</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.65621090959095918</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.65686712050055007</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65752333141014108</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65817954231973197</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65883575322932297</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65949196413891387</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66014817504850498</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66080438595809587</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66146059686768688</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66211680777727777</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66277301868686878</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66342922959645967</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66408544050605067</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66474165141564157</v>
+      </c>
+      <c r="S33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66539786232523257</v>
+      </c>
+      <c r="T33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66605407323482346</v>
+      </c>
+      <c r="U33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66671028414441458</v>
+      </c>
+      <c r="V33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66736649505400547</v>
+      </c>
+      <c r="W33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66802270596359647</v>
+      </c>
+      <c r="X33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66867891687318737</v>
+      </c>
+      <c r="Y33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66933512778277837</v>
+      </c>
+      <c r="Z33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.66999133869236926</v>
+      </c>
+      <c r="AA33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67064754960196027</v>
+      </c>
+      <c r="AB33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67130376051155116</v>
+      </c>
+      <c r="AC33" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67195997142114217</v>
+      </c>
+      <c r="AD33" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.67261618233073306</v>
+      </c>
+      <c r="AE33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67327239324032417</v>
+      </c>
+      <c r="AF33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67392860414991507</v>
+      </c>
+      <c r="AG33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67458481505950607</v>
+      </c>
+      <c r="AH33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67524102596909696</v>
+      </c>
+      <c r="AI33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67589723687868797</v>
+      </c>
+      <c r="AJ33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67655344778827886</v>
+      </c>
+      <c r="AK33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67720965869786987</v>
+      </c>
+      <c r="AL33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67786586960746076</v>
+      </c>
+      <c r="AM33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67852208051705176</v>
+      </c>
+      <c r="AN33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67917829142664266</v>
+      </c>
+      <c r="AO33" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.67983450233623377</v>
+      </c>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.18372940175335983</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1674822001558227E-2</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.6739949108046841E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.6836689057154882E-2</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.6933429006262936E-2</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7030168955370977E-2</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7126908904479031E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7223648853587058E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7320388802695126E-2</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7417128751803153E-2</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7513868700911221E-2</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7610608650019248E-2</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7707348599127317E-2</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7804088548235343E-2</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7900828497343398E-2</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.7997568446451438E-2</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8094308395559493E-2</v>
+      </c>
+      <c r="T34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8191048344667534E-2</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8287788293775588E-2</v>
+      </c>
+      <c r="V34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8384528242883629E-2</v>
+      </c>
+      <c r="W34" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.8481268191991683E-2</v>
+      </c>
+      <c r="X34" s="10">
+        <f t="shared" ref="G34:AE37" ca="1" si="12">$E34*X$22</f>
+        <v>9.8578008141099724E-2</v>
+      </c>
+      <c r="Y34" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.8674748090207778E-2</v>
+      </c>
+      <c r="Z34" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.8771488039315819E-2</v>
+      </c>
+      <c r="AA34" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.8868227988423873E-2</v>
+      </c>
+      <c r="AB34" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.8964967937531914E-2</v>
+      </c>
+      <c r="AC34" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.9061707886639969E-2</v>
+      </c>
+      <c r="AD34" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.9158447835748009E-2</v>
+      </c>
+      <c r="AE34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9255187784856064E-2</v>
+      </c>
+      <c r="AF34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.935192773396409E-2</v>
+      </c>
+      <c r="AG34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9448667683072159E-2</v>
+      </c>
+      <c r="AH34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9545407632180186E-2</v>
+      </c>
+      <c r="AI34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9642147581288254E-2</v>
+      </c>
+      <c r="AJ34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9738887530396281E-2</v>
+      </c>
+      <c r="AK34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9835627479504349E-2</v>
+      </c>
+      <c r="AL34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>9.9932367428612376E-2</v>
+      </c>
+      <c r="AM34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10002910737772043</v>
+      </c>
+      <c r="AN34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10012584732682847</v>
+      </c>
+      <c r="AO34" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10022258727593653</v>
+      </c>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.4101935247117201</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.68031051372440243</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.67398751306605464</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.67466150057912067</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6753354880921868</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67600947560525271</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67668346311831884</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67735745063138486</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67803143814445099</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6787054256575169</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.67937941317058304</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68005340068364906</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68072738819671519</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68140137570978121</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68207536322284734</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68274935073591325</v>
+      </c>
+      <c r="S35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68342333824897938</v>
+      </c>
+      <c r="T35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68409732576204541</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68477131327511154</v>
+      </c>
+      <c r="V35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68544530078817756</v>
+      </c>
+      <c r="W35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68611928830124369</v>
+      </c>
+      <c r="X35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6867932758143096</v>
+      </c>
+      <c r="Y35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68746726332737573</v>
+      </c>
+      <c r="Z35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68814125084044175</v>
+      </c>
+      <c r="AA35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.68881523835350789</v>
+      </c>
+      <c r="AB35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6894892258665738</v>
+      </c>
+      <c r="AC35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.69016321337963993</v>
+      </c>
+      <c r="AD35" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.69083720089270595</v>
+      </c>
+      <c r="AE35" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.69151118840577208</v>
+      </c>
+      <c r="AF35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6921851759188381</v>
+      </c>
+      <c r="AG35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69285916343190423</v>
+      </c>
+      <c r="AH35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69353315094497014</v>
+      </c>
+      <c r="AI35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69420713845803628</v>
+      </c>
+      <c r="AJ35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6948811259711023</v>
+      </c>
+      <c r="AK35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69555511348416843</v>
+      </c>
+      <c r="AL35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69622910099723434</v>
+      </c>
+      <c r="AM35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69690308851030047</v>
+      </c>
+      <c r="AN35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69757707602336649</v>
+      </c>
+      <c r="AO35" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69825106353643263</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.98310256973594567</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.13805042563456171</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.10264132865825482</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10274396998691306</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10284661131557132</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10294925264422956</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10305189397288783</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10315453530154609</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10325717663020434</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10335981795886259</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10346245928752086</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.1035651006161791</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10366774194483737</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10377038327349561</v>
+      </c>
+      <c r="Q36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10387302460215388</v>
+      </c>
+      <c r="R36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10397566593081212</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10407830725947038</v>
+      </c>
+      <c r="T36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10418094858812862</v>
+      </c>
+      <c r="U36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10428358991678689</v>
+      </c>
+      <c r="V36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10438623124544513</v>
+      </c>
+      <c r="W36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.1044888725741034</v>
+      </c>
+      <c r="X36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10459151390276165</v>
+      </c>
+      <c r="Y36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10469415523141991</v>
+      </c>
+      <c r="Z36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10479679656007816</v>
+      </c>
+      <c r="AA36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10489943788873643</v>
+      </c>
+      <c r="AB36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10500207921739467</v>
+      </c>
+      <c r="AC36" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10510472054605294</v>
+      </c>
+      <c r="AD36" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10520736187471118</v>
+      </c>
+      <c r="AE36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10531000320336945</v>
+      </c>
+      <c r="AF36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10541264453202769</v>
+      </c>
+      <c r="AG36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10551528586068595</v>
+      </c>
+      <c r="AH36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10561792718934419</v>
+      </c>
+      <c r="AI36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10572056851800246</v>
+      </c>
+      <c r="AJ36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.1058232098466607</v>
+      </c>
+      <c r="AK36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10592585117531897</v>
+      </c>
+      <c r="AL36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10602849250397722</v>
+      </c>
+      <c r="AM36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10613113383263548</v>
+      </c>
+      <c r="AN36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.10623377516129373</v>
+      </c>
+      <c r="AO36" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.106336416489952</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.17269992037850379</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.65219633519596876</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.2576117351160826</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.25786934685119867</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25812695858631474</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25838457032143081</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25864218205654693</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.258899793791663</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25915740552677907</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25941501726189514</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25967262899701127</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25993024073212734</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26018785246724341</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26044546420235948</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.2607030759374756</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26096068767259162</v>
+      </c>
+      <c r="S37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26121829940770774</v>
+      </c>
+      <c r="T37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26147591114282381</v>
+      </c>
+      <c r="U37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26173352287793994</v>
+      </c>
+      <c r="V37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26199113461305595</v>
+      </c>
+      <c r="W37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26224874634817208</v>
+      </c>
+      <c r="X37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26250635808328815</v>
+      </c>
+      <c r="Y37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26276396981840427</v>
+      </c>
+      <c r="Z37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26302158155352029</v>
+      </c>
+      <c r="AA37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26327919328863642</v>
+      </c>
+      <c r="AB37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26353680502375249</v>
+      </c>
+      <c r="AC37" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.26379441675886861</v>
+      </c>
+      <c r="AD37" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.26405202849398463</v>
+      </c>
+      <c r="AE37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26430964022910075</v>
+      </c>
+      <c r="AF37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26456725196421682</v>
+      </c>
+      <c r="AG37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26482486369933289</v>
+      </c>
+      <c r="AH37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26508247543444896</v>
+      </c>
+      <c r="AI37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26534008716956509</v>
+      </c>
+      <c r="AJ37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26559769890468116</v>
+      </c>
+      <c r="AK37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26585531063979723</v>
+      </c>
+      <c r="AL37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2661129223749133</v>
+      </c>
+      <c r="AM37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26637053411002942</v>
+      </c>
+      <c r="AN37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26662814584514549</v>
+      </c>
+      <c r="AO37" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26688575758026156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="15">
+        <f ca="1">F23/E23-1</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8">
+        <f ca="1">AVERAGE(E23:E37)</f>
+        <v>0.52252944639891197</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" ref="F40:AC40" ca="1" si="13">AVERAGE(F23:F37)</f>
+        <v>0.52305197584531093</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52357450529171001</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52409703473810876</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52461956418450773</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52514209363090658</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52566462307730555</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52618715252370429</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52670968197010337</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52723221141650223</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52775474086290119</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52827727030930005</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52879979975569902</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52932232920209787</v>
+      </c>
+      <c r="S40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.52984485864849684</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5303673880948957</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53088991754129466</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53141244698769341</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5319349764340926</v>
+      </c>
+      <c r="X40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53245750588049146</v>
+      </c>
+      <c r="Y40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53298003532689031</v>
+      </c>
+      <c r="Z40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53350256477328917</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53402509421968813</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53454762366608699</v>
+      </c>
+      <c r="AC40" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.53507015311248607</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" ref="AD40:AO40" ca="1" si="14">AVERAGE(AD23:AD37)</f>
+        <v>0.53559268255888492</v>
+      </c>
+      <c r="AE40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53611521200528378</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53663774145168275</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.5371602708980816</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53768280034448046</v>
+      </c>
+      <c r="AI40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53820532979087943</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53872785923727828</v>
+      </c>
+      <c r="AK40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53925038868367736</v>
+      </c>
+      <c r="AL40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.53977291813007622</v>
+      </c>
+      <c r="AM40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.54029544757647519</v>
+      </c>
+      <c r="AN40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.54081797702287382</v>
+      </c>
+      <c r="AO40" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.5413405064692729</v>
+      </c>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="13">
+        <f ca="1">AC40/E40-1</f>
+        <v>2.4000000000000465E-2</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="13">
+        <f ca="1">AO40/E40-1</f>
+        <v>3.6000000000000254E-2</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f ca="1">C23/SUM($C23:$E23)</f>
+        <v>0.3429941029894224</v>
+      </c>
+      <c r="D45">
+        <f ca="1">D23/SUM($C23:$E23)</f>
+        <v>0.22507997351663767</v>
+      </c>
+      <c r="E45" s="10">
+        <f ca="1">E23/SUM($C23:$E23)</f>
+        <v>0.43192592349393993</v>
+      </c>
+      <c r="F45" s="10">
+        <f ca="1">F23/($C23+$D23+F23)</f>
+        <v>0.4321711834799018</v>
+      </c>
+      <c r="G45" s="10">
+        <f ca="1">G23/($C23+$D23+G23)</f>
+        <v>0.43241623178043676</v>
+      </c>
+      <c r="H45" s="10">
+        <f ca="1">H23/($C23+$D23+H23)</f>
+        <v>0.43266106866948689</v>
+      </c>
+      <c r="I45" s="10">
+        <f ca="1">I23/($C23+$D23+I23)</f>
+        <v>0.43290569442052218</v>
+      </c>
+      <c r="J45" s="10">
+        <f ca="1">J23/($C23+$D23+J23)</f>
+        <v>0.43315010930654096</v>
+      </c>
+      <c r="K45" s="10">
+        <f ca="1">K23/($C23+$D23+K23)</f>
+        <v>0.43339431360007119</v>
+      </c>
+      <c r="L45" s="10">
+        <f ca="1">L23/($C23+$D23+L23)</f>
+        <v>0.43363830757317123</v>
+      </c>
+      <c r="M45" s="10">
+        <f ca="1">M23/($C23+$D23+M23)</f>
+        <v>0.43388209149743134</v>
+      </c>
+      <c r="N45" s="10">
+        <f ca="1">N23/($C23+$D23+N23)</f>
+        <v>0.43412566564397409</v>
+      </c>
+      <c r="O45" s="10">
+        <f ca="1">O23/($C23+$D23+O23)</f>
+        <v>0.43436903028345586</v>
+      </c>
+      <c r="P45" s="10">
+        <f ca="1">P23/($C23+$D23+P23)</f>
+        <v>0.43461218568606735</v>
+      </c>
+      <c r="Q45" s="10">
+        <f ca="1">Q23/($C23+$D23+Q23)</f>
+        <v>0.43485513212153509</v>
+      </c>
+      <c r="R45" s="10">
+        <f ca="1">R23/($C23+$D23+R23)</f>
+        <v>0.43509786985912219</v>
+      </c>
+      <c r="S45" s="10">
+        <f ca="1">S23/($C23+$D23+S23)</f>
+        <v>0.43534039916762929</v>
+      </c>
+      <c r="T45" s="10">
+        <f ca="1">T23/($C23+$D23+T23)</f>
+        <v>0.43558272031539552</v>
+      </c>
+      <c r="U45" s="10">
+        <f ca="1">U23/($C23+$D23+U23)</f>
+        <v>0.43582483357029983</v>
+      </c>
+      <c r="V45" s="10">
+        <f ca="1">V23/($C23+$D23+V23)</f>
+        <v>0.43606673919976147</v>
+      </c>
+      <c r="W45" s="10">
+        <f ca="1">W23/($C23+$D23+W23)</f>
+        <v>0.43630843747074138</v>
+      </c>
+      <c r="X45" s="10">
+        <f ca="1">X23/($C23+$D23+X23)</f>
+        <v>0.43654992864974296</v>
+      </c>
+      <c r="Y45" s="10">
+        <f ca="1">Y23/($C23+$D23+Y23)</f>
+        <v>0.43679121300281315</v>
+      </c>
+      <c r="Z45" s="10">
+        <f ca="1">Z23/($C23+$D23+Z23)</f>
+        <v>0.43703229079554334</v>
+      </c>
+      <c r="AA45" s="10">
+        <f ca="1">AA23/($C23+$D23+AA23)</f>
+        <v>0.43727316229307045</v>
+      </c>
+      <c r="AB45" s="10">
+        <f ca="1">AB23/($C23+$D23+AB23)</f>
+        <v>0.43751382776007774</v>
+      </c>
+      <c r="AC45" s="10">
+        <f ca="1">AC23/($C23+$D23+AC23)</f>
+        <v>0.43775428746079603</v>
+      </c>
+      <c r="AD45" s="10">
+        <f ca="1">AD23/($C23+$D23+AD23)</f>
+        <v>0.43799454165900414</v>
+      </c>
+      <c r="AE45" s="10">
+        <f ca="1">AE23/($C23+$D23+AE23)</f>
+        <v>0.43823459061803061</v>
+      </c>
+      <c r="AF45" s="10">
+        <f t="shared" ref="AF45:AO45" ca="1" si="15">AF23/($C23+$D23+AF23)</f>
+        <v>0.43847443460075408</v>
+      </c>
+      <c r="AG45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43871407386960454</v>
+      </c>
+      <c r="AH45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43895350868656408</v>
+      </c>
+      <c r="AI45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43919273931316793</v>
+      </c>
+      <c r="AJ45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43943176601050554</v>
+      </c>
+      <c r="AK45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43967058903922152</v>
+      </c>
+      <c r="AL45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.43990920865951616</v>
+      </c>
+      <c r="AM45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.44014762513114708</v>
+      </c>
+      <c r="AN45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.44038583871342951</v>
+      </c>
+      <c r="AO45" s="10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.44062384966523765</v>
+      </c>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <f ca="1">C24/SUM($C24:$E24)</f>
+        <v>0.24292137218425033</v>
+      </c>
+      <c r="D46">
+        <f ca="1">D24/SUM($C24:$E24)</f>
+        <v>0.21566397349946551</v>
+      </c>
+      <c r="E46" s="10">
+        <f ca="1">E24/SUM($C24:$E24)</f>
+        <v>0.54141465431628411</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:AC46" ca="1" si="16">F24/($C24+$D24+F24)</f>
+        <v>0.54166280479038886</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54191068685053367</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54215830093198158</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54240564746905462</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54265272689513688</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54289953964267723</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54314608614319093</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54339236682726333</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5436383821245514</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54388413246378708</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54412961827277884</v>
+      </c>
+      <c r="Q46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54437483997841485</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54461979800666527</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54486449278258464</v>
+      </c>
+      <c r="T46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54510892473031458</v>
+      </c>
+      <c r="U46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54535309427308587</v>
+      </c>
+      <c r="V46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5455970018332208</v>
+      </c>
+      <c r="W46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54584064783213659</v>
+      </c>
+      <c r="X46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54608403269034644</v>
+      </c>
+      <c r="Y46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54632715682746313</v>
+      </c>
+      <c r="Z46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54657002066220028</v>
+      </c>
+      <c r="AA46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54681262461237612</v>
+      </c>
+      <c r="AB46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54705496909491458</v>
+      </c>
+      <c r="AC46" s="10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.54729705452584854</v>
+      </c>
+      <c r="AD46" s="10">
+        <f t="shared" ref="AD46:AO46" ca="1" si="17">AD24/($C24+$D24+AD24)</f>
+        <v>0.54753888132032213</v>
+      </c>
+      <c r="AE46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54778044989259222</v>
+      </c>
+      <c r="AF46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54802176065603236</v>
+      </c>
+      <c r="AG46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54826281402313348</v>
+      </c>
+      <c r="AH46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54850361040550732</v>
+      </c>
+      <c r="AI46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54874415021388856</v>
+      </c>
+      <c r="AJ46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54898443385813689</v>
+      </c>
+      <c r="AK46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.5492244617472396</v>
+      </c>
+      <c r="AL46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54946423428931346</v>
+      </c>
+      <c r="AM46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54970375189160803</v>
+      </c>
+      <c r="AN46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.54994301496050668</v>
+      </c>
+      <c r="AO46" s="10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.55018202390152993</v>
+      </c>
+    </row>
+    <row r="47" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <f ca="1">C25/SUM($C25:$E25)</f>
+        <v>0.24372189375769768</v>
+      </c>
+      <c r="D47">
+        <f ca="1">D25/SUM($C25:$E25)</f>
+        <v>0.38523029142434018</v>
+      </c>
+      <c r="E47" s="10">
+        <f ca="1">E25/SUM($C25:$E25)</f>
+        <v>0.37104781481796212</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" ref="F47:AC47" ca="1" si="18">F25/($C25+$D25+F25)</f>
+        <v>0.37128109959209321</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37151421137498902</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37174715035899947</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37197991673618946</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37221251069833927</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37244493243694538</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37267718214322049</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37290926000809477</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37314116622221533</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37337290097594811</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37360446445937695</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37383585686230536</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37406707837425623</v>
+      </c>
+      <c r="S47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37429812918447269</v>
+      </c>
+      <c r="T47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37452900948191853</v>
+      </c>
+      <c r="U47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37475971945527869</v>
+      </c>
+      <c r="V47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37499025929295998</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37522062918309135</v>
+      </c>
+      <c r="X47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.3754508293135243</v>
+      </c>
+      <c r="Y47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37568085987183386</v>
+      </c>
+      <c r="Z47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37591072104531859</v>
+      </c>
+      <c r="AA47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.3761404130210016</v>
+      </c>
+      <c r="AB47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.3763699359856304</v>
+      </c>
+      <c r="AC47" s="10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.37659929012567817</v>
+      </c>
+      <c r="AD47" s="10">
+        <f t="shared" ref="AD47:AO47" ca="1" si="19">AD25/($C25+$D25+AD25)</f>
+        <v>0.37682847562734345</v>
+      </c>
+      <c r="AE47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37705749267655142</v>
+      </c>
+      <c r="AF47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.3772863414589539</v>
+      </c>
+      <c r="AG47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37751502215992999</v>
+      </c>
+      <c r="AH47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37774353496458662</v>
+      </c>
+      <c r="AI47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37797188005775895</v>
+      </c>
+      <c r="AJ47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37820005762401104</v>
+      </c>
+      <c r="AK47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37842806784763616</v>
+      </c>
+      <c r="AL47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37865591091265727</v>
+      </c>
+      <c r="AM47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37888358700282798</v>
+      </c>
+      <c r="AN47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.37911109630163209</v>
+      </c>
+      <c r="AO47" s="10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.3793384389922852</v>
+      </c>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <f ca="1">C26/SUM($C26:$E26)</f>
+        <v>0.27701402724361429</v>
+      </c>
+      <c r="D48">
+        <f ca="1">D26/SUM($C26:$E26)</f>
+        <v>0.32810982838596681</v>
+      </c>
+      <c r="E48" s="10">
+        <f ca="1">E26/SUM($C26:$E26)</f>
+        <v>0.39487614437041896</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" ref="F48:AC48" ca="1" si="20">F26/($C26+$D26+F26)</f>
+        <v>0.3951149990273905</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39535366519720816</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39559214310289509</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.3958304329671225</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39606853501221068</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39630644946012977</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39654417653249996</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39678171645059279</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39701906943533133</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39725623570729113</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39749321548670086</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39773000899344307</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39796661644705456</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39820303806672758</v>
+      </c>
+      <c r="T48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.3984392740713098</v>
+      </c>
+      <c r="U48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39867532467930583</v>
+      </c>
+      <c r="V48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39891119010887705</v>
+      </c>
+      <c r="W48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39914687057784309</v>
+      </c>
+      <c r="X48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39938236630368174</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39961767750353022</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.39985280439418536</v>
+      </c>
+      <c r="AA48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.40008774719210477</v>
+      </c>
+      <c r="AB48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.40032250611340692</v>
+      </c>
+      <c r="AC48" s="10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.40055708137387258</v>
+      </c>
+      <c r="AD48" s="10">
+        <f ca="1">AD26/($C26+$D26+AD26)</f>
+        <v>0.40079147318894465</v>
+      </c>
+      <c r="AE48" s="10">
+        <f ca="1">AE26/($C26+$D26+AE26)</f>
+        <v>0.40102568177372927</v>
+      </c>
+      <c r="AF48" s="10">
+        <f ca="1">AF26/($C26+$D26+AF26)</f>
+        <v>0.40125970734299649</v>
+      </c>
+      <c r="AG48" s="10">
+        <f ca="1">AG26/($C26+$D26+AG26)</f>
+        <v>0.40149355011118082</v>
+      </c>
+      <c r="AH48" s="10">
+        <f ca="1">AH26/($C26+$D26+AH26)</f>
+        <v>0.40172721029238179</v>
+      </c>
+      <c r="AI48" s="10">
+        <f ca="1">AI26/($C26+$D26+AI26)</f>
+        <v>0.40196068810036495</v>
+      </c>
+      <c r="AJ48" s="10">
+        <f ca="1">AJ26/($C26+$D26+AJ26)</f>
+        <v>0.40219398374856202</v>
+      </c>
+      <c r="AK48" s="10">
+        <f ca="1">AK26/($C26+$D26+AK26)</f>
+        <v>0.40242709745007194</v>
+      </c>
+      <c r="AL48" s="10">
+        <f ca="1">AL26/($C26+$D26+AL26)</f>
+        <v>0.40266002941766138</v>
+      </c>
+      <c r="AM48" s="10">
+        <f ca="1">AM26/($C26+$D26+AM26)</f>
+        <v>0.40289277986376559</v>
+      </c>
+      <c r="AN48" s="10">
+        <f ca="1">AN26/($C26+$D26+AN26)</f>
+        <v>0.4031253490004883</v>
+      </c>
+      <c r="AO48" s="10">
+        <f ca="1">AO26/($C26+$D26+AO26)</f>
+        <v>0.4033577370396037</v>
+      </c>
+    </row>
+    <row r="49" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f ca="1">C27/SUM($C27:$E27)</f>
+        <v>0.31515375124379746</v>
+      </c>
+      <c r="D49">
+        <f ca="1">D27/SUM($C27:$E27)</f>
+        <v>0.2989352459075123</v>
+      </c>
+      <c r="E49" s="10">
+        <f ca="1">E27/SUM($C27:$E27)</f>
+        <v>0.38591100284869034</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" ref="F49:AC49" ca="1" si="21">F27/($C27+$D27+F27)</f>
+        <v>0.38614789513008146</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38638460471380692</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38662113181113716</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38685747663301723</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38709363939006686</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38732962029258178</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38756541955053359</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38780103737357102</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38803647397102031</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.3882717295518856</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38850680432484996</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38874169849827572</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.3889764122802053</v>
+      </c>
+      <c r="S49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38921094587836153</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.3894452995001485</v>
+      </c>
+      <c r="U49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.38967947335265224</v>
+      </c>
+      <c r="V49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.3899134676426409</v>
+      </c>
+      <c r="W49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39014728257656606</v>
+      </c>
+      <c r="X49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39038091836056255</v>
+      </c>
+      <c r="Y49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39061437520044973</v>
+      </c>
+      <c r="Z49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39084765330173149</v>
+      </c>
+      <c r="AA49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39108075286959754</v>
+      </c>
+      <c r="AB49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39131367410892326</v>
+      </c>
+      <c r="AC49" s="10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.39154641722427097</v>
+      </c>
+      <c r="AD49" s="10">
+        <f t="shared" ref="AD49:AO49" ca="1" si="22">AD27/($C27+$D27+AD27)</f>
+        <v>0.39177898241989012</v>
+      </c>
+      <c r="AE49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39201136989971797</v>
+      </c>
+      <c r="AF49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39224357986738023</v>
+      </c>
+      <c r="AG49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39247561252619184</v>
+      </c>
+      <c r="AH49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39270746807915702</v>
+      </c>
+      <c r="AI49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39293914672897051</v>
+      </c>
+      <c r="AJ49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39317064867801754</v>
+      </c>
+      <c r="AK49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39340197412837524</v>
+      </c>
+      <c r="AL49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39363312328181221</v>
+      </c>
+      <c r="AM49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39386409633979003</v>
+      </c>
+      <c r="AN49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39409489350346305</v>
+      </c>
+      <c r="AO49" s="10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0.39432551497367968</v>
+      </c>
+    </row>
+    <row r="50" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <f ca="1">C28/SUM($C28:$E28)</f>
+        <v>0.20497217683474117</v>
+      </c>
+      <c r="D50">
+        <f ca="1">D28/SUM($C28:$E28)</f>
+        <v>0.2110407579794725</v>
+      </c>
+      <c r="E50" s="10">
+        <f ca="1">E28/SUM($C28:$E28)</f>
+        <v>0.58398706518578636</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" ref="F50:AC50" ca="1" si="23">F28/($C28+$D28+F28)</f>
+        <v>0.58422986956405154</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58447239068392265</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58471462904078952</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58495658512888737</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58519825944130044</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.5854396524699651</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.5856807647056731</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58592159663807553</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58616214875568495</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58640242154588007</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58664241549490792</v>
+      </c>
+      <c r="Q50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58688213108788789</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58712156880881439</v>
+      </c>
+      <c r="S50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58736072914056092</v>
+      </c>
+      <c r="T50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58759961256488213</v>
+      </c>
+      <c r="U50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58783821956241822</v>
+      </c>
+      <c r="V50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58807655061269759</v>
+      </c>
+      <c r="W50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58831460619414011</v>
+      </c>
+      <c r="X50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58855238678406008</v>
+      </c>
+      <c r="Y50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58878989285867023</v>
+      </c>
+      <c r="Z50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58902712489308406</v>
+      </c>
+      <c r="AA50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58926408336131908</v>
+      </c>
+      <c r="AB50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58950076873630053</v>
+      </c>
+      <c r="AC50" s="10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0.58973718148986431</v>
+      </c>
+      <c r="AD50" s="10">
+        <f t="shared" ref="AD50:AO50" ca="1" si="24">AD28/($C28+$D28+AD28)</f>
+        <v>0.58997332209275943</v>
+      </c>
+      <c r="AE50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59020919101465241</v>
+      </c>
+      <c r="AF50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59044478872412887</v>
+      </c>
+      <c r="AG50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59068011568869838</v>
+      </c>
+      <c r="AH50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59091517237479574</v>
+      </c>
+      <c r="AI50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59114995924778568</v>
+      </c>
+      <c r="AJ50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59138447677196448</v>
+      </c>
+      <c r="AK50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59161872541056448</v>
+      </c>
+      <c r="AL50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59185270562575576</v>
+      </c>
+      <c r="AM50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59208641787865024</v>
+      </c>
+      <c r="AN50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59231986262930414</v>
+      </c>
+      <c r="AO50" s="10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.59255304033672096</v>
+      </c>
+    </row>
+    <row r="51" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <f ca="1">C29/SUM($C29:$E29)</f>
+        <v>0.3178644833324929</v>
+      </c>
+      <c r="D51">
+        <f ca="1">D29/SUM($C29:$E29)</f>
+        <v>0.23852600696718759</v>
+      </c>
+      <c r="E51" s="10">
+        <f ca="1">E29/SUM($C29:$E29)</f>
+        <v>0.44360950970031948</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" ref="F51:AC51" ca="1" si="25">F29/($C29+$D29+F29)</f>
+        <v>0.44385622036972411</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44410271234675869</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44434898592207828</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44459504138582329</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44484087902762054</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.4450864991365841</v>
+      </c>
+      <c r="L51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44533190200131667</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44557708790991074</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44582205714994938</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44606681000850812</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44631134677215478</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44655566772695221</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44679977315845809</v>
+      </c>
+      <c r="S51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44704366335172663</v>
+      </c>
+      <c r="T51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44728733859130948</v>
+      </c>
+      <c r="U51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.4475307991612571</v>
+      </c>
+      <c r="V51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.4477740453451195</v>
+      </c>
+      <c r="W51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44801707742594793</v>
+      </c>
+      <c r="X51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44825989568629498</v>
+      </c>
+      <c r="Y51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44850250040821671</v>
+      </c>
+      <c r="Z51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44874489187327321</v>
+      </c>
+      <c r="AA51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44898707036252977</v>
+      </c>
+      <c r="AB51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44922903615655801</v>
+      </c>
+      <c r="AC51" s="10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.44947078953543679</v>
+      </c>
+      <c r="AD51" s="10">
+        <f t="shared" ref="AD51:AO51" ca="1" si="26">AD29/($C29+$D29+AD29)</f>
+        <v>0.44971233077875372</v>
+      </c>
+      <c r="AE51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.44995366016560562</v>
+      </c>
+      <c r="AF51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45019477797460022</v>
+      </c>
+      <c r="AG51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45043568448385685</v>
+      </c>
+      <c r="AH51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45067637997100757</v>
+      </c>
+      <c r="AI51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45091686471319825</v>
+      </c>
+      <c r="AJ51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45115713898708959</v>
+      </c>
+      <c r="AK51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45139720306885861</v>
+      </c>
+      <c r="AL51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45163705723419872</v>
+      </c>
+      <c r="AM51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45187670175832206</v>
+      </c>
+      <c r="AN51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45211613691595942</v>
+      </c>
+      <c r="AO51" s="10">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.45235536298136197</v>
+      </c>
+    </row>
+    <row r="52" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <f ca="1">C30/SUM($C30:$E30)</f>
+        <v>8.2027318259408538E-2</v>
+      </c>
+      <c r="D52">
+        <f ca="1">D30/SUM($C30:$E30)</f>
+        <v>0.25505498664334036</v>
+      </c>
+      <c r="E52" s="10">
+        <f ca="1">E30/SUM($C30:$E30)</f>
+        <v>0.66291769509725107</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" ref="F52:AC52" ca="1" si="27">F30/($C30+$D30+F30)</f>
+        <v>0.66314100488586492</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66336401899448105</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66358673800996681</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66380916251763766</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66403129310126163</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66425313034306566</v>
+      </c>
+      <c r="L52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66447467482373934</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66469592712244085</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66491688781680158</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66513755748293157</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66535793669542409</v>
+      </c>
+      <c r="Q52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66557802602736094</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.6657978260503169</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66601733733436552</v>
+      </c>
+      <c r="T52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66623656044808344</v>
+      </c>
+      <c r="U52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66645549595855524</v>
+      </c>
+      <c r="V52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66667414443137885</v>
+      </c>
+      <c r="W52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66689250643067</v>
+      </c>
+      <c r="X52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66711058251906696</v>
+      </c>
+      <c r="Y52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66732837325773586</v>
+      </c>
+      <c r="Z52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66754587920637509</v>
+      </c>
+      <c r="AA52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66776310092322033</v>
+      </c>
+      <c r="AB52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66798003896504921</v>
+      </c>
+      <c r="AC52" s="10">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.66819669388718606</v>
+      </c>
+      <c r="AD52" s="10">
+        <f t="shared" ref="AD52:AO52" ca="1" si="28">AD30/($C30+$D30+AD30)</f>
+        <v>0.6684130662435066</v>
+      </c>
+      <c r="AE52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66862915658644295</v>
+      </c>
+      <c r="AF52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66884496546698791</v>
+      </c>
+      <c r="AG52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66906049343470009</v>
+      </c>
+      <c r="AH52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66927574103770793</v>
+      </c>
+      <c r="AI52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66949070882271533</v>
+      </c>
+      <c r="AJ52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.669705397335005</v>
+      </c>
+      <c r="AK52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.66991980711844468</v>
+      </c>
+      <c r="AL52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.67013393871548976</v>
+      </c>
+      <c r="AM52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.67034779266718991</v>
+      </c>
+      <c r="AN52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.6705613695131919</v>
+      </c>
+      <c r="AO52" s="10">
+        <f t="shared" ca="1" si="28"/>
+        <v>0.67077466979174549</v>
+      </c>
+    </row>
+    <row r="53" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <f ca="1">C31/SUM($C31:$E31)</f>
+        <v>0.80731768322470954</v>
+      </c>
+      <c r="D53">
+        <f ca="1">D31/SUM($C31:$E31)</f>
+        <v>0.13957648602158571</v>
+      </c>
+      <c r="E53" s="10">
+        <f ca="1">E31/SUM($C31:$E31)</f>
+        <v>5.3105830753704654E-2</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" ref="F53:AC53" ca="1" si="29">F31/($C31+$D31+F31)</f>
+        <v>5.3156113684881483E-2</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3206391275991832E-2</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3256663527886307E-2</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3306930441415393E-2</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3357192017429327E-2</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.340744825677822E-2</v>
+      </c>
+      <c r="L53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3457699160311963E-2</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3507944728880291E-2</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3558184963332749E-2</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3608419864518718E-2</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3658649433287367E-2</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3708873670487711E-2</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3759092576968572E-2</v>
+      </c>
+      <c r="S53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3809306153578602E-2</v>
+      </c>
+      <c r="T53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.385951440116625E-2</v>
+      </c>
+      <c r="U53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3909717320579822E-2</v>
+      </c>
+      <c r="V53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.3959914912667412E-2</v>
+      </c>
+      <c r="W53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4010107178276957E-2</v>
+      </c>
+      <c r="X53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4060294118256184E-2</v>
+      </c>
+      <c r="Y53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4110475733452686E-2</v>
+      </c>
+      <c r="Z53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4160652024713832E-2</v>
+      </c>
+      <c r="AA53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4210822992886827E-2</v>
+      </c>
+      <c r="AB53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4260988638818689E-2</v>
+      </c>
+      <c r="AC53" s="10">
+        <f t="shared" ca="1" si="29"/>
+        <v>5.4311148963356273E-2</v>
+      </c>
+      <c r="AD53" s="10">
+        <f t="shared" ref="AD53:AO53" ca="1" si="30">AD31/($C31+$D31+AD31)</f>
+        <v>5.4361303967346251E-2</v>
+      </c>
+      <c r="AE53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4411453651635126E-2</v>
+      </c>
+      <c r="AF53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4461598017069172E-2</v>
+      </c>
+      <c r="AG53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4511737064494546E-2</v>
+      </c>
+      <c r="AH53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4561870794757168E-2</v>
+      </c>
+      <c r="AI53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4611999208702841E-2</v>
+      </c>
+      <c r="AJ53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4662122307177125E-2</v>
+      </c>
+      <c r="AK53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4712240091025439E-2</v>
+      </c>
+      <c r="AL53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4762352561093026E-2</v>
+      </c>
+      <c r="AM53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4812459718224946E-2</v>
+      </c>
+      <c r="AN53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4862561563266049E-2</v>
+      </c>
+      <c r="AO53" s="10">
+        <f t="shared" ca="1" si="30"/>
+        <v>5.4912658097061043E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <f ca="1">C32/SUM($C32:$E32)</f>
+        <v>0.40981316797026579</v>
+      </c>
+      <c r="D54">
+        <f ca="1">D32/SUM($C32:$E32)</f>
+        <v>0.43245658239670637</v>
+      </c>
+      <c r="E54" s="10">
+        <f ca="1">E32/SUM($C32:$E32)</f>
+        <v>0.15773024963302773</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" ref="F54:AC54" ca="1" si="31">F32/($C32+$D32+F32)</f>
+        <v>0.15786308009962882</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15799586867667909</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15812861538399089</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15826132024136416</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15839398326858625</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15852660448543215</v>
+      </c>
+      <c r="L54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15865918391166423</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15879172156703258</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15892421747127469</v>
+      </c>
+      <c r="O54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15905667164411574</v>
+      </c>
+      <c r="P54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.1591890841052685</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15932145487443317</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.1594537839712977</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15958607141553757</v>
+      </c>
+      <c r="T54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15971831722681587</v>
+      </c>
+      <c r="U54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.1598505214247834</v>
+      </c>
+      <c r="V54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.15998268402907842</v>
+      </c>
+      <c r="W54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16011480505932713</v>
+      </c>
+      <c r="X54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16024688453514302</v>
+      </c>
+      <c r="Y54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16037892247612759</v>
+      </c>
+      <c r="Z54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16051091890186972</v>
+      </c>
+      <c r="AA54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16064287383194623</v>
+      </c>
+      <c r="AB54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16077478728592137</v>
+      </c>
+      <c r="AC54" s="10">
+        <f t="shared" ca="1" si="31"/>
+        <v>0.16090665928334733</v>
+      </c>
+      <c r="AD54" s="10">
+        <f t="shared" ref="AD54:AO54" ca="1" si="32">AD32/($C32+$D32+AD32)</f>
+        <v>0.16103848984376387</v>
+      </c>
+      <c r="AE54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16117027898669856</v>
+      </c>
+      <c r="AF54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16130202673166663</v>
+      </c>
+      <c r="AG54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16143373309817108</v>
+      </c>
+      <c r="AH54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16156539810570267</v>
+      </c>
+      <c r="AI54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.1616970217737399</v>
+      </c>
+      <c r="AJ54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16182860412174904</v>
+      </c>
+      <c r="AK54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16196014516918428</v>
+      </c>
+      <c r="AL54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16209164493548728</v>
+      </c>
+      <c r="AM54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16222310344008783</v>
+      </c>
+      <c r="AN54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16235452070240328</v>
+      </c>
+      <c r="AO54" s="10">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.16248589674183905</v>
+      </c>
+    </row>
+    <row r="55" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <f ca="1">C33/SUM($C33:$E33)</f>
+        <v>0.37099042439580915</v>
+      </c>
+      <c r="D55">
+        <f ca="1">D33/SUM($C33:$E33)</f>
+        <v>0.29827775976201876</v>
+      </c>
+      <c r="E55" s="10">
+        <f ca="1">E33/SUM($C33:$E33)</f>
+        <v>0.33073181584217209</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" ref="F55:AC55" ca="1" si="33">F33/($C33+$D33+F33)</f>
+        <v>0.33095309094128861</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33117421977172595</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33139520247846727</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33161603920630439</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33183673009983766</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33205727530347678</v>
+      </c>
+      <c r="L55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33227767496144062</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33249792921775784</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33271803821626722</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.3329380021006178</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33315782101426916</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33337749510049214</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.3335970245023685</v>
+      </c>
+      <c r="S55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33381640936279189</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33403564982446765</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33425474602991345</v>
+      </c>
+      <c r="V55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33447369812145933</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33469250624124836</v>
+      </c>
+      <c r="X55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33491117053123654</v>
+      </c>
+      <c r="Y55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33512969113319335</v>
+      </c>
+      <c r="Z55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33534806818870216</v>
+      </c>
+      <c r="AA55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33556630183916025</v>
+      </c>
+      <c r="AB55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33578439222577927</v>
+      </c>
+      <c r="AC55" s="10">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.33600233948958558</v>
+      </c>
+      <c r="AD55" s="10">
+        <f t="shared" ref="AD55:AO55" ca="1" si="34">AD33/($C33+$D33+AD33)</f>
+        <v>0.3362201437714204</v>
+      </c>
+      <c r="AE55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33643780521194039</v>
+      </c>
+      <c r="AF55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33665532395161746</v>
+      </c>
+      <c r="AG55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33687270013073983</v>
+      </c>
+      <c r="AH55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.3370899338894115</v>
+      </c>
+      <c r="AI55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33730702536755325</v>
+      </c>
+      <c r="AJ55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33752397470490236</v>
+      </c>
+      <c r="AK55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33774078204101343</v>
+      </c>
+      <c r="AL55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33795744751525825</v>
+      </c>
+      <c r="AM55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33817397126682625</v>
+      </c>
+      <c r="AN55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.33839035343472518</v>
+      </c>
+      <c r="AO55" s="10">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.3386065941577806</v>
+      </c>
+    </row>
+    <row r="56" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <f ca="1">C34/SUM($C34:$E34)</f>
+        <v>0.62889976532080683</v>
+      </c>
+      <c r="D56">
+        <f ca="1">D34/SUM($C34:$E34)</f>
+        <v>3.9962535918984417E-2</v>
+      </c>
+      <c r="E56" s="10">
+        <f ca="1">E34/SUM($C34:$E34)</f>
+        <v>0.33113769876020882</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" ref="F56:AC56" ca="1" si="35">F34/($C34+$D34+F34)</f>
+        <v>0.33135911096550069</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33158037663198531</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33180149590509178</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33202246893005688</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.3322432958519253</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.3324639768155499</v>
+      </c>
+      <c r="L56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33268451196559212</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33290490144652252</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33312514540262061</v>
+      </c>
+      <c r="O56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.3333452439779756</v>
+      </c>
+      <c r="P56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33356519731648643</v>
+      </c>
+      <c r="Q56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.3337850055618623</v>
+      </c>
+      <c r="R56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33400466885762264</v>
+      </c>
+      <c r="S56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33422418734709808</v>
+      </c>
+      <c r="T56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33444356117342988</v>
+      </c>
+      <c r="U56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33466279047957093</v>
+      </c>
+      <c r="V56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.3348818754082859</v>
+      </c>
+      <c r="W56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33510081610215137</v>
+      </c>
+      <c r="X56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33531961270355615</v>
+      </c>
+      <c r="Y56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33553826535470205</v>
+      </c>
+      <c r="Z56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33575677419760336</v>
+      </c>
+      <c r="AA56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33597513937408796</v>
+      </c>
+      <c r="AB56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33619336102579717</v>
+      </c>
+      <c r="AC56" s="10">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.33641143929418615</v>
+      </c>
+      <c r="AD56" s="10">
+        <f t="shared" ref="AD56:AO56" ca="1" si="36">AD34/($C34+$D34+AD34)</f>
+        <v>0.33662937432052437</v>
+      </c>
+      <c r="AE56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33684716624589556</v>
+      </c>
+      <c r="AF56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33706481521119852</v>
+      </c>
+      <c r="AG56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33728232135714692</v>
+      </c>
+      <c r="AH56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33749968482426973</v>
+      </c>
+      <c r="AI56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33771690575291197</v>
+      </c>
+      <c r="AJ56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33793398428323429</v>
+      </c>
+      <c r="AK56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.3381509205552139</v>
+      </c>
+      <c r="AL56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33836771470864441</v>
+      </c>
+      <c r="AM56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33858436688313653</v>
+      </c>
+      <c r="AN56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33880087721811791</v>
+      </c>
+      <c r="AO56" s="10">
+        <f t="shared" ca="1" si="36"/>
+        <v>0.33901724585283399</v>
+      </c>
+    </row>
+    <row r="57" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <f ca="1">C35/SUM($C35:$E35)</f>
+        <v>0.23247123193222838</v>
+      </c>
+      <c r="D57">
+        <f ca="1">D35/SUM($C35:$E35)</f>
+        <v>0.38555611850066884</v>
+      </c>
+      <c r="E57" s="10">
+        <f ca="1">E35/SUM($C35:$E35)</f>
+        <v>0.38197264956710281</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" ref="F57:AC57" ca="1" si="37">F35/($C35+$D35+F35)</f>
+        <v>0.38220862897397329</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38244442824310071</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38268004758067153</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.3829154871925583</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.3831507472843193</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38338582806119936</v>
+      </c>
+      <c r="L57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38362072972813066</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38385545248973335</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38408999655031584</v>
+      </c>
+      <c r="O57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38432436211387561</v>
+      </c>
+      <c r="P57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38455854938409978</v>
+      </c>
+      <c r="Q57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38479255856436567</v>
+      </c>
+      <c r="R57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38502638985774129</v>
+      </c>
+      <c r="S57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38526004346698633</v>
+      </c>
+      <c r="T57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38549351959455219</v>
+      </c>
+      <c r="U57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38572681844258283</v>
+      </c>
+      <c r="V57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38595994021291546</v>
+      </c>
+      <c r="W57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.386192885107081</v>
+      </c>
+      <c r="X57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38642565332630457</v>
+      </c>
+      <c r="Y57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38665824507150631</v>
+      </c>
+      <c r="Z57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38689066054330168</v>
+      </c>
+      <c r="AA57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38712289994200222</v>
+      </c>
+      <c r="AB57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38735496346761616</v>
+      </c>
+      <c r="AC57" s="10">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.38758685131984899</v>
+      </c>
+      <c r="AD57" s="10">
+        <f t="shared" ref="AD57:AO57" ca="1" si="38">AD35/($C35+$D35+AD35)</f>
+        <v>0.38781856369810352</v>
+      </c>
+      <c r="AE57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.3880501008014815</v>
+      </c>
+      <c r="AF57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38828146282878312</v>
+      </c>
+      <c r="AG57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38851264997850815</v>
+      </c>
+      <c r="AH57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.3887436624488565</v>
+      </c>
+      <c r="AI57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38897450043772874</v>
+      </c>
+      <c r="AJ57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38920516414272632</v>
+      </c>
+      <c r="AK57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38943565376115269</v>
+      </c>
+      <c r="AL57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38966596949001348</v>
+      </c>
+      <c r="AM57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.38989611152601722</v>
+      </c>
+      <c r="AN57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.39012608006557575</v>
+      </c>
+      <c r="AO57" s="10">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.39035587530480514</v>
+      </c>
+    </row>
+    <row r="58" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <f ca="1">C36/SUM($C36:$E36)</f>
+        <v>0.80332336115070957</v>
+      </c>
+      <c r="D58">
+        <f ca="1">D36/SUM($C36:$E36)</f>
+        <v>0.11280525078764558</v>
+      </c>
+      <c r="E58" s="10">
+        <f ca="1">E36/SUM($C36:$E36)</f>
+        <v>8.3871388061644986E-2</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" ref="F58:AC58" ca="1" si="39">F36/($C36+$D36+F36)</f>
+        <v>8.394821859608767E-2</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4025036244924703E-2</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4101841011397421E-2</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4178632898746164E-2</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4255411910210132E-2</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4332178049027443E-2</v>
+      </c>
+      <c r="L58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.440893131843516E-2</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4485671721669223E-2</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4562399261964474E-2</v>
+      </c>
+      <c r="O58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4639113942554745E-2</v>
+      </c>
+      <c r="P58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4715815766672697E-2</v>
+      </c>
+      <c r="Q58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4792504737549984E-2</v>
+      </c>
+      <c r="R58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4869180858417104E-2</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.4945844132503556E-2</v>
+      </c>
+      <c r="T58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5022494563037662E-2</v>
+      </c>
+      <c r="U58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5099132153246757E-2</v>
+      </c>
+      <c r="V58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5175756906357009E-2</v>
+      </c>
+      <c r="W58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5252368825593575E-2</v>
+      </c>
+      <c r="X58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5328967914180487E-2</v>
+      </c>
+      <c r="Y58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5405554175340681E-2</v>
+      </c>
+      <c r="Z58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5482127612296094E-2</v>
+      </c>
+      <c r="AA58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5558688228267538E-2</v>
+      </c>
+      <c r="AB58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5635236026474701E-2</v>
+      </c>
+      <c r="AC58" s="10">
+        <f t="shared" ca="1" si="39"/>
+        <v>8.5711771010136273E-2</v>
+      </c>
+      <c r="AD58" s="10">
+        <f t="shared" ref="AD58:AO58" ca="1" si="40">AD36/($C36+$D36+AD36)</f>
+        <v>8.5788293182469777E-2</v>
+      </c>
+      <c r="AE58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.5864802546691779E-2</v>
+      </c>
+      <c r="AF58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.5941299106017652E-2</v>
+      </c>
+      <c r="AG58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6017782863661754E-2</v>
+      </c>
+      <c r="AH58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6094253822837349E-2</v>
+      </c>
+      <c r="AI58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6170711986756646E-2</v>
+      </c>
+      <c r="AJ58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6247157358630755E-2</v>
+      </c>
+      <c r="AK58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6323589941669721E-2</v>
+      </c>
+      <c r="AL58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6400009739082517E-2</v>
+      </c>
+      <c r="AM58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6476416754077023E-2</v>
+      </c>
+      <c r="AN58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6552810989860063E-2</v>
+      </c>
+      <c r="AO58" s="10">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.6629192449637432E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <f ca="1">C37/SUM($C37:$E37)</f>
+        <v>0.15953685502897286</v>
+      </c>
+      <c r="D59">
+        <f ca="1">D37/SUM($C37:$E37)</f>
+        <v>0.60248639345370447</v>
+      </c>
+      <c r="E59" s="10">
+        <f ca="1">E37/SUM($C37:$E37)</f>
+        <v>0.23797675151732281</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:AC59" ca="1" si="41">F37/($C37+$D37+F37)</f>
+        <v>0.23815805218923239</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23833926661150298</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.2385203948456667</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23870143695319751</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23888239299551059</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23906326303396297</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23924404712985325</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23942474534442193</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23960535773885114</v>
+      </c>
+      <c r="O59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23978588437426504</v>
+      </c>
+      <c r="P59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.23996632531172973</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24014668061225342</v>
+      </c>
+      <c r="R59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24032695033678617</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24050713454622061</v>
+      </c>
+      <c r="T59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24068723330139125</v>
+      </c>
+      <c r="U59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24086724666307513</v>
+      </c>
+      <c r="V59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24104717469199155</v>
+      </c>
+      <c r="W59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24122701744880234</v>
+      </c>
+      <c r="X59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24140677499411184</v>
+      </c>
+      <c r="Y59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24158644738846688</v>
+      </c>
+      <c r="Z59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.241766034692357</v>
+      </c>
+      <c r="AA59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24194553696621451</v>
+      </c>
+      <c r="AB59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24212495427041444</v>
+      </c>
+      <c r="AC59" s="10">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.24230428666527476</v>
+      </c>
+      <c r="AD59" s="10">
+        <f t="shared" ref="AD59:AO59" ca="1" si="42">AD37/($C37+$D37+AD37)</f>
+        <v>0.24248353421105615</v>
+      </c>
+      <c r="AE59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24266269696796261</v>
+      </c>
+      <c r="AF59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24284177499614087</v>
+      </c>
+      <c r="AG59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24302076835568098</v>
+      </c>
+      <c r="AH59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24319967710661619</v>
+      </c>
+      <c r="AI59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24337850130892291</v>
+      </c>
+      <c r="AJ59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24355724102252091</v>
+      </c>
+      <c r="AK59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24373589630727333</v>
+      </c>
+      <c r="AL59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24391446722298685</v>
+      </c>
+      <c r="AM59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24409295382941168</v>
+      </c>
+      <c r="AN59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24427135618624141</v>
+      </c>
+      <c r="AO59" s="10">
+        <f t="shared" ca="1" si="42"/>
+        <v>0.24444967435311366</v>
+      </c>
+    </row>
+    <row r="60" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="8">
+        <f ca="1">$C45+$D45+E45</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <f ca="1">$C45+$D45+F45</f>
+        <v>1.0002452599859619</v>
+      </c>
+      <c r="G60" s="8">
+        <f t="shared" ref="F60:AO60" ca="1" si="43">$C45+$D45+G45</f>
+        <v>1.0004903082864969</v>
+      </c>
+      <c r="H60" s="8">
+        <f ca="1">$C45+$D45+H45</f>
+        <v>1.0007351451755471</v>
+      </c>
+      <c r="I60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0009797709265822</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.001224185812601</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0014683901061314</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0017123840792315</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0019561680034914</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0021997421500342</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0024431067895159</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0026862621921275</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0029292086275952</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0031719463651823</v>
+      </c>
+      <c r="S60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0034144756736894</v>
+      </c>
+      <c r="T60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0036567968214556</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.00389891007636</v>
+      </c>
+      <c r="V60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0041408157058216</v>
+      </c>
+      <c r="W60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0043825139768014</v>
+      </c>
+      <c r="X60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0046240051558031</v>
+      </c>
+      <c r="Y60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0048652895088732</v>
+      </c>
+      <c r="Z60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0051063673016034</v>
+      </c>
+      <c r="AA60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0053472387991307</v>
+      </c>
+      <c r="AB60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0055879042661378</v>
+      </c>
+      <c r="AC60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0058283639668562</v>
+      </c>
+      <c r="AD60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0060686181650642</v>
+      </c>
+      <c r="AE60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0063086671240908</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0065485111068142</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0067881503756646</v>
+      </c>
+      <c r="AH60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0070275851926243</v>
+      </c>
+      <c r="AI60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0072668158192282</v>
+      </c>
+      <c r="AJ60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0075058425165657</v>
+      </c>
+      <c r="AK60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0077446655452817</v>
+      </c>
+      <c r="AL60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0079832851655763</v>
+      </c>
+      <c r="AM60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0082217016372073</v>
+      </c>
+      <c r="AN60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0084599152194897</v>
+      </c>
+      <c r="AO60" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>1.0086979261712978</v>
+      </c>
+    </row>
+    <row r="61" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D61" s="16"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="15">
+        <f ca="1">F45/E45-1</f>
+        <v>5.6782881652006623E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="8">
+        <f ca="1">AVERAGE(E45:E59)</f>
+        <v>0.35948107959772241</v>
+      </c>
+      <c r="F64" s="8">
+        <f ca="1">AVERAGE(F45:F59)</f>
+        <v>0.35968342481933929</v>
+      </c>
+      <c r="G64" s="8">
+        <f ca="1">AVERAGE(G45:G59)</f>
+        <v>0.35988560729320324</v>
+      </c>
+      <c r="H64" s="8">
+        <f ca="1">AVERAGE(H45:H59)</f>
+        <v>0.36008762723870047</v>
+      </c>
+      <c r="I64" s="8">
+        <f ca="1">AVERAGE(I45:I59)</f>
+        <v>0.36028948487479318</v>
+      </c>
+      <c r="J64" s="8">
+        <f ca="1">AVERAGE(J45:J59)</f>
+        <v>0.36049118042001971</v>
+      </c>
+      <c r="K64" s="8">
+        <f ca="1">AVERAGE(K45:K59)</f>
+        <v>0.36069271409249654</v>
+      </c>
+      <c r="L64" s="8">
+        <f ca="1">AVERAGE(L45:L59)</f>
+        <v>0.3608940861099183</v>
+      </c>
+      <c r="M64" s="8">
+        <f ca="1">AVERAGE(M45:M59)</f>
+        <v>0.36109529668955986</v>
+      </c>
+      <c r="N64" s="8">
+        <f ca="1">AVERAGE(N45:N59)</f>
+        <v>0.36129634604827704</v>
+      </c>
+      <c r="O64" s="8">
+        <f ca="1">AVERAGE(O45:O59)</f>
+        <v>0.36149723440250736</v>
+      </c>
+      <c r="P64" s="8">
+        <f ca="1">AVERAGE(P45:P59)</f>
+        <v>0.36169796196827164</v>
+      </c>
+      <c r="Q64" s="8">
+        <f ca="1">AVERAGE(Q45:Q59)</f>
+        <v>0.36189852896117453</v>
+      </c>
+      <c r="R64" s="8">
+        <f ca="1">AVERAGE(R45:R59)</f>
+        <v>0.36209893559640632</v>
+      </c>
+      <c r="S64" s="8">
+        <f ca="1">AVERAGE(S45:S59)</f>
+        <v>0.36229918208874307</v>
+      </c>
+      <c r="T64" s="8">
+        <f ca="1">AVERAGE(T45:T59)</f>
+        <v>0.36249926865254822</v>
+      </c>
+      <c r="U64" s="8">
+        <f ca="1">AVERAGE(U45:U59)</f>
+        <v>0.36269919550177371</v>
+      </c>
+      <c r="V64" s="8">
+        <f ca="1">AVERAGE(V45:V59)</f>
+        <v>0.3628989628499607</v>
+      </c>
+      <c r="W64" s="8">
+        <f ca="1">AVERAGE(W45:W59)</f>
+        <v>0.36309857091024117</v>
+      </c>
+      <c r="X64" s="8">
+        <f ca="1">AVERAGE(X45:X59)</f>
+        <v>0.36329801989533794</v>
+      </c>
+      <c r="Y64" s="8">
+        <f ca="1">AVERAGE(Y45:Y59)</f>
+        <v>0.3634973100175668</v>
+      </c>
+      <c r="Z64" s="8">
+        <f ca="1">AVERAGE(Z45:Z59)</f>
+        <v>0.36369644148883701</v>
+      </c>
+      <c r="AA64" s="8">
+        <f ca="1">AVERAGE(AA45:AA59)</f>
+        <v>0.36389541452065244</v>
+      </c>
+      <c r="AB64" s="8">
+        <f ca="1">AVERAGE(AB45:AB59)</f>
+        <v>0.36409422932411217</v>
+      </c>
+      <c r="AC64" s="8">
+        <f ca="1">AVERAGE(AC45:AC59)</f>
+        <v>0.36429288610991256</v>
+      </c>
+      <c r="AD64" s="8">
+        <f ca="1">AVERAGE(AD45:AD59)</f>
+        <v>0.36449138508834716</v>
+      </c>
+      <c r="AE64" s="8">
+        <f ca="1">AVERAGE(AE45:AE59)</f>
+        <v>0.36468972646930864</v>
+      </c>
+      <c r="AF64" s="8">
+        <f ca="1">AVERAGE(AF45:AF59)</f>
+        <v>0.36488791046228847</v>
+      </c>
+      <c r="AG64" s="8">
+        <f ca="1">AVERAGE(AG45:AG59)</f>
+        <v>0.36508593727637995</v>
+      </c>
+      <c r="AH64" s="8">
+        <f ca="1">AVERAGE(AH45:AH59)</f>
+        <v>0.36528380712027725</v>
+      </c>
+      <c r="AI64" s="8">
+        <f ca="1">AVERAGE(AI45:AI59)</f>
+        <v>0.36548152020227781</v>
+      </c>
+      <c r="AJ64" s="8">
+        <f ca="1">AVERAGE(AJ45:AJ59)</f>
+        <v>0.36567907673028227</v>
+      </c>
+      <c r="AK64" s="8">
+        <f ca="1">AVERAGE(AK45:AK59)</f>
+        <v>0.36587647691179631</v>
+      </c>
+      <c r="AL64" s="8">
+        <f ca="1">AVERAGE(AL45:AL59)</f>
+        <v>0.36607372095393131</v>
+      </c>
+      <c r="AM64" s="8">
+        <f ca="1">AVERAGE(AM45:AM59)</f>
+        <v>0.36627080906340553</v>
+      </c>
+      <c r="AN64" s="8">
+        <f ca="1">AVERAGE(AN45:AN59)</f>
+        <v>0.36646774144654437</v>
+      </c>
+      <c r="AO64" s="8">
+        <f ca="1">AVERAGE(AO45:AO59)</f>
+        <v>0.36666451830928237</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="13">
+        <f ca="1">AC64/E64-1</f>
+        <v>1.3385423559912457E-2</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="13">
+        <f ca="1">AO64/E64-1</f>
+        <v>1.9982800540152557E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C43:E43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input data__file dummy.xlsx
+++ b/input data__file dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DA36DD-5458-4CCF-8CA5-D95DA40EF155}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{ECFB5445-1A90-4625-A58D-D2F45E3D0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20CB7AD5-E823-4BA0-A961-B727AC68435E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9672" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
+    <workbookView xWindow="10368" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{C3AE1D0B-89DA-4EA7-BE6F-31DD07EEF3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>p-name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>owner-ID</t>
   </si>
   <si>
-    <t>p-price-min</t>
-  </si>
-  <si>
     <t>p-price-max</t>
   </si>
   <si>
@@ -192,142 +189,136 @@
     <t>TOT</t>
   </si>
   <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>pesi norm</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>utile annuale</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>target rev</t>
+  </si>
+  <si>
+    <t>miglioramento % max</t>
+  </si>
+  <si>
+    <t>c-target-revenues</t>
+  </si>
+  <si>
+    <t>weight-sustainability</t>
+  </si>
+  <si>
+    <t>weight-sustainability corretto</t>
+  </si>
+  <si>
+    <t>peso medio</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha norm</t>
+  </si>
+  <si>
+    <t>beta norm</t>
+  </si>
+  <si>
+    <t>gamma norm</t>
+  </si>
+  <si>
+    <t>riga</t>
+  </si>
+  <si>
+    <t>delta  2 anni</t>
+  </si>
+  <si>
+    <t>delta 3 anni</t>
+  </si>
+  <si>
+    <t>anno 0</t>
+  </si>
+  <si>
+    <t>incremento di beta per ogni tick</t>
+  </si>
+  <si>
+    <t>somma pesi</t>
+  </si>
+  <si>
+    <t>beta corretto norm</t>
+  </si>
+  <si>
+    <t>sust min</t>
+  </si>
+  <si>
+    <t>sust max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variability </t>
+  </si>
+  <si>
+    <t>random di variability</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>c- sust</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Totale con variability ^exp</t>
+  </si>
+  <si>
+    <t>Totale con tutto  ^ exp</t>
+  </si>
+  <si>
+    <t>ask companies[print (word "who " who " c-sust " c-sustainability "media sust prodotti " mean [p-sustainability] of products)]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>p-quality-min</t>
-  </si>
-  <si>
-    <t>p-quality-max</t>
-  </si>
-  <si>
-    <t>tot</t>
-  </si>
-  <si>
-    <t>pesi norm</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>utile annuale</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>target rev</t>
-  </si>
-  <si>
-    <t>miglioramento % max</t>
-  </si>
-  <si>
-    <t>c-target-revenues</t>
-  </si>
-  <si>
-    <t>weight-sustainability</t>
-  </si>
-  <si>
-    <t>weight-sustainability corretto</t>
-  </si>
-  <si>
-    <t>peso medio</t>
-  </si>
-  <si>
-    <t>periodo</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>alpha norm</t>
-  </si>
-  <si>
-    <t>beta norm</t>
-  </si>
-  <si>
-    <t>gamma norm</t>
-  </si>
-  <si>
-    <t>riga</t>
-  </si>
-  <si>
-    <t>delta  2 anni</t>
-  </si>
-  <si>
-    <t>delta 3 anni</t>
-  </si>
-  <si>
-    <t>anno 0</t>
-  </si>
-  <si>
-    <t>incremento di beta per ogni tick</t>
-  </si>
-  <si>
-    <t>somma pesi</t>
-  </si>
-  <si>
-    <t>beta corretto norm</t>
-  </si>
-  <si>
-    <t>sust min</t>
-  </si>
-  <si>
-    <t>sust max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variability </t>
-  </si>
-  <si>
-    <t>random di variability</t>
-  </si>
-  <si>
-    <t>Totale</t>
-  </si>
-  <si>
-    <t>c- sust</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>Totale con variability ^exp</t>
-  </si>
-  <si>
-    <t>Totale con tutto  ^ exp</t>
-  </si>
-  <si>
-    <t>ask companies[print (word "who " who " c-sust " c-sustainability "media sust prodotti " mean [p-sustainability] of products)]</t>
+    <t>p-prod-cost-min</t>
   </si>
 </sst>
 </file>
@@ -399,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -422,6 +413,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B9E16F-D9C0-4E55-ADC5-98580F6C2F9D}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,13 +773,15 @@
     <col min="10" max="10" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,42 +807,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -858,45 +848,45 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1">
         <v>15</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="O2" s="1">
         <v>12</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -914,42 +904,42 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>6</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -967,42 +957,42 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="1">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>6</v>
-      </c>
-      <c r="U4" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1020,42 +1010,42 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>8</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1079,36 +1069,36 @@
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1">
         <v>55</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="U6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1132,36 +1122,36 @@
         <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>7</v>
-      </c>
-      <c r="U7" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1173,102 +1163,102 @@
         <v>350</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>12</v>
-      </c>
-      <c r="U8" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="U9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="1">
-        <f>SUM(U3:U9)</f>
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S10" s="16">
+        <f>SUM(S3:S9)</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A1:Q1)</f>
-        <v>p-name,p-price,p-sustainability,p-quality,p-shelf-life,p-residual-life,p-production-cost,owner-ID,p-price-min,p-price-max,p-sustainability-min,p-sustainability-max,p-quality-min,p-quality-max,cons-per-user,color,p-stock-threshold</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A1:O1)</f>
+        <v>p-name,p-price,p-sustainability,p-quality,p-shelf-life,p-residual-life,p-production-cost,owner-ID,p-prod-cost-min,p-price-max,p-sustainability-min,p-sustainability-max,cons-per-user,color,p-stock-threshold</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
-        <f t="shared" ref="A12:A19" si="0">_xlfn.TEXTJOIN(",",TRUE,A2:Q2)</f>
-        <v>Fresh fruits and vegetables,2.5,0.8,0,6,4,0.3,1,1.75,3.25,0.56,1,0.05,15,12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A12:A19" si="0">_xlfn.TEXTJOIN(",",TRUE,A2:O2)</f>
+        <v>Fresh fruits and vegetables,2.5,0.8,0,6,4,0.3,1,1.75,3.25,0.56,1,0.15,15,12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Frozen food,7,0.2,0,300,299,4,1,4.9,9.1,0.14,0.26,0.075,25,6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Frozen food,7,0.2,0,300,299,4,1,4.9,9.1,0.14,0.26,0.2,25,6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sweets,5,0.5,0,20,15,1,1,3.5,6.5,0.35,0.65,0.04,35,6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Sweets,5,0.5,0,20,15,1,1,3.5,6.5,0.35,0.65,0.1,35,6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Canned food,3,0.3,0,720,717,2,1,2.1,3.9,0.21,0.4,0.04,45,8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Canned food,3,0.3,0,720,717,2,1,2.1,3.9,0.21,0.4,0.05,45,8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Meat,20,0.3,0,5,3,8,1,14,26,0.21,0.4,0.075,55,7</v>
+        <v>Meat,20,0.3,0,5,3,8,1,14,26,0.21,0.4,0.2,55,7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fish,25,0.4,0,3,2,10,1,18,33,0.28,0.52,0.065,65,7</v>
+        <v>Fish,25,0.4,0,3,2,10,1,18,33,0.28,0.52,0.15,65,7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pasta,2,0.6,0,365,350,0.5,1,1.4,2.6,0.42,0.78,0.05,75,12</v>
+        <v>Pasta,2,0.6,0,365,350,0.5,1,1.4,2.6,0.42,0.78,0.1,75,12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1294,15 +1284,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1310,50 +1300,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1378,19 +1368,19 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -1399,7 +1389,7 @@
         <v>0.15</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1414,7 +1404,7 @@
       </c>
       <c r="L3">
         <f ca="1">I3 + RANDBETWEEN(0, $I$11-I3) * (I3/$I$11)</f>
-        <v>115</v>
+        <v>121.07058823529411</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -1423,7 +1413,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>2000</v>
@@ -1438,7 +1428,7 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L7" ca="1" si="0">I4 + RANDBETWEEN(0, $I$11-I4) * (I4/$I$11)</f>
-        <v>3467.7647058823532</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -1447,7 +1437,7 @@
         <v>0.13</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I5">
         <v>8500</v>
@@ -1471,7 +1461,7 @@
         <v>0.12</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>600</v>
@@ -1486,7 +1476,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>874.65882352941173</v>
+        <v>861.8117647058823</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -1495,7 +1485,7 @@
         <v>0.11</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I7">
         <v>950</v>
@@ -1510,7 +1500,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>1121.1117647058823</v>
+        <v>1296.9176470588236</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -1531,7 +1521,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <f>MIN($I$3:$I$7)</f>
@@ -1544,7 +1534,7 @@
         <v>0.05</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <f>MAX($I$3:$I$7)</f>
@@ -1559,7 +1549,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C3:C12)</f>
@@ -1595,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -1782,1560 +1772,1560 @@
     </row>
     <row r="3" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E4" s="5">
         <f ca="1">RAND()</f>
-        <v>0.91264166043257144</v>
+        <v>0.98026170532846379</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:O14" ca="1" si="0">$E4*F$2</f>
-        <v>0.91355430209300392</v>
+        <v>0.98124196703379218</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91446694375343662</v>
+        <v>0.98222222873912068</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9153795854138691</v>
+        <v>0.98320249044444907</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91629222707430169</v>
+        <v>0.98418275214977768</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91720486873473417</v>
+        <v>0.98516301385510596</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91811751039516687</v>
+        <v>0.98614327556043457</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91903015205559935</v>
+        <v>0.98712353726576296</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91994279371603205</v>
+        <v>0.98810379897109146</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92085543537646453</v>
+        <v>0.98908406067641985</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92176807703689712</v>
+        <v>0.99006432238174846</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ref="P4:AC14" ca="1" si="1">$E4*P$2</f>
-        <v>0.92268071869732959</v>
+        <v>0.99104458408707685</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92359336035776229</v>
+        <v>0.99202484579240535</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92450600201819477</v>
+        <v>0.99300510749773374</v>
       </c>
       <c r="S4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92541864367862747</v>
+        <v>0.99398536920306235</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92633128533905995</v>
+        <v>0.99496563090839063</v>
       </c>
       <c r="U4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92724392699949265</v>
+        <v>0.99594589261371924</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92815656865992502</v>
+        <v>0.99692615431904763</v>
       </c>
       <c r="W4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92906921032035772</v>
+        <v>0.99790641602437613</v>
       </c>
       <c r="X4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9299818519807902</v>
+        <v>0.99888667772970452</v>
       </c>
       <c r="Y4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9308944936412229</v>
+        <v>0.99986693943503313</v>
       </c>
       <c r="Z4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93180713530165538</v>
+        <v>1.0008472011403615</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93271977696208808</v>
+        <v>1.00182746284569</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93363241862252055</v>
+        <v>1.0028077245510183</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93454506028295314</v>
+        <v>1.003787986256347</v>
       </c>
     </row>
     <row r="5" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E5" s="5">
         <f t="shared" ref="E5:E17" ca="1" si="2">RAND()</f>
-        <v>0.21243666529072924</v>
+        <v>0.96601964626155723</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21264910195601994</v>
+        <v>0.96698566590781865</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21286153862131071</v>
+        <v>0.9679516855540804</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21307397528660141</v>
+        <v>0.96891770520034182</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21328641195189216</v>
+        <v>0.96988372484660346</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21349884861718288</v>
+        <v>0.97084974449286487</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21371128528247363</v>
+        <v>0.97181576413912663</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21392372194776432</v>
+        <v>0.97278178378538804</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21413615861305507</v>
+        <v>0.97374780343164968</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21434859527834579</v>
+        <v>0.9747138230779111</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21456103194363654</v>
+        <v>0.97567984272417285</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21477346860892724</v>
+        <v>0.97664586237043427</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21498590527421799</v>
+        <v>0.97761188201669591</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21519834193950871</v>
+        <v>0.97857790166295733</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21541077860479946</v>
+        <v>0.97954392130921908</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21562321527009015</v>
+        <v>0.9805099409554805</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2158356519353809</v>
+        <v>0.98147596060174214</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21604808860067162</v>
+        <v>0.98244198024800367</v>
       </c>
       <c r="W5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21626052526596237</v>
+        <v>0.98340799989426531</v>
       </c>
       <c r="X5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21647296193125307</v>
+        <v>0.98437401954052672</v>
       </c>
       <c r="Y5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21668539859654384</v>
+        <v>0.98534003918678836</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21689783526183454</v>
+        <v>0.98630605883304989</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21711027192712529</v>
+        <v>0.98727207847931153</v>
       </c>
       <c r="AB5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21732270859241601</v>
+        <v>0.98823809812557295</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21753514525770676</v>
+        <v>0.98920411777183459</v>
       </c>
     </row>
     <row r="6" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85493400856594914</v>
+        <v>0.10286100403279863</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85578894257451499</v>
+        <v>0.10296386503683141</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85664387658308105</v>
+        <v>0.10306672604086423</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8574988105916469</v>
+        <v>0.10316958704489701</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85835374460021296</v>
+        <v>0.10327244804892982</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85920867860877881</v>
+        <v>0.10337530905296262</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86006361261734487</v>
+        <v>0.10347817005699542</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86091854662591072</v>
+        <v>0.10358103106102821</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86177348063447679</v>
+        <v>0.10368389206506103</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86262841464304263</v>
+        <v>0.10378675306909381</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8634833486516087</v>
+        <v>0.10388961407312662</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86433828266017454</v>
+        <v>0.1039924750771594</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86519321666874049</v>
+        <v>0.10409533608119222</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86604815067730645</v>
+        <v>0.104198197085225</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8669030846858724</v>
+        <v>0.10430105808925781</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86775801869443825</v>
+        <v>0.1044039190932906</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86861295270300432</v>
+        <v>0.10450678009732341</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86946788671157016</v>
+        <v>0.1046096411013562</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87032282072013623</v>
+        <v>0.104712502105389</v>
       </c>
       <c r="X6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87117775472870207</v>
+        <v>0.1048153631094218</v>
       </c>
       <c r="Y6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87203268873726814</v>
+        <v>0.10491822411345461</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87288762274583398</v>
+        <v>0.10502108511748739</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87374255675440005</v>
+        <v>0.10512394612152021</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87459749076296589</v>
+        <v>0.10522680712555299</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87545242477153196</v>
+        <v>0.1053296681295858</v>
       </c>
     </row>
     <row r="7" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88707568063505537</v>
+        <v>6.463373134996564E-3</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88796275631569033</v>
+        <v>6.4698365081315599E-3</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8888498319963255</v>
+        <v>6.4762998812665567E-3</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88973690767696045</v>
+        <v>6.4827632544015527E-3</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89062398335759563</v>
+        <v>6.4892266275365504E-3</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89151105903823058</v>
+        <v>6.4956900006715463E-3</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89239813471886575</v>
+        <v>6.5021533738065431E-3</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89328521039950071</v>
+        <v>6.5086167469415391E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89417228608013577</v>
+        <v>6.5150801200765367E-3</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89505936176077083</v>
+        <v>6.5215434932115327E-3</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8959464374414059</v>
+        <v>6.5280068663465295E-3</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89683351312204085</v>
+        <v>6.5344702394815254E-3</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89772058880267602</v>
+        <v>6.5409336126165231E-3</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89860766448331098</v>
+        <v>6.5473969857515191E-3</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89949474016394615</v>
+        <v>6.5538603588865159E-3</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9003818158445811</v>
+        <v>6.5603237320215118E-3</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90126889152521628</v>
+        <v>6.5667871051565086E-3</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90215596720585123</v>
+        <v>6.5732504782915046E-3</v>
       </c>
       <c r="W7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9030430428864864</v>
+        <v>6.5797138514265023E-3</v>
       </c>
       <c r="X7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90393011856712135</v>
+        <v>6.5861772245614982E-3</v>
       </c>
       <c r="Y7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90481719424775653</v>
+        <v>6.592640597696495E-3</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90570426992839148</v>
+        <v>6.599103970831491E-3</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90659134560902666</v>
+        <v>6.6055673439664887E-3</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90747842128966161</v>
+        <v>6.6120307171014846E-3</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90836549697029667</v>
+        <v>6.6184940902364814E-3</v>
       </c>
     </row>
     <row r="8" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1020284574227284E-2</v>
+        <v>8.3266644084014962E-2</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1111304858801506E-2</v>
+        <v>8.3349910728098969E-2</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1202325143375743E-2</v>
+        <v>8.343317737218299E-2</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1293345427949951E-2</v>
+        <v>8.3516444016266997E-2</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1384365712524188E-2</v>
+        <v>8.3599710660351018E-2</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.147538599709841E-2</v>
+        <v>8.3682977304435024E-2</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1566406281672647E-2</v>
+        <v>8.3766243948519059E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1657426566246869E-2</v>
+        <v>8.3849510592603052E-2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1748446850821105E-2</v>
+        <v>8.3932777236687087E-2</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1839467135395314E-2</v>
+        <v>8.4016043880771094E-2</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.193048741996955E-2</v>
+        <v>8.4099310524855114E-2</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2021507704543773E-2</v>
+        <v>8.4182577168939121E-2</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2112527989118009E-2</v>
+        <v>8.4265843813023142E-2</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2203548273692232E-2</v>
+        <v>8.4349110457107149E-2</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2294568558266468E-2</v>
+        <v>8.4432377101191169E-2</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2385588842840691E-2</v>
+        <v>8.4515643745275176E-2</v>
       </c>
       <c r="U8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2476609127414927E-2</v>
+        <v>8.4598910389359197E-2</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2567629411989136E-2</v>
+        <v>8.4682177033443204E-2</v>
       </c>
       <c r="W8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2658649696563372E-2</v>
+        <v>8.4765443677527239E-2</v>
       </c>
       <c r="X8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2749669981137595E-2</v>
+        <v>8.4848710321611245E-2</v>
       </c>
       <c r="Y8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2840690265711831E-2</v>
+        <v>8.4931976965695266E-2</v>
       </c>
       <c r="Z8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2931710550286054E-2</v>
+        <v>8.5015243609779273E-2</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.302273083486029E-2</v>
+        <v>8.5098510253863294E-2</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3113751119434499E-2</v>
+        <v>8.5181776897947301E-2</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3204771404008735E-2</v>
+        <v>8.5265043542031321E-2</v>
       </c>
     </row>
     <row r="9" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13042396699682723</v>
+        <v>0.83512750600966912</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13055439096382404</v>
+        <v>0.83596263351567868</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13068481493082088</v>
+        <v>0.83679776102168846</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13081523889781771</v>
+        <v>0.83763288852769802</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13094566286481454</v>
+        <v>0.8384680160337078</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13107608683181135</v>
+        <v>0.83930314353971736</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13120651079880818</v>
+        <v>0.84013827104572714</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13133693476580502</v>
+        <v>0.84097339855173669</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13146735873280185</v>
+        <v>0.84180852605774648</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13159778269979866</v>
+        <v>0.84264365356375603</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13172820666679549</v>
+        <v>0.84347878106976582</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13185863063379233</v>
+        <v>0.84431390857577537</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13198905460078916</v>
+        <v>0.84514903608178515</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13211947856778597</v>
+        <v>0.84598416358779471</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1322499025347828</v>
+        <v>0.84681929109380449</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13238032650177964</v>
+        <v>0.84765441859981405</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13251075046877647</v>
+        <v>0.84848954610582383</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13264117443577328</v>
+        <v>0.84932467361183339</v>
       </c>
       <c r="W9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13277159840277011</v>
+        <v>0.85015980111784317</v>
       </c>
       <c r="X9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13290202236976695</v>
+        <v>0.85099492862385273</v>
       </c>
       <c r="Y9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13303244633676378</v>
+        <v>0.85183005612986251</v>
       </c>
       <c r="Z9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13316287030376059</v>
+        <v>0.85266518363587207</v>
       </c>
       <c r="AA9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13329329427075742</v>
+        <v>0.85350031114188185</v>
       </c>
       <c r="AB9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13342371823775426</v>
+        <v>0.85433543864789141</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13355414220475109</v>
+        <v>0.85517056615390119</v>
       </c>
     </row>
     <row r="10" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95250854861678869</v>
+        <v>2.8979212113937614E-3</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95346105716540541</v>
+        <v>2.9008191326051549E-3</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95441356571402225</v>
+        <v>2.903717053816549E-3</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95536607426263898</v>
+        <v>2.9066149750279421E-3</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95631858281125581</v>
+        <v>2.9095128962393366E-3</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95727109135987254</v>
+        <v>2.9124108174507298E-3</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95822359990848938</v>
+        <v>2.9153087386621238E-3</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9591761084571061</v>
+        <v>2.9182066598735174E-3</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96012861700572305</v>
+        <v>2.9211045810849114E-3</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96108112555433967</v>
+        <v>2.924002502296305E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96203363410295661</v>
+        <v>2.926900423507699E-3</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96298614265157323</v>
+        <v>2.9297983447190926E-3</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96393865120019018</v>
+        <v>2.9326962659304867E-3</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96489115974880679</v>
+        <v>2.9355941871418798E-3</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96584366829742374</v>
+        <v>2.9384921083532738E-3</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96679617684604047</v>
+        <v>2.9413900295646674E-3</v>
       </c>
       <c r="U10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9677486853946573</v>
+        <v>2.9442879507760615E-3</v>
       </c>
       <c r="V10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96870119394327403</v>
+        <v>2.9471858719874551E-3</v>
       </c>
       <c r="W10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96965370249189087</v>
+        <v>2.9500837931988491E-3</v>
       </c>
       <c r="X10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97060621104050759</v>
+        <v>2.9529817144102427E-3</v>
       </c>
       <c r="Y10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97155871958912443</v>
+        <v>2.9558796356216367E-3</v>
       </c>
       <c r="Z10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97251122813774116</v>
+        <v>2.9587775568330299E-3</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97346373668635811</v>
+        <v>2.9616754780444243E-3</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97441624523497472</v>
+        <v>2.9645733992558175E-3</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97536875378359167</v>
+        <v>2.9674713204672115E-3</v>
       </c>
     </row>
     <row r="11" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2808368112596926E-2</v>
+        <v>0.66241543112452506</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2861176480709517E-2</v>
+        <v>0.6630778465556495</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2913984848822121E-2</v>
+        <v>0.66374026198677416</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2966793216934711E-2</v>
+        <v>0.6644026774178986</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3019601585047316E-2</v>
+        <v>0.66506509284902315</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3072409953159906E-2</v>
+        <v>0.6657275082801476</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.312521832127251E-2</v>
+        <v>0.66638992371127226</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3178026689385101E-2</v>
+        <v>0.6670523391423967</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3230835057497705E-2</v>
+        <v>0.66771475457352125</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3283643425610296E-2</v>
+        <v>0.66837717000464569</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3336451793722893E-2</v>
+        <v>0.66903958543577036</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.338926016183549E-2</v>
+        <v>0.6697020008668948</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3442068529948088E-2</v>
+        <v>0.67036441629801935</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3494876898060678E-2</v>
+        <v>0.67102683172914379</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3547685266173282E-2</v>
+        <v>0.67168924716026845</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3600493634285873E-2</v>
+        <v>0.6723516625913929</v>
       </c>
       <c r="U11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3653302002398477E-2</v>
+        <v>0.67301407802251745</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3706110370511068E-2</v>
+        <v>0.67367649345364189</v>
       </c>
       <c r="W11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3758918738623672E-2</v>
+        <v>0.67433890888476655</v>
       </c>
       <c r="X11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3811727106736262E-2</v>
+        <v>0.67500132431589099</v>
       </c>
       <c r="Y11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3864535474848867E-2</v>
+        <v>0.67566373974701555</v>
       </c>
       <c r="Z11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3917343842961457E-2</v>
+        <v>0.67632615517813999</v>
       </c>
       <c r="AA11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3970152211074061E-2</v>
+        <v>0.67698857060926465</v>
       </c>
       <c r="AB11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4022960579186652E-2</v>
+        <v>0.67765098604038909</v>
       </c>
       <c r="AC11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4075768947299256E-2</v>
+        <v>0.67831340147151364</v>
       </c>
     </row>
     <row r="12" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32688096748185624</v>
+        <v>0.14247582139186532</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32720784844933809</v>
+        <v>0.14261829721325717</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32753472941681994</v>
+        <v>0.14276077303464904</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32786161038430178</v>
+        <v>0.14290324885604089</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32818849135178368</v>
+        <v>0.14304572467743279</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32851537231926548</v>
+        <v>0.14318820049882464</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32884225328674738</v>
+        <v>0.14333067632021651</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32916913425422922</v>
+        <v>0.14347315214160836</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32949601522171107</v>
+        <v>0.14361562796300023</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32982289618919292</v>
+        <v>0.14375810378439211</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33014977715667482</v>
+        <v>0.14390057960578398</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33047665812415661</v>
+        <v>0.14404305542717583</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33080353909163851</v>
+        <v>0.1441855312485677</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33113042005912036</v>
+        <v>0.14432800706995955</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33145730102660226</v>
+        <v>0.14447048289135145</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33178418199408405</v>
+        <v>0.14461295871274329</v>
       </c>
       <c r="U12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33211106296156595</v>
+        <v>0.14475543453413517</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33243794392904774</v>
+        <v>0.14489791035552702</v>
       </c>
       <c r="W12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33276482489652964</v>
+        <v>0.14504038617691889</v>
       </c>
       <c r="X12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33309170586401149</v>
+        <v>0.14518286199831074</v>
       </c>
       <c r="Y12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33341858683149339</v>
+        <v>0.14532533781970264</v>
       </c>
       <c r="Z12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33374546779897518</v>
+        <v>0.14546781364109448</v>
       </c>
       <c r="AA12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33407234876645708</v>
+        <v>0.14561028946248636</v>
       </c>
       <c r="AB12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33439922973393893</v>
+        <v>0.14575276528387821</v>
       </c>
       <c r="AC12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33472611070142078</v>
+        <v>0.14589524110527008</v>
       </c>
     </row>
     <row r="13" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76295692674194659</v>
+        <v>0.38029921087907204</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76371988366868848</v>
+        <v>0.38067951008995105</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76448284059543048</v>
+        <v>0.38105980930083017</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76524579752217237</v>
+        <v>0.38144010851170923</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76600875444891436</v>
+        <v>0.38182040772258835</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76677171137565625</v>
+        <v>0.38220070693346736</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76753466830239825</v>
+        <v>0.38258100614434648</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76829762522914014</v>
+        <v>0.38296130535522549</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76906058215588213</v>
+        <v>0.38334160456610461</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76982353908262402</v>
+        <v>0.38372190377698362</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77058649600936602</v>
+        <v>0.38410220298786274</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7713494529361079</v>
+        <v>0.3844825021987418</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77211240986285001</v>
+        <v>0.38486280140962092</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77287536678959179</v>
+        <v>0.38524310062049993</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7736383237163339</v>
+        <v>0.38562339983137905</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77440128064307567</v>
+        <v>0.38600369904225806</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77516423756981778</v>
+        <v>0.38638399825313718</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77592719449655967</v>
+        <v>0.38676429746401625</v>
       </c>
       <c r="W13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77669015142330167</v>
+        <v>0.38714459667489531</v>
       </c>
       <c r="X13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77745310835004355</v>
+        <v>0.38752489588577438</v>
       </c>
       <c r="Y13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77821606527678555</v>
+        <v>0.3879051950966535</v>
       </c>
       <c r="Z13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77897902220352744</v>
+        <v>0.38828549430753251</v>
       </c>
       <c r="AA13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77974197913026944</v>
+        <v>0.38866579351841163</v>
       </c>
       <c r="AB13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78050493605701132</v>
+        <v>0.38904609272929064</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78126789298375332</v>
+        <v>0.38942639194016976</v>
       </c>
     </row>
     <row r="14" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96489129088903869</v>
+        <v>0.31528853877000185</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96585618217992764</v>
+        <v>0.31560382730877179</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96682107347081681</v>
+        <v>0.31591911584754184</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96778596476170575</v>
+        <v>0.31623440438631184</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96875085605259481</v>
+        <v>0.31654969292508184</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96971574734348376</v>
+        <v>0.31686498146385184</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97068063863437293</v>
+        <v>0.31718027000262183</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97164552992526187</v>
+        <v>0.31749555854139183</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97261042121615104</v>
+        <v>0.31781084708016188</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97357531250703999</v>
+        <v>0.31812613561893183</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97454020379792905</v>
+        <v>0.31844142415770188</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.975505095088818</v>
+        <v>0.31875671269647182</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97646998637970717</v>
+        <v>0.31907200123524188</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97743487767059611</v>
+        <v>0.31938728977401182</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97839976896148528</v>
+        <v>0.31970257831278187</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97936466025237412</v>
+        <v>0.32001786685155187</v>
       </c>
       <c r="U14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98032955154326329</v>
+        <v>0.32033315539032187</v>
       </c>
       <c r="V14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98129444283415224</v>
+        <v>0.32064844392909186</v>
       </c>
       <c r="W14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98225933412504141</v>
+        <v>0.32096373246786186</v>
       </c>
       <c r="X14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98322422541593035</v>
+        <v>0.32127902100663186</v>
       </c>
       <c r="Y14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98418911670681952</v>
+        <v>0.32159430954540191</v>
       </c>
       <c r="Z14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98515400799770836</v>
+        <v>0.32190959808417186</v>
       </c>
       <c r="AA14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98611889928859753</v>
+        <v>0.32222488662294191</v>
       </c>
       <c r="AB14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98708379057948648</v>
+        <v>0.32254017516171185</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98804868187037564</v>
+        <v>0.3228554637004819</v>
       </c>
     </row>
     <row r="15" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8509874914685973E-2</v>
+        <v>0.9759849512879647</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ref="F15:W15" ca="1" si="3">$E15*F$2</f>
-        <v>7.8588384789600646E-2</v>
+        <v>0.97696093623925251</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8666894664515347E-2</v>
+        <v>0.97793692119054065</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8745404539430019E-2</v>
+        <v>0.97891290614182846</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.882391441434472E-2</v>
+        <v>0.97988889109311661</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8902424289259393E-2</v>
+        <v>0.98086487604440442</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8980934164174094E-2</v>
+        <v>0.98184086099569245</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9059444039088766E-2</v>
+        <v>0.98281684594698038</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9137953914003467E-2</v>
+        <v>0.98379283089826841</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.921646378891814E-2</v>
+        <v>0.98476881584955633</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9294973663832827E-2</v>
+        <v>0.98574480080084437</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9373483538747513E-2</v>
+        <v>0.98672078575213218</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.94519934136622E-2</v>
+        <v>0.98769677070342032</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9530503288576887E-2</v>
+        <v>0.98867275565470814</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9609013163491574E-2</v>
+        <v>0.98964874060599617</v>
       </c>
       <c r="T15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9687523038406261E-2</v>
+        <v>0.99062472555728409</v>
       </c>
       <c r="U15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9766032913320947E-2</v>
+        <v>0.99160071050857213</v>
       </c>
       <c r="V15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9844542788235634E-2</v>
+        <v>0.99257669545986005</v>
       </c>
       <c r="W15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9923052663150321E-2</v>
+        <v>0.99355268041114808</v>
       </c>
       <c r="X15" s="5">
         <f t="shared" ref="X15:AC17" ca="1" si="4">$E15*X$2</f>
-        <v>8.0001562538064994E-2</v>
+        <v>0.99452866536243589</v>
       </c>
       <c r="Y15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0080072412979694E-2</v>
+        <v>0.99550465031372404</v>
       </c>
       <c r="Z15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0158582287894367E-2</v>
+        <v>0.99648063526501185</v>
       </c>
       <c r="AA15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0237092162809068E-2</v>
+        <v>0.99745662021629999</v>
       </c>
       <c r="AB15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0315602037723741E-2</v>
+        <v>0.99843260516758781</v>
       </c>
       <c r="AC15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0394111912638441E-2</v>
+        <v>0.99940859011887584</v>
       </c>
     </row>
     <row r="16" spans="5:41" x14ac:dyDescent="0.3">
       <c r="E16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1683625931432492</v>
+        <v>0.96173904069971505</v>
       </c>
       <c r="F16" s="5">
         <f ca="1">$E16*F$2</f>
-        <v>0.16853095573639243</v>
+        <v>0.96270077974041468</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ref="G16:W17" ca="1" si="5">$E16*G$2</f>
-        <v>0.16869931832953569</v>
+        <v>0.96366251878111453</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16886768092267893</v>
+        <v>0.96462425782181405</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16903604351582219</v>
+        <v>0.9655859968625139</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16920440610896542</v>
+        <v>0.96654773590321352</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16937276870210868</v>
+        <v>0.96750947494391337</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16954113129525192</v>
+        <v>0.968471213984613</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16970949388839518</v>
+        <v>0.96943295302531274</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16987785648153841</v>
+        <v>0.97039469206601237</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17004621907468168</v>
+        <v>0.97135643110671221</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17021458166782491</v>
+        <v>0.97231817014741184</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1703829442609682</v>
+        <v>0.97327990918811169</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17055130685411141</v>
+        <v>0.97424164822881121</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1707196694472547</v>
+        <v>0.97520338726951106</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17088803204039793</v>
+        <v>0.97616512631021068</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17105639463354119</v>
+        <v>0.97712686535091053</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17122475722668443</v>
+        <v>0.97808860439161016</v>
       </c>
       <c r="W16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17139311981982769</v>
+        <v>0.9790503434323099</v>
       </c>
       <c r="X16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17156148241297092</v>
+        <v>0.98001208247300953</v>
       </c>
       <c r="Y16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17172984500611418</v>
+        <v>0.98097382151370938</v>
       </c>
       <c r="Z16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17189820759925742</v>
+        <v>0.981935560554409</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17206657019240068</v>
+        <v>0.98289729959510885</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17223493278554391</v>
+        <v>0.98385903863580837</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17240329537868718</v>
+        <v>0.98482077767650822</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38463369901033084</v>
+        <v>1.6719311674283976E-2</v>
       </c>
       <c r="F17" s="5">
         <f ca="1">$E17*F$2</f>
-        <v>0.3850183327093411</v>
+        <v>1.6736030985958258E-2</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38540296640835153</v>
+        <v>1.6752750297632544E-2</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38578760010736179</v>
+        <v>1.6769469609306826E-2</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38617223380637217</v>
+        <v>1.6786188920981111E-2</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38655686750538243</v>
+        <v>1.6802908232655393E-2</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38694150120439286</v>
+        <v>1.6819627544329679E-2</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38732613490340312</v>
+        <v>1.6836346856003964E-2</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38771076860241349</v>
+        <v>1.685306616767825E-2</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38809540230142381</v>
+        <v>1.6869785479352532E-2</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38848003600043418</v>
+        <v>1.6886504791026817E-2</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38886466969944444</v>
+        <v>1.6903224102701099E-2</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38924930339845482</v>
+        <v>1.6919943414375384E-2</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38963393709746513</v>
+        <v>1.6936662726049666E-2</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39001857079647551</v>
+        <v>1.6953382037723952E-2</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39040320449548577</v>
+        <v>1.6970101349398234E-2</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39078783819449614</v>
+        <v>1.6986820661072519E-2</v>
       </c>
       <c r="V17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39117247189350646</v>
+        <v>1.7003539972746801E-2</v>
       </c>
       <c r="W17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39155710559251683</v>
+        <v>1.7020259284421087E-2</v>
       </c>
       <c r="X17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39194173929152709</v>
+        <v>1.7036978596095369E-2</v>
       </c>
       <c r="Y17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39232637299053746</v>
+        <v>1.7053697907769658E-2</v>
       </c>
       <c r="Z17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39271100668954778</v>
+        <v>1.707041721944394E-2</v>
       </c>
       <c r="AA17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39309564038855815</v>
+        <v>1.7087136531118225E-2</v>
       </c>
       <c r="AB17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39348027408756842</v>
+        <v>1.7103855842792507E-2</v>
       </c>
       <c r="AC17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39386490778657879</v>
+        <v>1.7120575154466793E-2</v>
       </c>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">AVERAGE(E4:E17)</f>
-        <v>0.48429175252898948</v>
+        <v>0.45941572184930873</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ref="F19:AC19" ca="1" si="6">AVERAGE(F4:F17)</f>
-        <v>0.48477604428151849</v>
+        <v>0.459875137571158</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4852603360340475</v>
+        <v>0.46033455329300738</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48574462778657634</v>
+        <v>0.46079396901485659</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48622891953910552</v>
+        <v>0.46125338473670602</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48671321129163436</v>
+        <v>0.46171280045855523</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48719750304416337</v>
+        <v>0.46217221618040449</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48768179479669227</v>
+        <v>0.46263163190225393</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48816608654922139</v>
+        <v>0.46309104762410325</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48865037830175045</v>
+        <v>0.46355046334595246</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48913467005427941</v>
+        <v>0.46400987906780189</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48961896180680825</v>
+        <v>0.46446929478965104</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49010325355933743</v>
+        <v>0.46492871051150036</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49058754531186638</v>
+        <v>0.46538812623334957</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49107183706439533</v>
+        <v>0.46584754195519906</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49155612881692423</v>
+        <v>0.46630695767704827</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49204042056945335</v>
+        <v>0.46676637339889765</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49252471232198219</v>
+        <v>0.46722578912074691</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49300900407451131</v>
+        <v>0.46768520484259629</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49349329582704021</v>
+        <v>0.46814462056444556</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49397758757956928</v>
+        <v>0.46860403628629488</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49446187933209818</v>
+        <v>0.46906345200814431</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49494617108462735</v>
+        <v>0.46952286772999358</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49543046283715614</v>
+        <v>0.46998228345184273</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4959147545896852</v>
+        <v>0.47044169917369205</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F22" s="12">
         <f>F2</f>
@@ -3488,159 +3478,159 @@
       </c>
       <c r="C23" s="8">
         <f ca="1">RAND()</f>
-        <v>0.56239867014849043</v>
+        <v>0.19595022173800969</v>
       </c>
       <c r="D23" s="8">
         <f ca="1">RAND()</f>
-        <v>0.86434653783819437</v>
+        <v>0.9887572015959073</v>
       </c>
       <c r="E23" s="10">
         <f ca="1">RAND()</f>
-        <v>0.4746802464977955</v>
+        <v>0.89789302413640526</v>
       </c>
       <c r="F23" s="10">
         <f ca="1">$E23*F$22</f>
-        <v>0.47515492674429322</v>
+        <v>0.8987909171605416</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" ref="G23:AC34" ca="1" si="10">$E23*G$22</f>
-        <v>0.4756296069907911</v>
+        <v>0.89968881018467806</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47610428723728881</v>
+        <v>0.9005867032088144</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4765789674837867</v>
+        <v>0.90148459623295085</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47705364773028441</v>
+        <v>0.90238248925708719</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4775283279767823</v>
+        <v>0.90328038228122365</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47800300822328001</v>
+        <v>0.90417827530535999</v>
       </c>
       <c r="M23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47847768846977784</v>
+        <v>0.90507616832949656</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47895236871627561</v>
+        <v>0.90597406135363279</v>
       </c>
       <c r="O23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47942704896277344</v>
+        <v>0.90687195437776935</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47990172920927121</v>
+        <v>0.90776984740190558</v>
       </c>
       <c r="Q23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48037640945576904</v>
+        <v>0.90866774042604215</v>
       </c>
       <c r="R23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48085108970226681</v>
+        <v>0.90956563345017849</v>
       </c>
       <c r="S23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48132576994876464</v>
+        <v>0.91046352647431494</v>
       </c>
       <c r="T23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48180045019526241</v>
+        <v>0.91136141949845129</v>
       </c>
       <c r="U23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48227513044176024</v>
+        <v>0.91225931252258774</v>
       </c>
       <c r="V23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48274981068825795</v>
+        <v>0.91315720554672408</v>
       </c>
       <c r="W23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48322449093475583</v>
+        <v>0.91405509857086054</v>
       </c>
       <c r="X23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48369917118125355</v>
+        <v>0.91495299159499688</v>
       </c>
       <c r="Y23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48417385142775143</v>
+        <v>0.91585088461913333</v>
       </c>
       <c r="Z23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48464853167424915</v>
+        <v>0.91674877764326967</v>
       </c>
       <c r="AA23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48512321192074703</v>
+        <v>0.91764667066740624</v>
       </c>
       <c r="AB23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48559789216724475</v>
+        <v>0.91854456369154247</v>
       </c>
       <c r="AC23" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48607257241374258</v>
+        <v>0.91944245671567904</v>
       </c>
       <c r="AD23" s="10">
         <f ca="1">$E23*AD$22</f>
-        <v>0.48654725266024035</v>
+        <v>0.92034034973981527</v>
       </c>
       <c r="AE23" s="10">
         <f t="shared" ref="AE23:AO37" ca="1" si="11">$E23*AE$22</f>
-        <v>0.48702193290673818</v>
+        <v>0.92123824276395183</v>
       </c>
       <c r="AF23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48749661315323595</v>
+        <v>0.92213613578808817</v>
       </c>
       <c r="AG23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48797129339973377</v>
+        <v>0.92303402881222463</v>
       </c>
       <c r="AH23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48844597364623155</v>
+        <v>0.92393192183636097</v>
       </c>
       <c r="AI23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48892065389272937</v>
+        <v>0.92482981486049742</v>
       </c>
       <c r="AJ23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48939533413922714</v>
+        <v>0.92572770788463377</v>
       </c>
       <c r="AK23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48987001438572497</v>
+        <v>0.92662560090877022</v>
       </c>
       <c r="AL23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49034469463222269</v>
+        <v>0.92752349393290656</v>
       </c>
       <c r="AM23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49081937487872057</v>
+        <v>0.92842138695704302</v>
       </c>
       <c r="AN23" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49129405512521829</v>
+        <v>0.92931927998117936</v>
       </c>
       <c r="AO23" s="10">
         <f ca="1">$E23*AO$22</f>
-        <v>0.49176873537171617</v>
+        <v>0.93021717300531592</v>
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.3">
@@ -3649,159 +3639,159 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" ref="C24:E37" ca="1" si="12">RAND()</f>
-        <v>3.2194583371676688E-2</v>
+        <v>0.42013725152401826</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.62195276045581394</v>
+        <v>0.45081424361641032</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.82003572100002875</v>
+        <v>0.86870931479824598</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" ref="F24:U37" ca="1" si="13">$E24*F$22</f>
-        <v>0.82085575672102873</v>
+        <v>0.86957802411304408</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82167579244202882</v>
+        <v>0.87044673342784251</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8224958281630288</v>
+        <v>0.87131544274264061</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82331586388402889</v>
+        <v>0.87218415205743893</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82413589960502875</v>
+        <v>0.87305286137223714</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82495593532602896</v>
+        <v>0.87392157068703546</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82577597104702882</v>
+        <v>0.87479028000183356</v>
       </c>
       <c r="M24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82659600676802902</v>
+        <v>0.875658989316632</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82741604248902889</v>
+        <v>0.8765276986314301</v>
       </c>
       <c r="O24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82823607821002909</v>
+        <v>0.87739640794622842</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82905611393102896</v>
+        <v>0.87826511726102663</v>
       </c>
       <c r="Q24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82987614965202905</v>
+        <v>0.87913382657582495</v>
       </c>
       <c r="R24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83069618537302903</v>
+        <v>0.88000253589062305</v>
       </c>
       <c r="S24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83151622109402912</v>
+        <v>0.88087124520542148</v>
       </c>
       <c r="T24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8323362568150291</v>
+        <v>0.88173995452021958</v>
       </c>
       <c r="U24" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83315629253602919</v>
+        <v>0.8826086638350179</v>
       </c>
       <c r="V24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83397632825702916</v>
+        <v>0.88347737314981611</v>
       </c>
       <c r="W24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83479636397802925</v>
+        <v>0.88434608246461444</v>
       </c>
       <c r="X24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83561639969902923</v>
+        <v>0.88521479177941254</v>
       </c>
       <c r="Y24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83643643542002932</v>
+        <v>0.88608350109421097</v>
       </c>
       <c r="Z24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8372564711410293</v>
+        <v>0.88695221040900907</v>
       </c>
       <c r="AA24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83807650686202939</v>
+        <v>0.88782091972380739</v>
       </c>
       <c r="AB24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83889654258302937</v>
+        <v>0.8886896290386056</v>
       </c>
       <c r="AC24" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83971657830402946</v>
+        <v>0.88955833835340392</v>
       </c>
       <c r="AD24" s="10">
         <f t="shared" ref="AD24:AO37" ca="1" si="14">$E24*AD$22</f>
-        <v>0.84053661402502944</v>
+        <v>0.89042704766820202</v>
       </c>
       <c r="AE24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84135664974602953</v>
+        <v>0.89129575698300034</v>
       </c>
       <c r="AF24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84217668546702951</v>
+        <v>0.89216446629779855</v>
       </c>
       <c r="AG24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8429967211880296</v>
+        <v>0.89303317561259687</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84381675690902946</v>
+        <v>0.89390188492739509</v>
       </c>
       <c r="AI24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84463679263002966</v>
+        <v>0.89477059424219341</v>
       </c>
       <c r="AJ24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84545682835102953</v>
+        <v>0.89563930355699151</v>
       </c>
       <c r="AK24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84627686407202973</v>
+        <v>0.89650801287178983</v>
       </c>
       <c r="AL24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8470968997930296</v>
+        <v>0.89737672218658804</v>
       </c>
       <c r="AM24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8479169355140298</v>
+        <v>0.89824543150138636</v>
       </c>
       <c r="AN24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84873697123502967</v>
+        <v>0.89911414081618457</v>
       </c>
       <c r="AO24" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84955700695602976</v>
+        <v>0.89998285013098289</v>
       </c>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
@@ -3810,159 +3800,159 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25473857716712511</v>
+        <v>7.3732133909826802E-2</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32782520815566785</v>
+        <v>0.40705573591909283</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1.8148693593181831E-3</v>
+        <v>0.89107453252282975</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>1.816684228677501E-3</v>
+        <v>0.89196560705535244</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8184990980368194E-3</v>
+        <v>0.89285668158787546</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8203139673961374E-3</v>
+        <v>0.89374775612039814</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8221288367554558E-3</v>
+        <v>0.89463883065292105</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8239437061147738E-3</v>
+        <v>0.89552990518544384</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8257585754740922E-3</v>
+        <v>0.89642097971796675</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8275734448334102E-3</v>
+        <v>0.89731205425048943</v>
       </c>
       <c r="M25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8293883141927286E-3</v>
+        <v>0.89820312878301245</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8312031835520466E-3</v>
+        <v>0.89909420331553513</v>
       </c>
       <c r="O25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8330180529113648E-3</v>
+        <v>0.89998527784805804</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8348329222706828E-3</v>
+        <v>0.90087635238058084</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8366477916300012E-3</v>
+        <v>0.90176742691310374</v>
       </c>
       <c r="R25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8384626609893192E-3</v>
+        <v>0.90265850144562643</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8402775303486376E-3</v>
+        <v>0.90354957597814933</v>
       </c>
       <c r="T25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8420923997079556E-3</v>
+        <v>0.90444065051067213</v>
       </c>
       <c r="U25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.843907269067274E-3</v>
+        <v>0.90533172504319503</v>
       </c>
       <c r="V25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.845722138426592E-3</v>
+        <v>0.90622279957571772</v>
       </c>
       <c r="W25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8475370077859104E-3</v>
+        <v>0.90711387410824074</v>
       </c>
       <c r="X25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8493518771452284E-3</v>
+        <v>0.90800494864076342</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8511667465045468E-3</v>
+        <v>0.90889602317328633</v>
       </c>
       <c r="Z25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8529816158638648E-3</v>
+        <v>0.90978709770580912</v>
       </c>
       <c r="AA25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8547964852231832E-3</v>
+        <v>0.91067817223833203</v>
       </c>
       <c r="AB25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8566113545825011E-3</v>
+        <v>0.91156924677085471</v>
       </c>
       <c r="AC25" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8584262239418196E-3</v>
+        <v>0.91246032130337773</v>
       </c>
       <c r="AD25" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8602410933011375E-3</v>
+        <v>0.91335139583590041</v>
       </c>
       <c r="AE25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.862055962660456E-3</v>
+        <v>0.91424247036842332</v>
       </c>
       <c r="AF25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8638708320197739E-3</v>
+        <v>0.91513354490094612</v>
       </c>
       <c r="AG25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8656857013790921E-3</v>
+        <v>0.91602461943346902</v>
       </c>
       <c r="AH25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8675005707384101E-3</v>
+        <v>0.91691569396599171</v>
       </c>
       <c r="AI25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8693154400977285E-3</v>
+        <v>0.91780676849851472</v>
       </c>
       <c r="AJ25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8711303094570465E-3</v>
+        <v>0.91869784303103741</v>
       </c>
       <c r="AK25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8729451788163649E-3</v>
+        <v>0.91958891756356032</v>
       </c>
       <c r="AL25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8747600481756829E-3</v>
+        <v>0.92047999209608311</v>
       </c>
       <c r="AM25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8765749175350013E-3</v>
+        <v>0.92137106662860602</v>
       </c>
       <c r="AN25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8783897868943193E-3</v>
+        <v>0.9222621411611287</v>
       </c>
       <c r="AO25" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8802046562536377E-3</v>
+        <v>0.92315321569365161</v>
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.3">
@@ -3971,159 +3961,159 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39458987203686946</v>
+        <v>0.92774582502604219</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.97736775423800137</v>
+        <v>0.70026792551696615</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.9958330259605116</v>
+        <v>0.1309005344475952</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.996828858986472</v>
+        <v>0.13103143498204278</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.99782469201243262</v>
+        <v>0.1311623355164904</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.99882052503839303</v>
+        <v>0.13129323605093796</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.99981635806435365</v>
+        <v>0.13142413658538557</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0008121910903141</v>
+        <v>0.13155503711983316</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0018080241162746</v>
+        <v>0.13168593765428077</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0028038571422351</v>
+        <v>0.13181683818872836</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0037996901681956</v>
+        <v>0.13194773872317594</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0047955231941561</v>
+        <v>0.13207863925762353</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0057913562201166</v>
+        <v>0.13220953979207115</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0067871892460771</v>
+        <v>0.13234044032651873</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0077830222720376</v>
+        <v>0.13247134086096635</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0087788552979982</v>
+        <v>0.13260224139541393</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0097746883239587</v>
+        <v>0.13273314192986152</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0107705213499192</v>
+        <v>0.13286404246430911</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0117663543758797</v>
+        <v>0.13299494299875672</v>
       </c>
       <c r="V26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0127621874018402</v>
+        <v>0.13312584353320431</v>
       </c>
       <c r="W26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0137580204278007</v>
+        <v>0.13325674406765192</v>
       </c>
       <c r="X26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0147538534537612</v>
+        <v>0.13338764460209948</v>
       </c>
       <c r="Y26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0157496864797217</v>
+        <v>0.1335185451365471</v>
       </c>
       <c r="Z26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0167455195056823</v>
+        <v>0.13364944567099468</v>
       </c>
       <c r="AA26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0177413525316428</v>
+        <v>0.1337803462054423</v>
       </c>
       <c r="AB26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0187371855576033</v>
+        <v>0.13391124673988988</v>
       </c>
       <c r="AC26" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0197330185835638</v>
+        <v>0.13404214727433747</v>
       </c>
       <c r="AD26" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0207288516095243</v>
+        <v>0.13417304780878506</v>
       </c>
       <c r="AE26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0217246846354848</v>
+        <v>0.13430394834323267</v>
       </c>
       <c r="AF26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0227205176614453</v>
+        <v>0.13443484887768026</v>
       </c>
       <c r="AG26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0237163506874059</v>
+        <v>0.13456574941212787</v>
       </c>
       <c r="AH26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0247121837133664</v>
+        <v>0.13469664994657546</v>
       </c>
       <c r="AI26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0257080167393269</v>
+        <v>0.13482755048102305</v>
       </c>
       <c r="AJ26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0267038497652874</v>
+        <v>0.13495845101547063</v>
       </c>
       <c r="AK26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0276996827912479</v>
+        <v>0.13508935154991825</v>
       </c>
       <c r="AL26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0286955158172084</v>
+        <v>0.13522025208436583</v>
       </c>
       <c r="AM26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0296913488431689</v>
+        <v>0.13535115261881345</v>
       </c>
       <c r="AN26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0306871818691294</v>
+        <v>0.13548205315326101</v>
       </c>
       <c r="AO26" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>1.03168301489509</v>
+        <v>0.13561295368770862</v>
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
@@ -4132,159 +4122,159 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.52185529418876198</v>
+        <v>0.63836858502179294</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16384493716410331</v>
+        <v>0.33643055273624378</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.82488251644086752</v>
+        <v>0.4618507110753145</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82570739895730827</v>
+        <v>0.46231256178638974</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82653228147374924</v>
+        <v>0.46277441249746515</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82735716399018999</v>
+        <v>0.46323626320854039</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82818204650663096</v>
+        <v>0.46369811391961574</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82900692902307171</v>
+        <v>0.46415996463069104</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.82983181153951269</v>
+        <v>0.46462181534176639</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83065669405595355</v>
+        <v>0.46508366605284168</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83148157657239452</v>
+        <v>0.46554551676391703</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83230645908883527</v>
+        <v>0.46600736747499227</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83313134160527624</v>
+        <v>0.46646921818606762</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83395622412171699</v>
+        <v>0.46693106889714292</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83478110663815797</v>
+        <v>0.46739291960821827</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83560598915459872</v>
+        <v>0.46785477031929357</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83643087167103969</v>
+        <v>0.46831662103036892</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83725575418748044</v>
+        <v>0.46877847174144416</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83808063670392141</v>
+        <v>0.46924032245251956</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83890551922036216</v>
+        <v>0.4697021731635948</v>
       </c>
       <c r="W27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83973040173680313</v>
+        <v>0.47016402387467016</v>
       </c>
       <c r="X27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84055528425324388</v>
+        <v>0.47062587458574545</v>
       </c>
       <c r="Y27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84138016676968486</v>
+        <v>0.4710877252968208</v>
       </c>
       <c r="Z27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84220504928612561</v>
+        <v>0.47154957600789604</v>
       </c>
       <c r="AA27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84302993180256658</v>
+        <v>0.47201142671897145</v>
       </c>
       <c r="AB27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84385481431900744</v>
+        <v>0.47247327743004669</v>
       </c>
       <c r="AC27" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84467969683544841</v>
+        <v>0.47293512814112204</v>
       </c>
       <c r="AD27" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.84550457935188916</v>
+        <v>0.47339697885219734</v>
       </c>
       <c r="AE27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84632946186833014</v>
+        <v>0.47385882956327269</v>
       </c>
       <c r="AF27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84715434438477089</v>
+        <v>0.47432068027434793</v>
       </c>
       <c r="AG27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84797922690121186</v>
+        <v>0.47478253098542333</v>
       </c>
       <c r="AH27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84880410941765261</v>
+        <v>0.47524438169649857</v>
       </c>
       <c r="AI27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84962899193409358</v>
+        <v>0.47570623240757393</v>
       </c>
       <c r="AJ27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85045387445053433</v>
+        <v>0.47616808311864922</v>
       </c>
       <c r="AK27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8512787569669753</v>
+        <v>0.47662993382972457</v>
       </c>
       <c r="AL27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85210363948341605</v>
+        <v>0.47709178454079987</v>
       </c>
       <c r="AM27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85292852199985703</v>
+        <v>0.47755363525187522</v>
       </c>
       <c r="AN27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85375340451629778</v>
+        <v>0.47801548596295046</v>
       </c>
       <c r="AO27" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85457828703273875</v>
+        <v>0.47847733667402587</v>
       </c>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.3">
@@ -4293,159 +4283,159 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.20353683713456627</v>
+        <v>0.37297362002455658</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.99988654810478028</v>
+        <v>0.58986653512338361</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.58533084389531231</v>
+        <v>0.38305434064389932</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.58591617473920754</v>
+        <v>0.38343739498454316</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58650150558310299</v>
+        <v>0.38382044932518711</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58708683642699822</v>
+        <v>0.38420350366583095</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58767216727089355</v>
+        <v>0.3845865580064749</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58825749811478878</v>
+        <v>0.38496961234711879</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58884282895868423</v>
+        <v>0.38535266668776269</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58942815980257945</v>
+        <v>0.38573572102840659</v>
       </c>
       <c r="M28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59001349064647479</v>
+        <v>0.38611877536905054</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59059882149037002</v>
+        <v>0.38650182970969438</v>
       </c>
       <c r="O28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59118415233426547</v>
+        <v>0.38688488405033833</v>
       </c>
       <c r="P28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59176948317816069</v>
+        <v>0.38726793839098217</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59235481402205603</v>
+        <v>0.38765099273162612</v>
       </c>
       <c r="R28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59294014486595137</v>
+        <v>0.38803404707226996</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59352547570984671</v>
+        <v>0.38841710141291391</v>
       </c>
       <c r="T28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59411080655374193</v>
+        <v>0.38880015575355775</v>
       </c>
       <c r="U28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59469613739763727</v>
+        <v>0.3891832100942017</v>
       </c>
       <c r="V28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59528146824153261</v>
+        <v>0.38956626443484554</v>
       </c>
       <c r="W28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59586679908542795</v>
+        <v>0.3899493187754895</v>
       </c>
       <c r="X28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59645212992932317</v>
+        <v>0.39033237311613339</v>
       </c>
       <c r="Y28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59703746077321862</v>
+        <v>0.39071542745677729</v>
       </c>
       <c r="Z28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59762279161711385</v>
+        <v>0.39109848179742118</v>
       </c>
       <c r="AA28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59820812246100918</v>
+        <v>0.39148153613806513</v>
       </c>
       <c r="AB28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59879345330490441</v>
+        <v>0.39186459047870897</v>
       </c>
       <c r="AC28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59937878414879986</v>
+        <v>0.39224764481935293</v>
       </c>
       <c r="AD28" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.59996411499269509</v>
+        <v>0.39263069915999677</v>
       </c>
       <c r="AE28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60054944583659042</v>
+        <v>0.39301375350064072</v>
       </c>
       <c r="AF28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60113477668048565</v>
+        <v>0.39339680784128456</v>
       </c>
       <c r="AG28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6017201075243811</v>
+        <v>0.39377986218192851</v>
       </c>
       <c r="AH28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60230543836827632</v>
+        <v>0.39416291652257235</v>
       </c>
       <c r="AI28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60289076921217166</v>
+        <v>0.3945459708632163</v>
       </c>
       <c r="AJ28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.603476100056067</v>
+        <v>0.39492902520386014</v>
       </c>
       <c r="AK28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60406143089996234</v>
+        <v>0.39531207954450409</v>
       </c>
       <c r="AL28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60464676174385756</v>
+        <v>0.39569513388514799</v>
       </c>
       <c r="AM28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6052320925877529</v>
+        <v>0.39607818822579188</v>
       </c>
       <c r="AN28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60581742343164824</v>
+        <v>0.39646124256643578</v>
       </c>
       <c r="AO28" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60640275427554358</v>
+        <v>0.39684429690707973</v>
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
@@ -4454,159 +4444,159 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8294060245484326</v>
+        <v>0.44927757011585223</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22272031568018857</v>
+        <v>0.99336216810158906</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.68575304731560016</v>
+        <v>0.88449164553532722</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68643880036291571</v>
+        <v>0.8853761371808625</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68712455341023138</v>
+        <v>0.88626062882639789</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68781030645754693</v>
+        <v>0.88714512047193306</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68849605950486259</v>
+        <v>0.88802961211746856</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68918181255217814</v>
+        <v>0.88891410376300373</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6898675655994938</v>
+        <v>0.88979859540853923</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69055331864680924</v>
+        <v>0.8906830870540744</v>
       </c>
       <c r="M29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69123907169412502</v>
+        <v>0.8915675786996099</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69192482474144046</v>
+        <v>0.89245207034514507</v>
       </c>
       <c r="O29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69261057778875612</v>
+        <v>0.89333656199068046</v>
       </c>
       <c r="P29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69329633083607167</v>
+        <v>0.89422105363621573</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69398208388338734</v>
+        <v>0.89510554528175112</v>
       </c>
       <c r="R29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69466783693070289</v>
+        <v>0.8959900369272864</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69535358997801855</v>
+        <v>0.89687452857282179</v>
       </c>
       <c r="T29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6960393430253341</v>
+        <v>0.89775902021835707</v>
       </c>
       <c r="U29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69672509607264976</v>
+        <v>0.89864351186389246</v>
       </c>
       <c r="V29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69741084911996531</v>
+        <v>0.89952800350942774</v>
       </c>
       <c r="W29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69809660216728098</v>
+        <v>0.90041249515496313</v>
       </c>
       <c r="X29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69878235521459653</v>
+        <v>0.9012969868004983</v>
       </c>
       <c r="Y29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69946810826191219</v>
+        <v>0.9021814784460338</v>
       </c>
       <c r="Z29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70015386130922774</v>
+        <v>0.90306597009156897</v>
       </c>
       <c r="AA29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70083961435654341</v>
+        <v>0.90395046173710447</v>
       </c>
       <c r="AB29" s="10">
         <f ca="1">$E29*AB$22</f>
-        <v>0.70152536740385896</v>
+        <v>0.90483495338263964</v>
       </c>
       <c r="AC29" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70221112045117462</v>
+        <v>0.90571944502817514</v>
       </c>
       <c r="AD29" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.70289687349849006</v>
+        <v>0.90660393667371031</v>
       </c>
       <c r="AE29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70358262654580583</v>
+        <v>0.9074884283192457</v>
       </c>
       <c r="AF29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70426837959312127</v>
+        <v>0.90837291996478098</v>
       </c>
       <c r="AG29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70495413264043694</v>
+        <v>0.90925741161031637</v>
       </c>
       <c r="AH29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70563988568775249</v>
+        <v>0.91014190325585165</v>
       </c>
       <c r="AI29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70632563873506815</v>
+        <v>0.91102639490138704</v>
       </c>
       <c r="AJ29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7070113917823837</v>
+        <v>0.91191088654692232</v>
       </c>
       <c r="AK29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70769714482969936</v>
+        <v>0.91279537819245771</v>
       </c>
       <c r="AL29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70838289787701492</v>
+        <v>0.91367986983799299</v>
       </c>
       <c r="AM29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70906865092433058</v>
+        <v>0.91456436148352838</v>
       </c>
       <c r="AN29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70975440397164613</v>
+        <v>0.91544885312906366</v>
       </c>
       <c r="AO29" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71044015701896179</v>
+        <v>0.91633334477459905</v>
       </c>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.3">
@@ -4615,159 +4605,159 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56518276152617375</v>
+        <v>0.40223394161236103</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.30863234372851667</v>
+        <v>7.8249781709484267E-2</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42588570660081737</v>
+        <v>3.5786966595947267E-2</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.42631159230741816</v>
+        <v>3.5822753562543212E-2</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42673747801401901</v>
+        <v>3.5858540529139164E-2</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4271633637206198</v>
+        <v>3.5894327495735102E-2</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42758924942722065</v>
+        <v>3.5930114462331054E-2</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42801513513382139</v>
+        <v>3.5965901428927E-2</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42844102084042229</v>
+        <v>3.6001688395522952E-2</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42886690654702303</v>
+        <v>3.6037475362118897E-2</v>
       </c>
       <c r="M30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42929279225362393</v>
+        <v>3.6073262328714849E-2</v>
       </c>
       <c r="N30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42971867796022467</v>
+        <v>3.6109049295310787E-2</v>
       </c>
       <c r="O30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43014456366682557</v>
+        <v>3.6144836261906739E-2</v>
       </c>
       <c r="P30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43057044937342631</v>
+        <v>3.6180623228502684E-2</v>
       </c>
       <c r="Q30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43099633508002716</v>
+        <v>3.6216410195098636E-2</v>
       </c>
       <c r="R30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43142222078662795</v>
+        <v>3.6252197161694581E-2</v>
       </c>
       <c r="S30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4318481064932288</v>
+        <v>3.6287984128290526E-2</v>
       </c>
       <c r="T30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43227399219982959</v>
+        <v>3.6323771094886471E-2</v>
       </c>
       <c r="U30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43269987790643044</v>
+        <v>3.6359558061482423E-2</v>
       </c>
       <c r="V30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43312576361303123</v>
+        <v>3.6395345028078369E-2</v>
       </c>
       <c r="W30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43355164931963208</v>
+        <v>3.6431131994674321E-2</v>
       </c>
       <c r="X30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43397753502623287</v>
+        <v>3.6466918961270259E-2</v>
       </c>
       <c r="Y30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43440342073283372</v>
+        <v>3.6502705927866211E-2</v>
       </c>
       <c r="Z30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43482930643943452</v>
+        <v>3.6538492894462156E-2</v>
       </c>
       <c r="AA30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43525519214603536</v>
+        <v>3.6574279861058108E-2</v>
       </c>
       <c r="AB30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43568107785263616</v>
+        <v>3.6610066827654053E-2</v>
       </c>
       <c r="AC30" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.436106963559237</v>
+        <v>3.6645853794250005E-2</v>
       </c>
       <c r="AD30" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43653284926583774</v>
+        <v>3.6681640760845943E-2</v>
       </c>
       <c r="AE30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43695873497243864</v>
+        <v>3.6717427727441895E-2</v>
       </c>
       <c r="AF30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43738462067903938</v>
+        <v>3.675321469403784E-2</v>
       </c>
       <c r="AG30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43781050638564029</v>
+        <v>3.6789001660633792E-2</v>
       </c>
       <c r="AH30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43823639209224102</v>
+        <v>3.6824788627229738E-2</v>
       </c>
       <c r="AI30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43866227779884193</v>
+        <v>3.6860575593825683E-2</v>
       </c>
       <c r="AJ30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43908816350544266</v>
+        <v>3.6896362560421628E-2</v>
       </c>
       <c r="AK30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43951404921204351</v>
+        <v>3.693214952701758E-2</v>
       </c>
       <c r="AL30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4399399349186443</v>
+        <v>3.6967936493613525E-2</v>
       </c>
       <c r="AM30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44036582062524515</v>
+        <v>3.7003723460209477E-2</v>
       </c>
       <c r="AN30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44079170633184594</v>
+        <v>3.7039510426805422E-2</v>
       </c>
       <c r="AO30" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44121759203844679</v>
+        <v>3.7075297393401367E-2</v>
       </c>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
@@ -4776,159 +4766,159 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.72637420173797262</v>
+        <v>0.92372128835783951</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.6541809949516505</v>
+        <v>0.71609283362584319</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.83757937501935409</v>
+        <v>0.66189107272090841</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83841695439437336</v>
+        <v>0.66255296379362927</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83925453376939285</v>
+        <v>0.66321485486635023</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84009211314441201</v>
+        <v>0.66387674593907109</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8409296925194315</v>
+        <v>0.66453863701179205</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84176727189445077</v>
+        <v>0.66520052808451291</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84260485126947027</v>
+        <v>0.66586241915723388</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84344243064448943</v>
+        <v>0.66652431022995473</v>
       </c>
       <c r="M31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84428001001950892</v>
+        <v>0.6671862013026757</v>
       </c>
       <c r="N31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84511758939452819</v>
+        <v>0.66784809237539655</v>
       </c>
       <c r="O31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84595516876954768</v>
+        <v>0.66850998344811752</v>
       </c>
       <c r="P31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84679274814456695</v>
+        <v>0.66917187452083837</v>
       </c>
       <c r="Q31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84763032751958634</v>
+        <v>0.66983376559355934</v>
       </c>
       <c r="R31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84846790689460561</v>
+        <v>0.67049565666628019</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8493054862696251</v>
+        <v>0.67115754773900116</v>
       </c>
       <c r="T31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85014306564464437</v>
+        <v>0.67181943881172201</v>
       </c>
       <c r="U31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85098064501966375</v>
+        <v>0.67248132988444298</v>
       </c>
       <c r="V31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85181822439468302</v>
+        <v>0.67314322095716383</v>
       </c>
       <c r="W31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85265580376970251</v>
+        <v>0.6738051120298848</v>
       </c>
       <c r="X31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85349338314472178</v>
+        <v>0.67446700310260566</v>
       </c>
       <c r="Y31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85433096251974117</v>
+        <v>0.67512889417532662</v>
       </c>
       <c r="Z31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85516854189476044</v>
+        <v>0.67579078524804748</v>
       </c>
       <c r="AA31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85600612126977993</v>
+        <v>0.67645267632076844</v>
       </c>
       <c r="AB31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8568437006447992</v>
+        <v>0.6771145673934893</v>
       </c>
       <c r="AC31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85768128001981858</v>
+        <v>0.67777645846621026</v>
       </c>
       <c r="AD31" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.85851885939483785</v>
+        <v>0.67843834953893112</v>
       </c>
       <c r="AE31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85935643876985734</v>
+        <v>0.67910024061165208</v>
       </c>
       <c r="AF31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86019401814487662</v>
+        <v>0.67976213168437283</v>
       </c>
       <c r="AG31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.861031597519896</v>
+        <v>0.6804240227570939</v>
       </c>
       <c r="AH31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86186917689491527</v>
+        <v>0.68108591382981465</v>
       </c>
       <c r="AI31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86270675626993476</v>
+        <v>0.68174780490253573</v>
       </c>
       <c r="AJ31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86354433564495403</v>
+        <v>0.68240969597525647</v>
       </c>
       <c r="AK31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86438191501997341</v>
+        <v>0.68307158704797755</v>
       </c>
       <c r="AL31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86521949439499268</v>
+        <v>0.68373347812069829</v>
       </c>
       <c r="AM31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86605707377001218</v>
+        <v>0.68439536919341937</v>
       </c>
       <c r="AN31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86689465314503145</v>
+        <v>0.68505726026614011</v>
       </c>
       <c r="AO31" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86773223252005083</v>
+        <v>0.68571915133886119</v>
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
@@ -4937,159 +4927,159 @@
       </c>
       <c r="C32" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.34108483814745005</v>
+        <v>0.58153138366820012</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.54493021244744833</v>
+        <v>0.48793563794930084</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61439674584389936</v>
+        <v>0.68787700054133705</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.61501114258974321</v>
+        <v>0.68856487754187834</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61562553933558717</v>
+        <v>0.68925275454241974</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61623993608143102</v>
+        <v>0.68994063154296104</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61685433282727498</v>
+        <v>0.69062850854350244</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61746872957311882</v>
+        <v>0.69131638554404362</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61808312631896278</v>
+        <v>0.69200426254458502</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61869752306480663</v>
+        <v>0.69269213954512632</v>
       </c>
       <c r="M32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61931191981065059</v>
+        <v>0.69338001654566772</v>
       </c>
       <c r="N32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61992631655649444</v>
+        <v>0.69406789354620901</v>
       </c>
       <c r="O32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6205407133023384</v>
+        <v>0.69475577054675042</v>
       </c>
       <c r="P32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62115511004818225</v>
+        <v>0.69544364754729171</v>
       </c>
       <c r="Q32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62176950679402621</v>
+        <v>0.69613152454783311</v>
       </c>
       <c r="R32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62238390353986994</v>
+        <v>0.69681940154837441</v>
       </c>
       <c r="S32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62299830028571401</v>
+        <v>0.69750727854891581</v>
       </c>
       <c r="T32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62361269703155775</v>
+        <v>0.69819515554945699</v>
       </c>
       <c r="U32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62422709377740171</v>
+        <v>0.6988830325499984</v>
       </c>
       <c r="V32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62484149052324556</v>
+        <v>0.69957090955053969</v>
       </c>
       <c r="W32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62545588726908952</v>
+        <v>0.70025878655108109</v>
       </c>
       <c r="X32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62607028401493336</v>
+        <v>0.70094666355162238</v>
       </c>
       <c r="Y32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62668468076077732</v>
+        <v>0.70163454055216379</v>
       </c>
       <c r="Z32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62729907750662117</v>
+        <v>0.70232241755270508</v>
       </c>
       <c r="AA32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62791347425246513</v>
+        <v>0.70301029455324648</v>
       </c>
       <c r="AB32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62852787099830898</v>
+        <v>0.70369817155378778</v>
       </c>
       <c r="AC32" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62914226774415294</v>
+        <v>0.70438604855432918</v>
       </c>
       <c r="AD32" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62975666448999679</v>
+        <v>0.70507392555487036</v>
       </c>
       <c r="AE32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63037106123584075</v>
+        <v>0.70576180255541188</v>
       </c>
       <c r="AF32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63098545798168459</v>
+        <v>0.70644967955595306</v>
       </c>
       <c r="AG32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63159985472752855</v>
+        <v>0.70713755655649446</v>
       </c>
       <c r="AH32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6322142514733724</v>
+        <v>0.70782543355703575</v>
       </c>
       <c r="AI32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63282864821921636</v>
+        <v>0.70851331055757716</v>
       </c>
       <c r="AJ32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63344304496506021</v>
+        <v>0.70920118755811845</v>
       </c>
       <c r="AK32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63405744171090417</v>
+        <v>0.70988906455865985</v>
       </c>
       <c r="AL32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63467183845674802</v>
+        <v>0.71057694155920115</v>
       </c>
       <c r="AM32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63528623520259198</v>
+        <v>0.71126481855974255</v>
       </c>
       <c r="AN32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63590063194843582</v>
+        <v>0.71195269556028384</v>
       </c>
       <c r="AO32" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63651502869427978</v>
+        <v>0.71264057256082525</v>
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.3">
@@ -5098,159 +5088,159 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>1.9582953113926327E-2</v>
+        <v>0.47682782261032153</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.78567763094630427</v>
+        <v>0.84396609608216377</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.46437948502977167</v>
+        <v>0.61641955327488052</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46484386451480136</v>
+        <v>0.61703597282815537</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46530824399983123</v>
+        <v>0.61765239238143033</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46577262348486093</v>
+        <v>0.61826881193470506</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46623700296989073</v>
+        <v>0.61888523148798003</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46670138245492049</v>
+        <v>0.61950165104125487</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4671657619399503</v>
+        <v>0.62011807059452984</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46763014142497999</v>
+        <v>0.62073449014780457</v>
       </c>
       <c r="M33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46809452091000986</v>
+        <v>0.62135090970107953</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46855890039503956</v>
+        <v>0.62196732925435438</v>
       </c>
       <c r="O33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46902327988006937</v>
+        <v>0.62258374880762934</v>
       </c>
       <c r="P33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46948765936509912</v>
+        <v>0.62320016836090419</v>
       </c>
       <c r="Q33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46995203885012893</v>
+        <v>0.62381658791417904</v>
       </c>
       <c r="R33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47041641833515863</v>
+        <v>0.62443300746745389</v>
       </c>
       <c r="S33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47088079782018849</v>
+        <v>0.62504942702072885</v>
       </c>
       <c r="T33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47134517730521819</v>
+        <v>0.6256658465740037</v>
       </c>
       <c r="U33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.471809556790248</v>
+        <v>0.62628226612727866</v>
       </c>
       <c r="V33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47227393627527775</v>
+        <v>0.6268986856805534</v>
       </c>
       <c r="W33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47273831576030756</v>
+        <v>0.62751510523382836</v>
       </c>
       <c r="X33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47320269524533726</v>
+        <v>0.62813152478710321</v>
       </c>
       <c r="Y33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47366707473036712</v>
+        <v>0.62874794434037817</v>
       </c>
       <c r="Z33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47413145421539682</v>
+        <v>0.62936436389365291</v>
       </c>
       <c r="AA33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47459583370042663</v>
+        <v>0.62998078344692787</v>
       </c>
       <c r="AB33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47506021318545638</v>
+        <v>0.63059720300020272</v>
       </c>
       <c r="AC33" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47552459267048619</v>
+        <v>0.63121362255347768</v>
       </c>
       <c r="AD33" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47598897215551594</v>
+        <v>0.63183004210675242</v>
       </c>
       <c r="AE33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47645335164054575</v>
+        <v>0.63244646166002738</v>
       </c>
       <c r="AF33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47691773112557545</v>
+        <v>0.63306288121330223</v>
       </c>
       <c r="AG33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47738211061060526</v>
+        <v>0.63367930076657719</v>
       </c>
       <c r="AH33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47784649009563501</v>
+        <v>0.63429572031985204</v>
       </c>
       <c r="AI33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47831086958066482</v>
+        <v>0.634912139873127</v>
       </c>
       <c r="AJ33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47877524906569457</v>
+        <v>0.63552855942640174</v>
       </c>
       <c r="AK33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47923962855072438</v>
+        <v>0.6361449789796767</v>
       </c>
       <c r="AL33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47970400803575408</v>
+        <v>0.63676139853295155</v>
       </c>
       <c r="AM33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48016838752078389</v>
+        <v>0.63737781808622651</v>
       </c>
       <c r="AN33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48063276700581364</v>
+        <v>0.63799423763950125</v>
       </c>
       <c r="AO33" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48109714649084345</v>
+        <v>0.63861065719277621</v>
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.3">
@@ -5259,159 +5249,159 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.72304162234455904</v>
+        <v>0.69469203320553563</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56878476166388359</v>
+        <v>0.58728144791007042</v>
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8365077973611893</v>
+        <v>4.4062772807736517E-2</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.83734430515855041</v>
+        <v>4.4106835580544249E-2</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83818081295591162</v>
+        <v>4.4150898353351987E-2</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83901732075327273</v>
+        <v>4.4194961126159719E-2</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83985382855063406</v>
+        <v>4.4239023898967465E-2</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84069033634799517</v>
+        <v>4.4283086671775197E-2</v>
       </c>
       <c r="K34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84152684414535639</v>
+        <v>4.4327149444582936E-2</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8423633519427175</v>
+        <v>4.4371212217390668E-2</v>
       </c>
       <c r="M34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84319985974007883</v>
+        <v>4.4415274990198407E-2</v>
       </c>
       <c r="N34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84403636753743994</v>
+        <v>4.4459337763006139E-2</v>
       </c>
       <c r="O34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84487287533480115</v>
+        <v>4.4503400535813885E-2</v>
       </c>
       <c r="P34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84570938313216226</v>
+        <v>4.4547463308621617E-2</v>
       </c>
       <c r="Q34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84654589092952359</v>
+        <v>4.4591526081429356E-2</v>
       </c>
       <c r="R34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8473823987268847</v>
+        <v>4.4635588854237088E-2</v>
       </c>
       <c r="S34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84821890652424592</v>
+        <v>4.4679651627044827E-2</v>
       </c>
       <c r="T34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84905541432160703</v>
+        <v>4.4723714399852559E-2</v>
       </c>
       <c r="U34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84989192211896836</v>
+        <v>4.4767777172660304E-2</v>
       </c>
       <c r="V34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85072842991632946</v>
+        <v>4.4811839945468036E-2</v>
       </c>
       <c r="W34" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85156493771369068</v>
+        <v>4.4855902718275775E-2</v>
       </c>
       <c r="X34" s="10">
         <f t="shared" ref="G34:AE37" ca="1" si="15">$E34*X$22</f>
-        <v>0.85240144551105179</v>
+        <v>4.4899965491083507E-2</v>
       </c>
       <c r="Y34" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85323795330841312</v>
+        <v>4.4944028263891246E-2</v>
       </c>
       <c r="Z34" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85407446110577423</v>
+        <v>4.4988091036698978E-2</v>
       </c>
       <c r="AA34" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85491096890313545</v>
+        <v>4.5032153809506724E-2</v>
       </c>
       <c r="AB34" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85574747670049656</v>
+        <v>4.5076216582314456E-2</v>
       </c>
       <c r="AC34" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85658398449785789</v>
+        <v>4.5120279355122195E-2</v>
       </c>
       <c r="AD34" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.85742049229521899</v>
+        <v>4.5164342127929927E-2</v>
       </c>
       <c r="AE34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85825700009258021</v>
+        <v>4.5208404900737666E-2</v>
       </c>
       <c r="AF34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85909350788994132</v>
+        <v>4.5252467673545398E-2</v>
       </c>
       <c r="AG34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85993001568730265</v>
+        <v>4.5296530446353143E-2</v>
       </c>
       <c r="AH34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86076652348466376</v>
+        <v>4.5340593219160868E-2</v>
       </c>
       <c r="AI34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86160303128202498</v>
+        <v>4.5384655991968614E-2</v>
       </c>
       <c r="AJ34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86243953907938609</v>
+        <v>4.5428718764776346E-2</v>
       </c>
       <c r="AK34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86327604687674742</v>
+        <v>4.5472781537584085E-2</v>
       </c>
       <c r="AL34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86411255467410852</v>
+        <v>4.5516844310391817E-2</v>
       </c>
       <c r="AM34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86494906247146974</v>
+        <v>4.5560907083199556E-2</v>
       </c>
       <c r="AN34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86578557026883085</v>
+        <v>4.5604969856007288E-2</v>
       </c>
       <c r="AO34" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86662207806619218</v>
+        <v>4.5649032628815034E-2</v>
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.3">
@@ -5420,159 +5410,159 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.3221952614048067</v>
+        <v>4.8601007542213415E-2</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.84111981359402688</v>
+        <v>0.87891192159028031</v>
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5.6815339718986224E-2</v>
+        <v>0.93101867716070774</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>5.6872155058705201E-2</v>
+        <v>0.93194969583786835</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6928970398424199E-2</v>
+        <v>0.93288071451502919</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6985785738143176E-2</v>
+        <v>0.9338117331921898</v>
       </c>
       <c r="I35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7042601077862166E-2</v>
+        <v>0.93474275186935063</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.709941641758115E-2</v>
+        <v>0.93567377054651113</v>
       </c>
       <c r="K35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7156231757300141E-2</v>
+        <v>0.93660478922367196</v>
       </c>
       <c r="L35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7213047097019125E-2</v>
+        <v>0.93753580790083257</v>
       </c>
       <c r="M35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7269862436738116E-2</v>
+        <v>0.93846682657799341</v>
       </c>
       <c r="N35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7326677776457093E-2</v>
+        <v>0.93939784525515402</v>
       </c>
       <c r="O35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.738349311617609E-2</v>
+        <v>0.94032886393231485</v>
       </c>
       <c r="P35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7440308455895067E-2</v>
+        <v>0.94125988260947546</v>
       </c>
       <c r="Q35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7497123795614058E-2</v>
+        <v>0.9421909012866363</v>
       </c>
       <c r="R35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7553939135333042E-2</v>
+        <v>0.9431219199637968</v>
       </c>
       <c r="S35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7610754475052033E-2</v>
+        <v>0.94405293864095763</v>
       </c>
       <c r="T35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7667569814771009E-2</v>
+        <v>0.94498395731811824</v>
       </c>
       <c r="U35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7724385154490007E-2</v>
+        <v>0.94591497599527907</v>
       </c>
       <c r="V35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7781200494208984E-2</v>
+        <v>0.94684599467243968</v>
       </c>
       <c r="W35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7838015833927975E-2</v>
+        <v>0.94777701334960052</v>
       </c>
       <c r="X35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7894831173646959E-2</v>
+        <v>0.94870803202676113</v>
       </c>
       <c r="Y35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7951646513365949E-2</v>
+        <v>0.94963905070392196</v>
       </c>
       <c r="Z35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8008461853084926E-2</v>
+        <v>0.95057006938108257</v>
       </c>
       <c r="AA35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8065277192803924E-2</v>
+        <v>0.95150108805824329</v>
       </c>
       <c r="AB35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8122092532522901E-2</v>
+        <v>0.9524321067354039</v>
       </c>
       <c r="AC35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8178907872241892E-2</v>
+        <v>0.95336312541256474</v>
       </c>
       <c r="AD35" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>5.8235723211960876E-2</v>
+        <v>0.95429414408972535</v>
       </c>
       <c r="AE35" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8292538551679866E-2</v>
+        <v>0.95522516276688618</v>
       </c>
       <c r="AF35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.834935389139885E-2</v>
+        <v>0.95615618144404679</v>
       </c>
       <c r="AG35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8406169231117841E-2</v>
+        <v>0.95708720012120763</v>
       </c>
       <c r="AH35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8462984570836818E-2</v>
+        <v>0.95801821879836824</v>
       </c>
       <c r="AI35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8519799910555816E-2</v>
+        <v>0.95894923747552896</v>
       </c>
       <c r="AJ35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8576615250274792E-2</v>
+        <v>0.95988025615268957</v>
       </c>
       <c r="AK35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8633430589993783E-2</v>
+        <v>0.9608112748298504</v>
       </c>
       <c r="AL35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8690245929712767E-2</v>
+        <v>0.96174229350701101</v>
       </c>
       <c r="AM35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8747061269431758E-2</v>
+        <v>0.96267331218417185</v>
       </c>
       <c r="AN35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8803876609150735E-2</v>
+        <v>0.96360433086133246</v>
       </c>
       <c r="AO35" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8860691948869732E-2</v>
+        <v>0.96453534953849329</v>
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.3">
@@ -5581,159 +5571,159 @@
       </c>
       <c r="C36" s="8">
         <f ca="1">RAND()</f>
-        <v>0.51021959585336363</v>
+        <v>0.12055268228449489</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4542237143104595E-2</v>
+        <v>0.48223168789268289</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.71239153265031641</v>
+        <v>0.41442696638155085</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.71310392418296664</v>
+        <v>0.41484139334793235</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71381631571561699</v>
+        <v>0.41525582031431396</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71452870724826723</v>
+        <v>0.41567024728069546</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71524109878091768</v>
+        <v>0.41608467424707707</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71595349031356792</v>
+        <v>0.41649910121345857</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71666588184621827</v>
+        <v>0.41691352817984018</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.7173782733788685</v>
+        <v>0.41732795514622167</v>
       </c>
       <c r="M36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71809066491151896</v>
+        <v>0.41774238211260328</v>
       </c>
       <c r="N36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.7188030564441692</v>
+        <v>0.41815680907898478</v>
       </c>
       <c r="O36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.71951544797681954</v>
+        <v>0.41857123604536639</v>
       </c>
       <c r="P36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72022783950946978</v>
+        <v>0.41898566301174789</v>
       </c>
       <c r="Q36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72094023104212024</v>
+        <v>0.41940008997812944</v>
       </c>
       <c r="R36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72165262257477047</v>
+        <v>0.419814516944511</v>
       </c>
       <c r="S36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72236501410742082</v>
+        <v>0.42022894391089255</v>
       </c>
       <c r="T36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72307740564007106</v>
+        <v>0.4206433708772741</v>
       </c>
       <c r="U36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72378979717272152</v>
+        <v>0.42105779784365566</v>
       </c>
       <c r="V36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72450218870537175</v>
+        <v>0.42147222481003715</v>
       </c>
       <c r="W36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.7252145802380221</v>
+        <v>0.42188665177641876</v>
       </c>
       <c r="X36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72592697177067234</v>
+        <v>0.42230107874280026</v>
       </c>
       <c r="Y36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72663936330332279</v>
+        <v>0.42271550570918187</v>
       </c>
       <c r="Z36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72735175483597303</v>
+        <v>0.42312993267556337</v>
       </c>
       <c r="AA36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72806414636862338</v>
+        <v>0.42354435964194498</v>
       </c>
       <c r="AB36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72877653790127361</v>
+        <v>0.42395878660832648</v>
       </c>
       <c r="AC36" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.72948892943392396</v>
+        <v>0.42437321357470809</v>
       </c>
       <c r="AD36" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.73020132096657431</v>
+        <v>0.42478764054108958</v>
       </c>
       <c r="AE36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73091371249922465</v>
+        <v>0.42520206750747119</v>
       </c>
       <c r="AF36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73162610403187489</v>
+        <v>0.42561649447385269</v>
       </c>
       <c r="AG36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73233849556452524</v>
+        <v>0.4260309214402343</v>
       </c>
       <c r="AH36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73305088709717547</v>
+        <v>0.4264453484066158</v>
       </c>
       <c r="AI36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73376327862982593</v>
+        <v>0.42685977537299741</v>
       </c>
       <c r="AJ36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73447567016247617</v>
+        <v>0.42727420233937891</v>
       </c>
       <c r="AK36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73518806169512652</v>
+        <v>0.42768862930576051</v>
       </c>
       <c r="AL36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73590045322777675</v>
+        <v>0.42810305627214201</v>
       </c>
       <c r="AM36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73661284476042721</v>
+        <v>0.42851748323852362</v>
       </c>
       <c r="AN36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73732523629307745</v>
+        <v>0.42893191020490512</v>
       </c>
       <c r="AO36" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73803762782572779</v>
+        <v>0.42934633717128667</v>
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.3">
@@ -5742,164 +5732,164 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.83775432326687049</v>
+        <v>0.28220073140469659</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>4.4435230091242173E-2</v>
+        <v>0.63264848724709477</v>
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.79348915684775789</v>
+        <v>8.6604898780148765E-2</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.79428264600460552</v>
+        <v>8.6691503678928902E-2</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79507613516145337</v>
+        <v>8.6778108577709068E-2</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79586962431830111</v>
+        <v>8.6864713476489205E-2</v>
       </c>
       <c r="I37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79666311347514895</v>
+        <v>8.6951318375269357E-2</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79745660263199658</v>
+        <v>8.7037923274049495E-2</v>
       </c>
       <c r="K37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79825009178884443</v>
+        <v>8.712452817282966E-2</v>
       </c>
       <c r="L37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79904358094569217</v>
+        <v>8.7211133071609798E-2</v>
       </c>
       <c r="M37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79983707010254002</v>
+        <v>8.7297737970389949E-2</v>
       </c>
       <c r="N37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80063055925938764</v>
+        <v>8.7384342869170101E-2</v>
       </c>
       <c r="O37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80142404841623549</v>
+        <v>8.7470947767950252E-2</v>
       </c>
       <c r="P37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80221753757308312</v>
+        <v>8.755755266673039E-2</v>
       </c>
       <c r="Q37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80301102672993097</v>
+        <v>8.7644157565510555E-2</v>
       </c>
       <c r="R37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.8038045158867787</v>
+        <v>8.7730762464290693E-2</v>
       </c>
       <c r="S37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80459800504362655</v>
+        <v>8.7817367363070845E-2</v>
       </c>
       <c r="T37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80539149420047418</v>
+        <v>8.7903972261850982E-2</v>
       </c>
       <c r="U37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80618498335732203</v>
+        <v>8.7990577160631148E-2</v>
       </c>
       <c r="V37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80697847251416965</v>
+        <v>8.8077182059411285E-2</v>
       </c>
       <c r="W37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.8077719616710175</v>
+        <v>8.8163786958191437E-2</v>
       </c>
       <c r="X37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80856545082786524</v>
+        <v>8.8250391856971588E-2</v>
       </c>
       <c r="Y37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.80935893998471309</v>
+        <v>8.833699675575174E-2</v>
       </c>
       <c r="Z37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.81015242914156071</v>
+        <v>8.8423601654531878E-2</v>
       </c>
       <c r="AA37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.81094591829840856</v>
+        <v>8.8510206553312043E-2</v>
       </c>
       <c r="AB37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.8117394074552563</v>
+        <v>8.8596811452092181E-2</v>
       </c>
       <c r="AC37" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.81253289661210415</v>
+        <v>8.8683416350872332E-2</v>
       </c>
       <c r="AD37" s="10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.81332638576895178</v>
+        <v>8.877002124965247E-2</v>
       </c>
       <c r="AE37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81411987492579962</v>
+        <v>8.8856626148432635E-2</v>
       </c>
       <c r="AF37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81491336408264725</v>
+        <v>8.8943231047212773E-2</v>
       </c>
       <c r="AG37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8157068532394951</v>
+        <v>8.9029835945992938E-2</v>
       </c>
       <c r="AH37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81650034239634284</v>
+        <v>8.9116440844773076E-2</v>
       </c>
       <c r="AI37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81729383155319069</v>
+        <v>8.9203045743553228E-2</v>
       </c>
       <c r="AJ37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81808732071003831</v>
+        <v>8.9289650642333365E-2</v>
       </c>
       <c r="AK37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81888080986688616</v>
+        <v>8.9376255541113531E-2</v>
       </c>
       <c r="AL37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81967429902373379</v>
+        <v>8.9462860439893668E-2</v>
       </c>
       <c r="AM37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82046778818058164</v>
+        <v>8.954946533867382E-2</v>
       </c>
       <c r="AN37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82126127733742937</v>
+        <v>8.9636070237453971E-2</v>
       </c>
       <c r="AO37" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82205476649427722</v>
+        <v>8.9722675136234123E-2</v>
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D39" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E39" s="14">
         <f ca="1">F23/E23-1</f>
@@ -5908,155 +5898,155 @@
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E40" s="8">
         <f ca="1">AVERAGE(E23:E37)</f>
-        <v>0.60865169396943508</v>
+        <v>0.53307080076152213</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:AC40" ca="1" si="16">AVERAGE(F23:F37)</f>
-        <v>0.60926034566340448</v>
+        <v>0.53360387156228384</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.60986899735737399</v>
+        <v>0.53413694236304532</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6104776490513435</v>
+        <v>0.5346700131638068</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61108630074531289</v>
+        <v>0.53520308396456839</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61169495243928229</v>
+        <v>0.53573615476532988</v>
       </c>
       <c r="K40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6123036041332518</v>
+        <v>0.53626922556609147</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61291225582722098</v>
+        <v>0.53680229636685295</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61352090752119059</v>
+        <v>0.53733536716761443</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61412955921515977</v>
+        <v>0.53786843796837591</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61473821090912928</v>
+        <v>0.53840150876913762</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6153468626030989</v>
+        <v>0.53893457956989899</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6159555142970683</v>
+        <v>0.53946765037066069</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61656416599103769</v>
+        <v>0.54000072117142206</v>
       </c>
       <c r="S40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6171728176850072</v>
+        <v>0.54053379197218365</v>
       </c>
       <c r="T40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6177814693789766</v>
+        <v>0.54106686277294502</v>
       </c>
       <c r="U40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.618390121072946</v>
+        <v>0.54159993357370673</v>
       </c>
       <c r="V40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61899877276691539</v>
+        <v>0.5421330043744681</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6196074244608849</v>
+        <v>0.54266607517522969</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6202160761548543</v>
+        <v>0.54319914597599128</v>
       </c>
       <c r="Y40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.62082472784882381</v>
+        <v>0.54373221677675276</v>
       </c>
       <c r="Z40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.62143337954279321</v>
+        <v>0.54426528757751413</v>
       </c>
       <c r="AA40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.62204203123676272</v>
+        <v>0.54479835837827584</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.62265068293073211</v>
+        <v>0.54533142917903732</v>
       </c>
       <c r="AC40" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.62325933462470162</v>
+        <v>0.54586449997979869</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" ref="AD40:AO40" ca="1" si="17">AVERAGE(AD23:AD37)</f>
-        <v>0.62386798631867102</v>
+        <v>0.54639757078056028</v>
       </c>
       <c r="AE40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62447663801264031</v>
+        <v>0.54693064158132176</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.6250852897066097</v>
+        <v>0.54746371238208325</v>
       </c>
       <c r="AG40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62569394140057921</v>
+        <v>0.54799678318284495</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62630259309454861</v>
+        <v>0.54852985398360632</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62691124478851812</v>
+        <v>0.54906292478436791</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62751989648248752</v>
+        <v>0.54959599558512939</v>
       </c>
       <c r="AK40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62812854817645702</v>
+        <v>0.55012906638589099</v>
       </c>
       <c r="AL40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62873719987042642</v>
+        <v>0.55066213718665236</v>
       </c>
       <c r="AM40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62934585156439593</v>
+        <v>0.55119520798741406</v>
       </c>
       <c r="AN40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62995450325836544</v>
+        <v>0.55172827878817543</v>
       </c>
       <c r="AO40" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.63056315495233473</v>
+        <v>0.55226134958893713</v>
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.3">
@@ -6088,19 +6078,19 @@
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E42" s="13">
         <f ca="1">AC40/E40-1</f>
-        <v>2.4000000000000243E-2</v>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H42" s="13">
         <f ca="1">AO40/E40-1</f>
-        <v>3.6000000000000032E-2</v>
+        <v>3.6000000000000476E-2</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -6125,28 +6115,28 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="C43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="C43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -6178,159 +6168,159 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:E59" ca="1" si="18">C23/SUM($C23:$E23)</f>
-        <v>0.29577739628029198</v>
+        <v>9.4089205625603814E-2</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="18"/>
-        <v>0.45457818806393252</v>
+        <v>0.47477047399894856</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.24964441565577555</v>
+        <v>0.43114032037544758</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" ref="F45:AE45" ca="1" si="19">F23/($C23+$D23+F23)</f>
-        <v>0.24983169098492308</v>
+        <v>0.43138547302477781</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25001887285625291</v>
+        <v>0.43163041446584532</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25020596133970613</v>
+        <v>0.43187514497147839</v>
       </c>
       <c r="I45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25039295650515442</v>
+        <v>0.43211966481403558</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25057985842239955</v>
+        <v>0.43236397426540685</v>
       </c>
       <c r="K45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2507666671611738</v>
+        <v>0.43260807359701448</v>
       </c>
       <c r="L45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25095338279113982</v>
+        <v>0.43285196307981411</v>
       </c>
       <c r="M45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25114000538189091</v>
+        <v>0.43309564298429554</v>
       </c>
       <c r="N45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2513265350029511</v>
+        <v>0.43333911358048388</v>
       </c>
       <c r="O45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25151297172377501</v>
+        <v>0.4335823751379409</v>
       </c>
       <c r="P45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2516993156137482</v>
+        <v>0.43382542792576523</v>
       </c>
       <c r="Q45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25188556674218715</v>
+        <v>0.43406827221259425</v>
       </c>
       <c r="R45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25207172517833926</v>
+        <v>0.4343109082666044</v>
       </c>
       <c r="S45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25225779099138312</v>
+        <v>0.43455333635551235</v>
       </c>
       <c r="T45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25244376425042853</v>
+        <v>0.43479555674657622</v>
       </c>
       <c r="U45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2526296450245164</v>
+        <v>0.43503756970659624</v>
       </c>
       <c r="V45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25281543338261908</v>
+        <v>0.43527937550191587</v>
       </c>
       <c r="W45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25300112939364044</v>
+        <v>0.43552097439842313</v>
       </c>
       <c r="X45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25318673312641565</v>
+        <v>0.4357623666615506</v>
       </c>
       <c r="Y45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2533722446497117</v>
+        <v>0.43600355255627765</v>
       </c>
       <c r="Z45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25355766403222707</v>
+        <v>0.43624453234713023</v>
       </c>
       <c r="AA45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25374299134259232</v>
+        <v>0.43648530629818283</v>
       </c>
       <c r="AB45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25392822664936943</v>
+        <v>0.43672587467305873</v>
       </c>
       <c r="AC45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25411337002105272</v>
+        <v>0.43696623773493137</v>
       </c>
       <c r="AD45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25429842152606841</v>
+        <v>0.43720639574652503</v>
       </c>
       <c r="AE45" s="10">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2544833812327747</v>
+        <v>0.43744634897011608</v>
       </c>
       <c r="AF45" s="10">
         <f t="shared" ref="AF45:AO45" ca="1" si="20">AF23/($C23+$D23+AF23)</f>
-        <v>0.25466824920946213</v>
+        <v>0.43768609766753364</v>
       </c>
       <c r="AG45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25485302552435352</v>
+        <v>0.43792564210016088</v>
       </c>
       <c r="AH45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25503771024560395</v>
+        <v>0.4381649825289356</v>
       </c>
       <c r="AI45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25522230344130109</v>
+        <v>0.4384041192143513</v>
       </c>
       <c r="AJ45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25540680517946496</v>
+        <v>0.43864305241645835</v>
       </c>
       <c r="AK45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25559121552804842</v>
+        <v>0.43888178239486453</v>
       </c>
       <c r="AL45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25577553455493673</v>
+        <v>0.43912030940873631</v>
       </c>
       <c r="AM45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25595976232794837</v>
+        <v>0.43935863371679984</v>
       </c>
       <c r="AN45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25614389891483419</v>
+        <v>0.43959675557734146</v>
       </c>
       <c r="AO45" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25632794438327833</v>
+        <v>0.43983467524820896</v>
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.3">
@@ -6339,159 +6329,159 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1838931771640913E-2</v>
+        <v>0.24150526879939813</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42189655769012846</v>
+        <v>0.25913916151982647</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.55626451053823056</v>
+        <v>0.49935556968077538</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" ref="F46:AC46" ca="1" si="21">F24/($C24+$D24+F24)</f>
-        <v>0.55651120761425621</v>
+        <v>0.49960544448910765</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55675763053762828</v>
+        <v>0.49985506999366791</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55700377976508841</v>
+        <v>0.50010444656737107</v>
       </c>
       <c r="I46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55724965575236485</v>
+        <v>0.50035357458238894</v>
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55749525895417418</v>
+        <v>0.50060245441015139</v>
       </c>
       <c r="K46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5577405898242247</v>
+        <v>0.50085108642134901</v>
       </c>
       <c r="L46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55798564881521928</v>
+        <v>0.50109947098593433</v>
       </c>
       <c r="M46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55823043637885783</v>
+        <v>0.5013476084731241</v>
       </c>
       <c r="N46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55847495296583993</v>
+        <v>0.50159549925140035</v>
       </c>
       <c r="O46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55871919902586864</v>
+        <v>0.50184314368851346</v>
       </c>
       <c r="P46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55896317500765136</v>
+        <v>0.50209054215148274</v>
       </c>
       <c r="Q46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55920688135890473</v>
+        <v>0.50233769500659897</v>
       </c>
       <c r="R46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55945031852635585</v>
+        <v>0.50258460261942595</v>
       </c>
       <c r="S46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55969348695574561</v>
+        <v>0.50283126535480249</v>
       </c>
       <c r="T46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.55993638709183136</v>
+        <v>0.50307768357684401</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56017901937838932</v>
+        <v>0.50332385764894438</v>
       </c>
       <c r="V46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56042138425821808</v>
+        <v>0.50356978793377771</v>
       </c>
       <c r="W46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5606634821731401</v>
+        <v>0.50381547479330024</v>
       </c>
       <c r="X46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56090531356400541</v>
+        <v>0.50406091858875179</v>
       </c>
       <c r="Y46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56114687887069403</v>
+        <v>0.50430611968065819</v>
       </c>
       <c r="Z46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56138817853211798</v>
+        <v>0.50455107842883218</v>
       </c>
       <c r="AA46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56162921298622515</v>
+        <v>0.50479579519237605</v>
       </c>
       <c r="AB46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56186998267000066</v>
+        <v>0.50504027032968235</v>
       </c>
       <c r="AC46" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56211048801947072</v>
+        <v>0.50528450419843696</v>
       </c>
       <c r="AD46" s="10">
         <f t="shared" ref="AD46:AO46" ca="1" si="22">AD24/($C24+$D24+AD24)</f>
-        <v>0.56235072946970432</v>
+        <v>0.50552849715561954</v>
       </c>
       <c r="AE46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.5625907074548161</v>
+        <v>0.5057722495575061</v>
       </c>
       <c r="AF46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56283042240796932</v>
+        <v>0.50601576175967056</v>
       </c>
       <c r="AG46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56306987476137826</v>
+        <v>0.50625903411698636</v>
       </c>
       <c r="AH46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56330906494631017</v>
+        <v>0.50650206698362799</v>
       </c>
       <c r="AI46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56354799339308925</v>
+        <v>0.50674486071307323</v>
       </c>
       <c r="AJ46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56378666053109805</v>
+        <v>0.50698741565810435</v>
       </c>
       <c r="AK46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56402506678878028</v>
+        <v>0.50722973217081035</v>
       </c>
       <c r="AL46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56426321259364376</v>
+        <v>0.50747181060258806</v>
       </c>
       <c r="AM46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56450109837226292</v>
+        <v>0.50771365130414448</v>
       </c>
       <c r="AN46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56473872455028051</v>
+        <v>0.50795525462549751</v>
       </c>
       <c r="AO46" s="10">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56497609155241157</v>
+        <v>0.50819662091597895</v>
       </c>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.3">
@@ -6500,159 +6490,159 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="18"/>
-        <v>0.43591355557929673</v>
+        <v>5.3746012561777079E-2</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="18"/>
-        <v>0.56098080504668224</v>
+        <v>0.29671761192761559</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>3.1056393740209955E-3</v>
+        <v>0.64953637551060728</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" ref="F47:AC47" ca="1" si="23">F25/($C25+$D25+F25)</f>
-        <v>3.1087353587840824E-3</v>
+        <v>0.64976386661925634</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1118313243172655E-3</v>
+        <v>0.64999106258381867</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1149272706207216E-3</v>
+        <v>0.65021796397829612</v>
       </c>
       <c r="I47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1180231976946316E-3</v>
+        <v>0.6504445713752034</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1211191055391741E-3</v>
+        <v>0.65067088534557205</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1242149941545293E-3</v>
+        <v>0.65089690645895648</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1273108635408737E-3</v>
+        <v>0.65112263528343706</v>
       </c>
       <c r="M47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1304067136983891E-3</v>
+        <v>0.65134807238562664</v>
       </c>
       <c r="N47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1335025446272537E-3</v>
+        <v>0.65157321833067416</v>
       </c>
       <c r="O47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1365983563276462E-3</v>
+        <v>0.65179807368226961</v>
       </c>
       <c r="P47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1396941487997457E-3</v>
+        <v>0.65202263900264901</v>
       </c>
       <c r="Q47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1427899220437335E-3</v>
+        <v>0.65224691485259867</v>
       </c>
       <c r="R47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1458856760597852E-3</v>
+        <v>0.65247090179146028</v>
       </c>
       <c r="S47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1489814108480829E-3</v>
+        <v>0.65269460037713545</v>
       </c>
       <c r="T47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1520771264088037E-3</v>
+        <v>0.65291801116609016</v>
       </c>
       <c r="U47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1551728227421291E-3</v>
+        <v>0.65314113471335944</v>
       </c>
       <c r="V47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1582684998482354E-3</v>
+        <v>0.65336397157255199</v>
       </c>
       <c r="W47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1613641577273037E-3</v>
+        <v>0.6535865222958549</v>
       </c>
       <c r="X47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1644597963795124E-3</v>
+        <v>0.65380878743403792</v>
       </c>
       <c r="Y47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1675554158050409E-3</v>
+        <v>0.65403076753645839</v>
       </c>
       <c r="Z47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1706510160040675E-3</v>
+        <v>0.65425246315106544</v>
       </c>
       <c r="AA47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1737465969767734E-3</v>
+        <v>0.65447387482440444</v>
       </c>
       <c r="AB47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1768421587233349E-3</v>
+        <v>0.65469500310162199</v>
       </c>
       <c r="AC47" s="10">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1799377012439334E-3</v>
+        <v>0.65491584852646978</v>
       </c>
       <c r="AD47" s="10">
         <f t="shared" ref="AD47:AO47" ca="1" si="24">AD25/($C25+$D25+AD25)</f>
-        <v>3.1830332245387461E-3</v>
+        <v>0.65513641164130954</v>
       </c>
       <c r="AE47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1861287286079547E-3</v>
+        <v>0.65535669298711685</v>
       </c>
       <c r="AF47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1892242134517355E-3</v>
+        <v>0.65557669310348665</v>
       </c>
       <c r="AG47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1923196790702691E-3</v>
+        <v>0.65579641252863652</v>
       </c>
       <c r="AH47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1954151254637345E-3</v>
+        <v>0.65601585179941135</v>
       </c>
       <c r="AI47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.1985105526323109E-3</v>
+        <v>0.6562350114512886</v>
       </c>
       <c r="AJ47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2016059605761765E-3</v>
+        <v>0.65645389201838111</v>
       </c>
       <c r="AK47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2047013492955121E-3</v>
+        <v>0.65667249403344297</v>
       </c>
       <c r="AL47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2077967187904947E-3</v>
+        <v>0.65689081802787264</v>
       </c>
       <c r="AM47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2108920690613052E-3</v>
+        <v>0.65710886453171791</v>
       </c>
       <c r="AN47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2139874001081213E-3</v>
+        <v>0.6573266340736803</v>
       </c>
       <c r="AO47" s="10">
         <f t="shared" ca="1" si="24"/>
-        <v>3.2170827119311239E-3</v>
+        <v>0.65754412718111876</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.3">
@@ -6661,159 +6651,159 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="18"/>
-        <v>0.1666489694366963</v>
+        <v>0.52745368716531771</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="18"/>
-        <v>0.41277625338848628</v>
+        <v>0.39812509995090928</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42057477717481745</v>
+        <v>7.4421212883773069E-2</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" ref="F48:AC48" ca="1" si="25">F26/($C26+$D26+F26)</f>
-        <v>0.42081836636132874</v>
+        <v>7.4490090453777441E-2</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42106175082510683</v>
+        <v>7.455895777340292E-2</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42130493082412984</v>
+        <v>7.4627814844937496E-2</v>
       </c>
       <c r="I48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42154790661594266</v>
+        <v>7.4696661670668546E-2</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42179067845765778</v>
+        <v>7.4765498252882728E-2</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42203324660595637</v>
+        <v>7.4834324593866033E-2</v>
       </c>
       <c r="L48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42227561131708885</v>
+        <v>7.490314069590373E-2</v>
       </c>
       <c r="M48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42251777284687614</v>
+        <v>7.4971946561280464E-2</v>
       </c>
       <c r="N48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.4227597314507105</v>
+        <v>7.5040742192280172E-2</v>
       </c>
       <c r="O48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42300148738355609</v>
+        <v>7.5109527591186165E-2</v>
       </c>
       <c r="P48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42324304089995024</v>
+        <v>7.5178302760280966E-2</v>
       </c>
       <c r="Q48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.4234843922540043</v>
+        <v>7.5247067701846526E-2</v>
       </c>
       <c r="R48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42372554169940446</v>
+        <v>7.5315822418164036E-2</v>
       </c>
       <c r="S48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42396648948941251</v>
+        <v>7.5384566911514059E-2</v>
       </c>
       <c r="T48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42420723587686682</v>
+        <v>7.5453301184176494E-2</v>
       </c>
       <c r="U48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42444778111418335</v>
+        <v>7.5522025238430518E-2</v>
       </c>
       <c r="V48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.4246881254533566</v>
+        <v>7.5590739076554614E-2</v>
       </c>
       <c r="W48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42492826914595999</v>
+        <v>7.5659442700826682E-2</v>
       </c>
       <c r="X48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42516821244314723</v>
+        <v>7.5728136113523831E-2</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42540795559565303</v>
+        <v>7.5796819316922573E-2</v>
       </c>
       <c r="Z48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.4256474988537941</v>
+        <v>7.5865492313298713E-2</v>
       </c>
       <c r="AA48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42588684246746972</v>
+        <v>7.5934155104927389E-2</v>
       </c>
       <c r="AB48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42612598668616281</v>
+        <v>7.6002807694083033E-2</v>
       </c>
       <c r="AC48" s="10">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42636493175894086</v>
+        <v>7.6071450083039449E-2</v>
       </c>
       <c r="AD48" s="10">
         <f t="shared" ref="AD48:AO48" ca="1" si="26">AD26/($C26+$D26+AD26)</f>
-        <v>0.4266036779344568</v>
+        <v>7.6140082274069723E-2</v>
       </c>
       <c r="AE48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42684222546094963</v>
+        <v>7.6208704269446315E-2</v>
       </c>
       <c r="AF48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42708057458624532</v>
+        <v>7.6277316071440934E-2</v>
       </c>
       <c r="AG48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42731872555775802</v>
+        <v>7.6345917682324696E-2</v>
       </c>
       <c r="AH48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42755667862249064</v>
+        <v>7.6414509104368006E-2</v>
       </c>
       <c r="AI48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.4277944340270356</v>
+        <v>7.6483090339840548E-2</v>
       </c>
       <c r="AJ48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42803199201757575</v>
+        <v>7.6551661391011425E-2</v>
       </c>
       <c r="AK48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42826935283988554</v>
+        <v>7.6620222260149015E-2</v>
       </c>
       <c r="AL48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42850651673933154</v>
+        <v>7.668877294952102E-2</v>
       </c>
       <c r="AM48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42874348396087331</v>
+        <v>7.6757313461394472E-2</v>
       </c>
       <c r="AN48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42898025474906409</v>
+        <v>7.6825843798035698E-2</v>
       </c>
       <c r="AO48" s="10">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42921682934805222</v>
+        <v>7.6894363961710455E-2</v>
       </c>
     </row>
     <row r="49" spans="2:41" x14ac:dyDescent="0.3">
@@ -6822,159 +6812,159 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="18"/>
-        <v>0.34546620829011371</v>
+        <v>0.44434528395362854</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="18"/>
-        <v>0.10846472158073132</v>
+        <v>0.23417713996868914</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.54606907012915495</v>
+        <v>0.32147757607768235</v>
       </c>
       <c r="F49" s="10">
         <f t="shared" ref="F49:AC49" ca="1" si="27">F27/($C27+$D27+F27)</f>
-        <v>0.54631681248549424</v>
+        <v>0.32169563572055376</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54656428456813344</v>
+        <v>0.32191355525094051</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54681148681911262</v>
+        <v>0.32213133480384115</v>
       </c>
       <c r="I49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54705841967950875</v>
+        <v>0.3223489745140814</v>
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54730508358943752</v>
+        <v>0.32256647451631359</v>
       </c>
       <c r="K49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54755147898805678</v>
+        <v>0.32278383494501733</v>
       </c>
       <c r="L49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54779760631356866</v>
+        <v>0.32300105593449963</v>
       </c>
       <c r="M49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54804346600322229</v>
+        <v>0.32321813761889528</v>
       </c>
       <c r="N49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54828905849331644</v>
+        <v>0.32343508013216704</v>
       </c>
       <c r="O49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54853438421920209</v>
+        <v>0.32365188360810604</v>
       </c>
       <c r="P49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54877944361528475</v>
+        <v>0.32386854818033189</v>
       </c>
       <c r="Q49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54902423711502757</v>
+        <v>0.32408507398229314</v>
       </c>
       <c r="R49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54926876515095335</v>
+        <v>0.32430146114726727</v>
       </c>
       <c r="S49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54951302815464753</v>
+        <v>0.32451770980836131</v>
       </c>
       <c r="T49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54975702655675995</v>
+        <v>0.32473382009851176</v>
       </c>
       <c r="U49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55000076078700877</v>
+        <v>0.32494979215048547</v>
       </c>
       <c r="V49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55024423127418165</v>
+        <v>0.32516562609687899</v>
       </c>
       <c r="W49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55048743844613868</v>
+        <v>0.32538132207011966</v>
       </c>
       <c r="X49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55073038272981512</v>
+        <v>0.32559688020246536</v>
       </c>
       <c r="Y49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55097306455122408</v>
+        <v>0.32581230062600514</v>
       </c>
       <c r="Z49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55121548433545831</v>
+        <v>0.32602758347265931</v>
       </c>
       <c r="AA49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55145764250669305</v>
+        <v>0.32624272887417971</v>
       </c>
       <c r="AB49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55169953948818862</v>
+        <v>0.32645773696214986</v>
       </c>
       <c r="AC49" s="10">
         <f t="shared" ca="1" si="27"/>
-        <v>0.55194117570229284</v>
+        <v>0.32667260786798569</v>
       </c>
       <c r="AD49" s="10">
         <f t="shared" ref="AD49:AO49" ca="1" si="28">AD27/($C27+$D27+AD27)</f>
-        <v>0.55218255157044349</v>
+        <v>0.32688734172293521</v>
       </c>
       <c r="AE49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.5524236675131704</v>
+        <v>0.32710193865807924</v>
       </c>
       <c r="AF49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55266452395009846</v>
+        <v>0.32731639880433128</v>
       </c>
       <c r="AG49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55290512129994984</v>
+        <v>0.32753072229243818</v>
       </c>
       <c r="AH49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55314545998054598</v>
+        <v>0.32774490925298011</v>
       </c>
       <c r="AI49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55338554040881083</v>
+        <v>0.32795895981637102</v>
       </c>
       <c r="AJ49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55362536300077259</v>
+        <v>0.32817287411285878</v>
       </c>
       <c r="AK49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55386492817156641</v>
+        <v>0.32838665227252539</v>
       </c>
       <c r="AL49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.5541042363354366</v>
+        <v>0.32860029442528749</v>
       </c>
       <c r="AM49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55434328790573939</v>
+        <v>0.32881380070089627</v>
       </c>
       <c r="AN49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55458208329494474</v>
+        <v>0.32902717122893804</v>
       </c>
       <c r="AO49" s="10">
         <f t="shared" ca="1" si="28"/>
-        <v>0.55482062291463941</v>
+        <v>0.32924040613883454</v>
       </c>
     </row>
     <row r="50" spans="2:41" x14ac:dyDescent="0.3">
@@ -6983,159 +6973,159 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="18"/>
-        <v>0.11378692154541029</v>
+        <v>0.27711950765139465</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="18"/>
-        <v>0.55898486880922316</v>
+        <v>0.43827100635874383</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.32722820964536664</v>
+        <v>0.28460948598986152</v>
       </c>
       <c r="F50" s="10">
         <f t="shared" ref="F50:AC50" ca="1" si="29">F28/($C28+$D28+F28)</f>
-        <v>0.32744828753812938</v>
+        <v>0.28481303498436128</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32766822149370323</v>
+        <v>0.2850164681808261</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32788801165325032</v>
+        <v>0.28521978567804324</v>
       </c>
       <c r="I50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32810765815774851</v>
+        <v>0.2854229875746877</v>
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32832716114799138</v>
+        <v>0.28562607396932232</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32854652076458879</v>
+        <v>0.28582904496039779</v>
       </c>
       <c r="L50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32876573714796647</v>
+        <v>0.28603190064625311</v>
       </c>
       <c r="M50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32898481043836741</v>
+        <v>0.2862346411251156</v>
       </c>
       <c r="N50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32920374077585113</v>
+        <v>0.28643726649510071</v>
       </c>
       <c r="O50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32942252830029478</v>
+        <v>0.28663977685421294</v>
       </c>
       <c r="P50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.32964117315139257</v>
+        <v>0.2868421723003452</v>
       </c>
       <c r="Q50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.3298596754686573</v>
+        <v>0.28704445293127973</v>
       </c>
       <c r="R50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33007803539141928</v>
+        <v>0.2872466188446875</v>
       </c>
       <c r="S50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33029625305882759</v>
+        <v>0.28744867013812886</v>
       </c>
       <c r="T50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33051432860984997</v>
+        <v>0.28765060690905353</v>
       </c>
       <c r="U50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.3307322621832734</v>
+        <v>0.28785242925480109</v>
       </c>
       <c r="V50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33095005391770388</v>
+        <v>0.28805413727260026</v>
       </c>
       <c r="W50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.3311677039515673</v>
+        <v>0.28825573105957014</v>
       </c>
       <c r="X50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33138521242310948</v>
+        <v>0.28845721071271957</v>
       </c>
       <c r="Y50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33160257947039634</v>
+        <v>0.28865857632894781</v>
       </c>
       <c r="Z50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33181980523131421</v>
+        <v>0.28885982800504428</v>
       </c>
       <c r="AA50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33203688984357066</v>
+        <v>0.28906096583768892</v>
       </c>
       <c r="AB50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33225383344469395</v>
+        <v>0.28926198992345242</v>
       </c>
       <c r="AC50" s="10">
         <f t="shared" ca="1" si="29"/>
-        <v>0.33247063617203393</v>
+        <v>0.28946290035879624</v>
       </c>
       <c r="AD50" s="10">
         <f t="shared" ref="AD50:AO50" ca="1" si="30">AD28/($C28+$D28+AD28)</f>
-        <v>0.33268729816276188</v>
+        <v>0.28966369724007257</v>
       </c>
       <c r="AE50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33290381955387149</v>
+        <v>0.28986438066352516</v>
       </c>
       <c r="AF50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33312020048217827</v>
+        <v>0.2900649507252886</v>
       </c>
       <c r="AG50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33333644108432064</v>
+        <v>0.2902654075213893</v>
       </c>
       <c r="AH50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.3335525414967595</v>
+        <v>0.29046575114774476</v>
       </c>
       <c r="AI50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33376850185577911</v>
+        <v>0.29066598170016472</v>
       </c>
       <c r="AJ50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33398432229748709</v>
+        <v>0.29086609927435042</v>
       </c>
       <c r="AK50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33420000295781477</v>
+        <v>0.29106610396589538</v>
       </c>
       <c r="AL50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33441554397251733</v>
+        <v>0.29126599587028507</v>
       </c>
       <c r="AM50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33463094547717437</v>
+        <v>0.2914657750828975</v>
       </c>
       <c r="AN50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33484620760718997</v>
+        <v>0.2916654416990031</v>
       </c>
       <c r="AO50" s="10">
         <f t="shared" ca="1" si="30"/>
-        <v>0.33506133049779313</v>
+        <v>0.29186499581376496</v>
       </c>
     </row>
     <row r="51" spans="2:41" x14ac:dyDescent="0.3">
@@ -7144,159 +7134,159 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="18"/>
-        <v>0.47725177621242021</v>
+        <v>0.19306068116847799</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12815637107872732</v>
+        <v>0.42686123140141652</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3945918527088525</v>
+        <v>0.38007808743010557</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" ref="F51:AC51" ca="1" si="31">F29/($C29+$D29+F29)</f>
-        <v>0.39483064760481668</v>
+        <v>0.3803136166454974</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39506925419634692</v>
+        <v>0.38054896695789608</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39530767270608969</v>
+        <v>0.38078413857106036</v>
       </c>
       <c r="I51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39554590335634082</v>
+        <v>0.38101913168844026</v>
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39578394636904585</v>
+        <v>0.38125394651317651</v>
       </c>
       <c r="K51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39602180196580089</v>
+        <v>0.38148858324810203</v>
       </c>
       <c r="L51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39625947036785325</v>
+        <v>0.38172304209574204</v>
       </c>
       <c r="M51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39649695179610223</v>
+        <v>0.38195732325831488</v>
       </c>
       <c r="N51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39673424647109939</v>
+        <v>0.38219142693773245</v>
       </c>
       <c r="O51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39697135461304994</v>
+        <v>0.38242535333560085</v>
       </c>
       <c r="P51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39720827644181272</v>
+        <v>0.38265910265322095</v>
       </c>
       <c r="Q51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39744501217690137</v>
+        <v>0.38289267509158914</v>
       </c>
       <c r="R51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39768156203748478</v>
+        <v>0.38312607085139738</v>
       </c>
       <c r="S51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39791792624238775</v>
+        <v>0.38335929013303444</v>
       </c>
       <c r="T51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39815410501009174</v>
+        <v>0.38359233313658603</v>
       </c>
       <c r="U51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39839009855873569</v>
+        <v>0.38382520006183557</v>
       </c>
       <c r="V51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39862590710611623</v>
+        <v>0.38405789110826455</v>
       </c>
       <c r="W51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39886153086968895</v>
+        <v>0.38429040647505353</v>
       </c>
       <c r="X51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39909697006656863</v>
+        <v>0.38452274636108202</v>
       </c>
       <c r="Y51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39933222491352999</v>
+        <v>0.38475491096492981</v>
       </c>
       <c r="Z51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.39956729562700855</v>
+        <v>0.38498690048487705</v>
       </c>
       <c r="AA51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.399802182423101</v>
+        <v>0.38521871511890499</v>
       </c>
       <c r="AB51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.40003688551756617</v>
+        <v>0.38545035506469633</v>
       </c>
       <c r="AC51" s="10">
         <f t="shared" ca="1" si="31"/>
-        <v>0.4002714051258256</v>
+        <v>0.38568182051963618</v>
       </c>
       <c r="AD51" s="10">
         <f t="shared" ref="AD51:AO51" ca="1" si="32">AD29/($C29+$D29+AD29)</f>
-        <v>0.40050574146296369</v>
+        <v>0.3859131116808121</v>
       </c>
       <c r="AE51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40073989474372945</v>
+        <v>0.38614422874501525</v>
       </c>
       <c r="AF51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40097386518253592</v>
+        <v>0.38637517190874043</v>
       </c>
       <c r="AG51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40120765299346184</v>
+        <v>0.3866059413681871</v>
       </c>
       <c r="AH51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40144125839025169</v>
+        <v>0.38683653731925932</v>
       </c>
       <c r="AI51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40167468158631658</v>
+        <v>0.38706695995756696</v>
       </c>
       <c r="AJ51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40190792279473475</v>
+        <v>0.38729720947842594</v>
       </c>
       <c r="AK51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40214098222825245</v>
+        <v>0.3875272860768586</v>
       </c>
       <c r="AL51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40237386009928439</v>
+        <v>0.38775718994759478</v>
       </c>
       <c r="AM51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.4026065566199144</v>
+        <v>0.38798692128507167</v>
       </c>
       <c r="AN51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40283907200189628</v>
+        <v>0.38821648028343514</v>
       </c>
       <c r="AO51" s="10">
         <f t="shared" ca="1" si="32"/>
-        <v>0.40307140645665418</v>
+        <v>0.3884458671365395</v>
       </c>
     </row>
     <row r="52" spans="2:41" x14ac:dyDescent="0.3">
@@ -7305,159 +7295,159 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="18"/>
-        <v>0.43485605023151058</v>
+        <v>0.77911442479217641</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="18"/>
-        <v>0.2374641462967928</v>
+        <v>0.1515673526264763</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.32767980347169667</v>
+        <v>6.9318222581347275E-2</v>
       </c>
       <c r="F52" s="10">
         <f t="shared" ref="F52:AC52" ca="1" si="33">F30/($C30+$D30+F30)</f>
-        <v>0.32790003705546761</v>
+        <v>6.9382731316315935E-2</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32812012640157129</v>
+        <v>6.9447231109262597E-2</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32834007165165963</v>
+        <v>6.9511721962046386E-2</v>
       </c>
       <c r="I52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32855987294719929</v>
+        <v>6.9576203876525952E-2</v>
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32877953042947189</v>
+        <v>6.9640676854559408E-2</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32899904423957405</v>
+        <v>6.9705140898004364E-2</v>
       </c>
       <c r="L52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32921841451841788</v>
+        <v>6.9769596008717905E-2</v>
       </c>
       <c r="M52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32943764140673154</v>
+        <v>6.98340421885566E-2</v>
       </c>
       <c r="N52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32965672504505894</v>
+        <v>6.9898479439376507E-2</v>
       </c>
       <c r="O52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.32987566557376058</v>
+        <v>6.9962907763033183E-2</v>
       </c>
       <c r="P52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33009446313301355</v>
+        <v>7.0027327161381644E-2</v>
       </c>
       <c r="Q52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33031311786281209</v>
+        <v>7.0091737636276435E-2</v>
       </c>
       <c r="R52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33053162990296747</v>
+        <v>7.0156139189571518E-2</v>
       </c>
       <c r="S52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33074999939310884</v>
+        <v>7.0220531823120408E-2</v>
       </c>
       <c r="T52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33096822647268287</v>
+        <v>7.0284915538776055E-2</v>
       </c>
       <c r="U52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33118631128095483</v>
+        <v>7.0349290338390977E-2</v>
       </c>
       <c r="V52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33140425395700807</v>
+        <v>7.0413656223817067E-2</v>
       </c>
       <c r="W52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33162205463974498</v>
+        <v>7.0478013196905803E-2</v>
       </c>
       <c r="X52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33183971346788693</v>
+        <v>7.0542361259508052E-2</v>
       </c>
       <c r="Y52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33205723057997455</v>
+        <v>7.0606700413474305E-2</v>
       </c>
       <c r="Z52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33227460611436826</v>
+        <v>7.0671030660654402E-2</v>
       </c>
       <c r="AA52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33249184020924838</v>
+        <v>7.0735352002897767E-2</v>
       </c>
       <c r="AB52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33270893300261545</v>
+        <v>7.0799664442053239E-2</v>
       </c>
       <c r="AC52" s="10">
         <f t="shared" ca="1" si="33"/>
-        <v>0.33292588463229056</v>
+        <v>7.0863967979969231E-2</v>
       </c>
       <c r="AD52" s="10">
         <f t="shared" ref="AD52:AO52" ca="1" si="34">AD30/($C30+$D30+AD30)</f>
-        <v>0.33314269523591566</v>
+        <v>7.0928262618493526E-2</v>
       </c>
       <c r="AE52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33335936495095375</v>
+        <v>7.0992548359473523E-2</v>
       </c>
       <c r="AF52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33357589391468917</v>
+        <v>7.1056825204756036E-2</v>
       </c>
       <c r="AG52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33379228226422825</v>
+        <v>7.1121093156187379E-2</v>
       </c>
       <c r="AH52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33400853013649884</v>
+        <v>7.1185352215613354E-2</v>
       </c>
       <c r="AI52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33422463766825161</v>
+        <v>7.1249602384879263E-2</v>
       </c>
       <c r="AJ52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33444060499605921</v>
+        <v>7.1313843665829893E-2</v>
       </c>
       <c r="AK52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33465643225631764</v>
+        <v>7.137807606030952E-2</v>
       </c>
       <c r="AL52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33487211958524576</v>
+        <v>7.1442299570161918E-2</v>
       </c>
       <c r="AM52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33508766711888593</v>
+        <v>7.1506514197230323E-2</v>
       </c>
       <c r="AN52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33530307499310413</v>
+        <v>7.1570719943357494E-2</v>
       </c>
       <c r="AO52" s="10">
         <f t="shared" ca="1" si="34"/>
-        <v>0.33551834334359054</v>
+        <v>7.1634916810385668E-2</v>
       </c>
     </row>
     <row r="53" spans="2:41" x14ac:dyDescent="0.3">
@@ -7466,159 +7456,159 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="18"/>
-        <v>0.32747075448101987</v>
+        <v>0.40132041691655179</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="18"/>
-        <v>0.29492394343217521</v>
+        <v>0.31111405373430068</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.37760530208680498</v>
+        <v>0.28756552934914753</v>
       </c>
       <c r="F53" s="10">
         <f t="shared" ref="F53:AC53" ca="1" si="35">F31/($C31+$D31+F31)</f>
-        <v>0.37784023291360186</v>
+        <v>0.28777034204775476</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.3780749864520373</v>
+        <v>0.28797503701992588</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37830956290271878</v>
+        <v>0.28817961436713563</v>
       </c>
       <c r="I53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37854396246595184</v>
+        <v>0.28838407419074202</v>
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37877818534173968</v>
+        <v>0.2885884165919867</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37901223172978432</v>
+        <v>0.28879264167199514</v>
       </c>
       <c r="L53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37924610182948659</v>
+        <v>0.28899674953177651</v>
       </c>
       <c r="M53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37947979583994751</v>
+        <v>0.28920074027222437</v>
       </c>
       <c r="N53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.3797133139599681</v>
+        <v>0.28940461399411616</v>
       </c>
       <c r="O53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37994665638805025</v>
+        <v>0.28960837079811397</v>
       </c>
       <c r="P53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38017982332239725</v>
+        <v>0.28981201078476448</v>
       </c>
       <c r="Q53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38041281496091456</v>
+        <v>0.29001553405449904</v>
       </c>
       <c r="R53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38064563150120995</v>
+        <v>0.29021894070763382</v>
       </c>
       <c r="S53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38087827314059447</v>
+        <v>0.2904222308443703</v>
       </c>
       <c r="T53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.3811107400760827</v>
+        <v>0.29062540456479496</v>
       </c>
       <c r="U53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38134303250439355</v>
+        <v>0.29082846196887979</v>
       </c>
       <c r="V53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38157515062195052</v>
+        <v>0.2910314031564824</v>
       </c>
       <c r="W53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.3818070946248826</v>
+        <v>0.29123422822734607</v>
       </c>
       <c r="X53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38203886470902465</v>
+        <v>0.29143693728109982</v>
       </c>
       <c r="Y53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38227046106991769</v>
+        <v>0.29163953041725899</v>
       </c>
       <c r="Z53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38250188390281009</v>
+        <v>0.29184200773522495</v>
       </c>
       <c r="AA53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38273313340265763</v>
+        <v>0.29204436933428563</v>
       </c>
       <c r="AB53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.38296420976412393</v>
+        <v>0.29224661531361529</v>
       </c>
       <c r="AC53" s="10">
         <f t="shared" ca="1" si="35"/>
-        <v>0.3831951131815815</v>
+        <v>0.29244874577227514</v>
       </c>
       <c r="AD53" s="10">
         <f t="shared" ref="AD53:AO53" ca="1" si="36">AD31/($C31+$D31+AD31)</f>
-        <v>0.38342584384911177</v>
+        <v>0.29265076080921293</v>
       </c>
       <c r="AE53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38365640196050627</v>
+        <v>0.29285266052326375</v>
       </c>
       <c r="AF53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38388678770926626</v>
+        <v>0.29305444501314964</v>
       </c>
       <c r="AG53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38411700128860421</v>
+        <v>0.29325611437748034</v>
       </c>
       <c r="AH53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38434704289144372</v>
+        <v>0.2934576687147526</v>
       </c>
       <c r="AI53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38457691271042027</v>
+        <v>0.29365910812335128</v>
       </c>
       <c r="AJ53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38480661093788177</v>
+        <v>0.29386043270154877</v>
       </c>
       <c r="AK53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38503613776588913</v>
+        <v>0.29406164254750572</v>
       </c>
       <c r="AL53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38526549338621663</v>
+        <v>0.29426273775927075</v>
       </c>
       <c r="AM53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.3854946779903527</v>
+        <v>0.29446371843478086</v>
       </c>
       <c r="AN53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.3857236917695</v>
+        <v>0.2946645846718613</v>
       </c>
       <c r="AO53" s="10">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38595253491457682</v>
+        <v>0.29486533656822644</v>
       </c>
     </row>
     <row r="54" spans="2:41" x14ac:dyDescent="0.3">
@@ -7627,159 +7617,159 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22732748366615699</v>
+        <v>0.3309149354568654</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="18"/>
-        <v>0.36318710219476485</v>
+        <v>0.27765516130978629</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.40948541413907819</v>
+        <v>0.39142990323334825</v>
       </c>
       <c r="F54" s="10">
         <f t="shared" ref="F54:AC54" ca="1" si="37">F32/($C32+$D32+F32)</f>
-        <v>0.40972712227286934</v>
+        <v>0.39166802256041122</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.40996863261673416</v>
+        <v>0.39190595561924574</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41020994541335076</v>
+        <v>0.39214370262832821</v>
       </c>
       <c r="I54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41045106090500044</v>
+        <v>0.39238126380579336</v>
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41069197933356855</v>
+        <v>0.39261863936943503</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41093270094054507</v>
+        <v>0.39285582953670711</v>
       </c>
       <c r="L54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41117322596702566</v>
+        <v>0.39309283452472354</v>
       </c>
       <c r="M54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41141355465371238</v>
+        <v>0.3933296545502597</v>
       </c>
       <c r="N54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41165368724091433</v>
+        <v>0.39356628982975267</v>
       </c>
       <c r="O54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41189362396854895</v>
+        <v>0.39380274057930192</v>
       </c>
       <c r="P54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41213336507614196</v>
+        <v>0.39403900701466998</v>
       </c>
       <c r="Q54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41237291080282912</v>
+        <v>0.39427508935128336</v>
       </c>
       <c r="R54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41261226138735635</v>
+        <v>0.39451098780423266</v>
       </c>
       <c r="S54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41285141706808087</v>
+        <v>0.39474670258827382</v>
       </c>
       <c r="T54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41309037808297172</v>
+        <v>0.39498223391782827</v>
       </c>
       <c r="U54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41332914466961079</v>
+        <v>0.39521758200698404</v>
       </c>
       <c r="V54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41356771706519357</v>
+        <v>0.39545274706949596</v>
       </c>
       <c r="W54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.4138060955065298</v>
+        <v>0.39568772931878682</v>
       </c>
       <c r="X54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41404428023004425</v>
+        <v>0.39592252896794716</v>
       </c>
       <c r="Y54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41428227147177776</v>
+        <v>0.39615714622973713</v>
       </c>
       <c r="Z54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41452006946738773</v>
+        <v>0.39639158131658603</v>
       </c>
       <c r="AA54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41475767445214912</v>
+        <v>0.39662583444059352</v>
       </c>
       <c r="AB54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41499508666095497</v>
+        <v>0.3968599058135302</v>
       </c>
       <c r="AC54" s="10">
         <f t="shared" ca="1" si="37"/>
-        <v>0.41523230632831742</v>
+        <v>0.39709379564683811</v>
       </c>
       <c r="AD54" s="10">
         <f t="shared" ref="AD54:AO54" ca="1" si="38">AD32/($C32+$D32+AD32)</f>
-        <v>0.41546933368836836</v>
+        <v>0.39732750415163143</v>
       </c>
       <c r="AE54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41570616897486035</v>
+        <v>0.39756103153869726</v>
       </c>
       <c r="AF54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41594281242116699</v>
+        <v>0.39779437801849582</v>
       </c>
       <c r="AG54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41617926426028429</v>
+        <v>0.39802754380116168</v>
       </c>
       <c r="AH54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41641552472483068</v>
+        <v>0.39826052909650406</v>
       </c>
       <c r="AI54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41665159404704866</v>
+        <v>0.39849333411400734</v>
       </c>
       <c r="AJ54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41688747245880481</v>
+        <v>0.39872595906283181</v>
       </c>
       <c r="AK54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.4171231601915909</v>
+        <v>0.39895840415181461</v>
       </c>
       <c r="AL54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41735865747652467</v>
+        <v>0.39919066958946975</v>
       </c>
       <c r="AM54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41759396454435049</v>
+        <v>0.39942275558398921</v>
       </c>
       <c r="AN54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41782908162543986</v>
+        <v>0.39965466234324348</v>
       </c>
       <c r="AO54" s="10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.4180640089497929</v>
+        <v>0.39988639007478183</v>
       </c>
     </row>
     <row r="55" spans="2:41" x14ac:dyDescent="0.3">
@@ -7788,159 +7778,159 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="18"/>
-        <v>1.542401944510317E-2</v>
+        <v>0.24614108331905823</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="18"/>
-        <v>0.61881918354185872</v>
+        <v>0.43565983217381898</v>
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.36575679701303815</v>
+        <v>0.31819908450712275</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" ref="F55:AC55" ca="1" si="39">F33/($C33+$D33+F33)</f>
-        <v>0.36598869095870312</v>
+        <v>0.31841596392341698</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36622041539479305</v>
+        <v>0.31863270540582872</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36645197050710188</v>
+        <v>0.31884930908590348</v>
       </c>
       <c r="I55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36668335648115213</v>
+        <v>0.3190657750950201</v>
       </c>
       <c r="J55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36691457350219547</v>
+        <v>0.31928210356438991</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36714562175521309</v>
+        <v>0.3194982946250578</v>
       </c>
       <c r="L55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36737650142491612</v>
+        <v>0.31971434840790225</v>
       </c>
       <c r="M55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36760721269574653</v>
+        <v>0.3199302650436357</v>
       </c>
       <c r="N55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36783775575187699</v>
+        <v>0.32014604466280433</v>
       </c>
       <c r="O55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36806813077721201</v>
+        <v>0.32036168739578902</v>
       </c>
       <c r="P55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36829833795538786</v>
+        <v>0.32057719337280516</v>
       </c>
       <c r="Q55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36852837746977352</v>
+        <v>0.32079256272390294</v>
       </c>
       <c r="R55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.3687582495034708</v>
+        <v>0.32100779557896791</v>
       </c>
       <c r="S55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36898795423931519</v>
+        <v>0.32122289206772098</v>
       </c>
       <c r="T55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36921749185987579</v>
+        <v>0.32143785231971855</v>
       </c>
       <c r="U55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36944686254745679</v>
+        <v>0.32165267646435319</v>
       </c>
       <c r="V55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36967606648409651</v>
+        <v>0.32186736463085341</v>
       </c>
       <c r="W55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.36990510385156933</v>
+        <v>0.32208191694828459</v>
       </c>
       <c r="X55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37013397483138522</v>
+        <v>0.32229633354554832</v>
       </c>
       <c r="Y55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37036267960479058</v>
+        <v>0.32251061455138363</v>
       </c>
       <c r="Z55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37059121835276865</v>
+        <v>0.32272476009436635</v>
       </c>
       <c r="AA55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37081959125604008</v>
+        <v>0.32293877030291013</v>
       </c>
       <c r="AB55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37104779849506325</v>
+        <v>0.32315264530526616</v>
       </c>
       <c r="AC55" s="10">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37127584025003479</v>
+        <v>0.32336638522952382</v>
       </c>
       <c r="AD55" s="10">
         <f t="shared" ref="AD55:AO55" ca="1" si="40">AD33/($C33+$D33+AD33)</f>
-        <v>0.37150371670089011</v>
+        <v>0.32357999020361045</v>
       </c>
       <c r="AE55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37173142802730408</v>
+        <v>0.32379346035529233</v>
       </c>
       <c r="AF55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.3719589744086908</v>
+        <v>0.32400679581217401</v>
       </c>
       <c r="AG55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37218635602420491</v>
+        <v>0.32421999670169943</v>
       </c>
       <c r="AH55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37241357305274159</v>
+        <v>0.32443306315115172</v>
       </c>
       <c r="AI55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37264062567293726</v>
+        <v>0.32464599528765342</v>
       </c>
       <c r="AJ55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37286751406316959</v>
+        <v>0.32485879323816685</v>
       </c>
       <c r="AK55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37309423840155859</v>
+        <v>0.32507145712949465</v>
       </c>
       <c r="AL55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37332079886596675</v>
+        <v>0.32528398708827932</v>
       </c>
       <c r="AM55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37354719563399941</v>
+        <v>0.32549638324100427</v>
       </c>
       <c r="AN55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37377342888300547</v>
+        <v>0.32570864571399333</v>
       </c>
       <c r="AO55" s="10">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37399949879007766</v>
+        <v>0.32592077463341185</v>
       </c>
     </row>
     <row r="56" spans="2:41" x14ac:dyDescent="0.3">
@@ -7949,159 +7939,159 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="18"/>
-        <v>0.33972184851124515</v>
+        <v>0.52388615405510275</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="18"/>
-        <v>0.2672441041650036</v>
+        <v>0.44288491070472713</v>
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.39303404732375125</v>
+        <v>3.3228935240170107E-2</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" ref="F56:AC56" ca="1" si="41">F34/($C34+$D34+F34)</f>
-        <v>0.39327251188402801</v>
+        <v>3.3261058945836544E-2</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39351078914215454</v>
+        <v>3.3293180516771784E-2</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39374887931871899</v>
+        <v>3.3325299953188607E-2</v>
       </c>
       <c r="I56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39398678263396347</v>
+        <v>3.3357417255299768E-2</v>
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39422449930778436</v>
+        <v>3.3389532423317991E-2</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39446202955973331</v>
+        <v>3.3421645457455976E-2</v>
       </c>
       <c r="L56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39469937360901758</v>
+        <v>3.3453756357926391E-2</v>
       </c>
       <c r="M56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39493653167450093</v>
+        <v>3.3485865124941887E-2</v>
       </c>
       <c r="N56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39517350397470435</v>
+        <v>3.3517971758715071E-2</v>
       </c>
       <c r="O56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39541029072780665</v>
+        <v>3.3550076259458529E-2</v>
       </c>
       <c r="P56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39564689215164478</v>
+        <v>3.3582178627384815E-2</v>
       </c>
       <c r="Q56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39588330846371539</v>
+        <v>3.3614278862706466E-2</v>
       </c>
       <c r="R56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39611953988117427</v>
+        <v>3.3646376965635973E-2</v>
       </c>
       <c r="S56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.3963555866208382</v>
+        <v>3.3678472936385817E-2</v>
       </c>
       <c r="T56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39659144889918491</v>
+        <v>3.3710566775168434E-2</v>
       </c>
       <c r="U56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.396827126932354</v>
+        <v>3.3742658482196257E-2</v>
       </c>
       <c r="V56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39706262093614736</v>
+        <v>3.3774748057681651E-2</v>
       </c>
       <c r="W56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39729793112603001</v>
+        <v>3.3806835501836989E-2</v>
       </c>
       <c r="X56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39753305771713099</v>
+        <v>3.38389208148746E-2</v>
       </c>
       <c r="Y56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39776800092424358</v>
+        <v>3.3871003997006786E-2</v>
       </c>
       <c r="Z56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39800276096182607</v>
+        <v>3.390308504844583E-2</v>
       </c>
       <c r="AA56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39823733804400263</v>
+        <v>3.3935163969403971E-2</v>
       </c>
       <c r="AB56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39847173238456363</v>
+        <v>3.3967240760093421E-2</v>
       </c>
       <c r="AC56" s="10">
         <f t="shared" ca="1" si="41"/>
-        <v>0.39870594419696676</v>
+        <v>3.399931542072638E-2</v>
       </c>
       <c r="AD56" s="10">
         <f t="shared" ref="AD56:AO56" ca="1" si="42">AD34/($C34+$D34+AD34)</f>
-        <v>0.39893997369433709</v>
+        <v>3.4031387951515009E-2</v>
       </c>
       <c r="AE56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.39917382108946825</v>
+        <v>3.4063458352671445E-2</v>
       </c>
       <c r="AF56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.39940748659482272</v>
+        <v>3.409552662440779E-2</v>
       </c>
       <c r="AG56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.39964097042253255</v>
+        <v>3.4127592766936124E-2</v>
       </c>
       <c r="AH56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.39987427278440024</v>
+        <v>3.4159656780468485E-2</v>
       </c>
       <c r="AI56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40010739389189903</v>
+        <v>3.4191718665216912E-2</v>
       </c>
       <c r="AJ56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40034033395617363</v>
+        <v>3.4223778421393389E-2</v>
       </c>
       <c r="AK56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40057309318804124</v>
+        <v>3.4255836049209884E-2</v>
       </c>
       <c r="AL56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40080567179799143</v>
+        <v>3.4287891548878333E-2</v>
       </c>
       <c r="AM56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40103806999618757</v>
+        <v>3.4319944920610648E-2</v>
       </c>
       <c r="AN56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40127028799246695</v>
+        <v>3.4351996164618696E-2</v>
       </c>
       <c r="AO56" s="10">
         <f t="shared" ca="1" si="42"/>
-        <v>0.40150232599634156</v>
+        <v>3.4384045281114349E-2</v>
       </c>
     </row>
     <row r="57" spans="2:41" x14ac:dyDescent="0.3">
@@ -8110,159 +8100,159 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="18"/>
-        <v>0.26406624858976324</v>
+        <v>2.615021847228469E-2</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="18"/>
-        <v>0.68936877849123457</v>
+        <v>0.47290663156557766</v>
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>4.6564972919002218E-2</v>
+        <v>0.50094314996213762</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" ref="F57:AC57" ca="1" si="43">F35/($C35+$D35+F35)</f>
-        <v>4.6609367527984495E-2</v>
+        <v>0.50119302389996823</v>
       </c>
       <c r="G57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6653758002884273E-2</v>
+        <v>0.50144264774309033</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6698144344278936E-2</v>
+        <v>0.50169202186678952</v>
       </c>
       <c r="I57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6742526552745842E-2</v>
+        <v>0.50194114664560119</v>
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6786904628862189E-2</v>
+        <v>0.50219002245331168</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6831278573205085E-2</v>
+        <v>0.50243864966296115</v>
       </c>
       <c r="L57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6875648386351526E-2</v>
+        <v>0.50268702864684434</v>
       </c>
       <c r="M57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6920014068878427E-2</v>
+        <v>0.50293515977651349</v>
       </c>
       <c r="N57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.6964375621362527E-2</v>
+        <v>0.5031830434227792</v>
       </c>
       <c r="O57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7008733044380559E-2</v>
+        <v>0.503430679955713</v>
       </c>
       <c r="P57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7053086338509048E-2</v>
+        <v>0.50367806974464913</v>
       </c>
       <c r="Q57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7097435504324478E-2</v>
+        <v>0.50392521315818561</v>
       </c>
       <c r="R57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7141780542403207E-2</v>
+        <v>0.50417211056418731</v>
       </c>
       <c r="S57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7186121453321475E-2</v>
+        <v>0.50441876232978677</v>
       </c>
       <c r="T57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7230458237655412E-2</v>
+        <v>0.50466516882138623</v>
       </c>
       <c r="U57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7274790895981085E-2</v>
+        <v>0.50491133040466007</v>
       </c>
       <c r="V57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.731911942887438E-2</v>
+        <v>0.50515724744455559</v>
       </c>
       <c r="W57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7363443836911157E-2</v>
+        <v>0.50540292030529577</v>
       </c>
       <c r="X57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7407764120667099E-2</v>
+        <v>0.50564834935038028</v>
       </c>
       <c r="Y57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7452080280717818E-2</v>
+        <v>0.50589353494258804</v>
       </c>
       <c r="Z57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7496392317638809E-2</v>
+        <v>0.50613847744397811</v>
       </c>
       <c r="AA57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7540700232005483E-2</v>
+        <v>0.50638317721589265</v>
       </c>
       <c r="AB57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7585004024393085E-2</v>
+        <v>0.50662763461895732</v>
       </c>
       <c r="AC57" s="10">
         <f t="shared" ca="1" si="43"/>
-        <v>4.7629303695376837E-2</v>
+        <v>0.50687185001308432</v>
       </c>
       <c r="AD57" s="10">
         <f t="shared" ref="AD57:AO57" ca="1" si="44">AD35/($C35+$D35+AD35)</f>
-        <v>4.7673599245531779E-2</v>
+        <v>0.50711582375747322</v>
       </c>
       <c r="AE57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7717890675432882E-2</v>
+        <v>0.50735955621061324</v>
       </c>
       <c r="AF57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7762177985654998E-2</v>
+        <v>0.50760304773028475</v>
       </c>
       <c r="AG57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7806461176772889E-2</v>
+        <v>0.50784629867356135</v>
       </c>
       <c r="AH57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7850740249361166E-2</v>
+        <v>0.50808930939681118</v>
       </c>
       <c r="AI57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7895015203994411E-2</v>
+        <v>0.50833208025569887</v>
       </c>
       <c r="AJ57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7939286041247003E-2</v>
+        <v>0.50857461160518735</v>
       </c>
       <c r="AK57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.7983552761693297E-2</v>
+        <v>0.5088169037995397</v>
       </c>
       <c r="AL57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.80278153659075E-2</v>
+        <v>0.50905895719232019</v>
       </c>
       <c r="AM57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.8072073854463715E-2</v>
+        <v>0.50930077213639702</v>
       </c>
       <c r="AN57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.8116328227935934E-2</v>
+        <v>0.50954234898394313</v>
       </c>
       <c r="AO57" s="10">
         <f t="shared" ca="1" si="44"/>
-        <v>4.8160578486898087E-2</v>
+        <v>0.50978368808643848</v>
       </c>
     </row>
     <row r="58" spans="2:41" x14ac:dyDescent="0.3">
@@ -8271,159 +8261,159 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="18"/>
-        <v>0.39333791158839471</v>
+        <v>0.11851291659049928</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="18"/>
-        <v>5.746601683135321E-2</v>
+        <v>0.47407227049208306</v>
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.54919607158025208</v>
+        <v>0.40741481291741777</v>
       </c>
       <c r="F58" s="10">
         <f t="shared" ref="F58:AC58" ca="1" si="45">F36/($C36+$D36+F36)</f>
-        <v>0.54944351543160197</v>
+        <v>0.40765614257927157</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.54969068779077457</v>
+        <v>0.40789727575866708</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.54993758910434154</v>
+        <v>0.40813821269546063</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55018421981789534</v>
+        <v>0.40837895362911847</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55043058037605241</v>
+        <v>0.40861949879871728</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.550676671222456</v>
+        <v>0.40885984844294526</v>
       </c>
       <c r="L58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55092249279977801</v>
+        <v>0.40910000280010239</v>
       </c>
       <c r="M58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55116804554972232</v>
+        <v>0.40933996210810197</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55141332991302738</v>
+        <v>0.40957972660447056</v>
       </c>
       <c r="O58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55165834632946864</v>
+        <v>0.40981929652634957</v>
       </c>
       <c r="P58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55190309523786107</v>
+        <v>0.41005867211049563</v>
       </c>
       <c r="Q58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55214757707606243</v>
+        <v>0.41029785359328125</v>
       </c>
       <c r="R58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55239179228097479</v>
+        <v>0.41053684121069578</v>
       </c>
       <c r="S58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55263574128854842</v>
+        <v>0.41077563519834637</v>
       </c>
       <c r="T58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55287942453378325</v>
+        <v>0.4110142357914584</v>
       </c>
       <c r="U58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55312284245073218</v>
+        <v>0.41125264322487631</v>
       </c>
       <c r="V58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.5533659954725032</v>
+        <v>0.41149085773306454</v>
       </c>
       <c r="W58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.5536088840312624</v>
+        <v>0.41172887955010828</v>
       </c>
       <c r="X58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55385150855823617</v>
+        <v>0.41196670890971415</v>
       </c>
       <c r="Y58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55409386948371397</v>
+        <v>0.41220434604521095</v>
       </c>
       <c r="Z58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55433596723705059</v>
+        <v>0.41244179118955038</v>
       </c>
       <c r="AA58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55457780224666908</v>
+        <v>0.41267904457530796</v>
       </c>
       <c r="AB58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55481937494006295</v>
+        <v>0.41291610643468374</v>
       </c>
       <c r="AC58" s="10">
         <f t="shared" ca="1" si="45"/>
-        <v>0.55506068574379885</v>
+        <v>0.41315297699950315</v>
       </c>
       <c r="AD58" s="10">
         <f t="shared" ref="AD58:AO58" ca="1" si="46">AD36/($C36+$D36+AD36)</f>
-        <v>0.55530173508351921</v>
+        <v>0.41338965650121717</v>
       </c>
       <c r="AE58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55554252338394439</v>
+        <v>0.41362614517090407</v>
       </c>
       <c r="AF58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55578305106887516</v>
+        <v>0.41386244323926941</v>
       </c>
       <c r="AG58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55602331856119602</v>
+        <v>0.41409855093664705</v>
       </c>
       <c r="AH58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55626332628287645</v>
+        <v>0.41433446849299976</v>
       </c>
       <c r="AI58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55650307465497428</v>
+        <v>0.41457019613792018</v>
       </c>
       <c r="AJ58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55674256409763767</v>
+        <v>0.41480573410063154</v>
       </c>
       <c r="AK58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55698179503010803</v>
+        <v>0.41504108260998823</v>
       </c>
       <c r="AL58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55722076787072183</v>
+        <v>0.41527624189447648</v>
       </c>
       <c r="AM58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55745948303691351</v>
+        <v>0.41551121218221548</v>
       </c>
       <c r="AN58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55769794094521807</v>
+        <v>0.41574599370095783</v>
       </c>
       <c r="AO58" s="10">
         <f t="shared" ca="1" si="46"/>
-        <v>0.55793614201127273</v>
+        <v>0.4159805866780904</v>
       </c>
     </row>
     <row r="59" spans="2:41" x14ac:dyDescent="0.3">
@@ -8432,164 +8422,164 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="18"/>
-        <v>0.49994925528650158</v>
+        <v>0.28179097423689536</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="18"/>
-        <v>2.6517750581066313E-2</v>
+        <v>0.63172987781948009</v>
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>0.47353299413243211</v>
+        <v>8.6479147943624615E-2</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" ref="F59:AC59" ca="1" si="47">F37/($C37+$D37+F37)</f>
-        <v>0.47378217563436975</v>
+        <v>8.6558141617233589E-2</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47403112136827003</v>
+        <v>8.6637121630594061E-2</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47427983166858939</v>
+        <v>8.6716087987249044E-2</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47452830686915248</v>
+        <v>8.6795040690740441E-2</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47477654730315261</v>
+        <v>8.6873979744608795E-2</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47502455330315435</v>
+        <v>8.6952905152393553E-2</v>
       </c>
       <c r="L59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47527232520109386</v>
+        <v>8.7031816917632815E-2</v>
       </c>
       <c r="M59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47551986332828128</v>
+        <v>8.7110715043863585E-2</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47576716801540181</v>
+        <v>8.7189599534621534E-2</v>
       </c>
       <c r="O59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47601423959251726</v>
+        <v>8.7268470393441169E-2</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47626107838906739</v>
+        <v>8.7347327623855761E-2</v>
       </c>
       <c r="Q59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47650768473387156</v>
+        <v>8.7426171229397415E-2</v>
       </c>
       <c r="R59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47675405895513012</v>
+        <v>8.7505001213596875E-2</v>
       </c>
       <c r="S59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47700020138042587</v>
+        <v>8.7583817579983819E-2</v>
       </c>
       <c r="T59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47724611233672548</v>
+        <v>8.7662620332086591E-2</v>
       </c>
       <c r="U59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.4774917921503809</v>
+        <v>8.7741409473432452E-2</v>
       </c>
       <c r="V59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47773724114713095</v>
+        <v>8.782018500754725E-2</v>
       </c>
       <c r="W59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47798245965210262</v>
+        <v>8.7898946937955788E-2</v>
       </c>
       <c r="X59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47822744798981265</v>
+        <v>8.7977695268181597E-2</v>
       </c>
       <c r="Y59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47847220648416877</v>
+        <v>8.8056430001746941E-2</v>
       </c>
       <c r="Z59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.4787167354584711</v>
+        <v>8.8135151142172907E-2</v>
       </c>
       <c r="AA59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47896103523541411</v>
+        <v>8.8213858692979416E-2</v>
       </c>
       <c r="AB59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47920510613708722</v>
+        <v>8.8292552657685083E-2</v>
       </c>
       <c r="AC59" s="10">
         <f t="shared" ca="1" si="47"/>
-        <v>0.47944894848497682</v>
+        <v>8.8371233039807359E-2</v>
       </c>
       <c r="AD59" s="10">
         <f t="shared" ref="AD59:AO59" ca="1" si="48">AD37/($C37+$D37+AD37)</f>
-        <v>0.47969256259996734</v>
+        <v>8.8449899842862473E-2</v>
       </c>
       <c r="AE59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.47993594880234314</v>
+        <v>8.8528553070365459E-2</v>
       </c>
       <c r="AF59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48017910741178904</v>
+        <v>8.8607192725830106E-2</v>
       </c>
       <c r="AG59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48042203874739292</v>
+        <v>8.8685818812769004E-2</v>
       </c>
       <c r="AH59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48066474312764584</v>
+        <v>8.87644313346935E-2</v>
       </c>
       <c r="AI59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48090722087044441</v>
+        <v>8.8843030295113812E-2</v>
       </c>
       <c r="AJ59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48114947229309168</v>
+        <v>8.8921615697538869E-2</v>
       </c>
       <c r="AK59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48139149771229872</v>
+        <v>8.9000187545476422E-2</v>
       </c>
       <c r="AL59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48163329744418587</v>
+        <v>8.9078745842432985E-2</v>
       </c>
       <c r="AM59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48187487180428418</v>
+        <v>8.9157290591913907E-2</v>
       </c>
       <c r="AN59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48211622110753694</v>
+        <v>8.9235821797423315E-2</v>
       </c>
       <c r="AO59" s="10">
         <f t="shared" ca="1" si="48"/>
-        <v>0.48235734566830063</v>
+        <v>8.9314339462464087E-2</v>
       </c>
     </row>
     <row r="60" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E60" s="8">
         <f ca="1">$C45+$D45+E45</f>
@@ -8597,147 +8587,147 @@
       </c>
       <c r="F60" s="8">
         <f ca="1">$C45+$D45+F45</f>
-        <v>1.0001872753291474</v>
+        <v>1.0002451526493301</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" ref="G60:AO60" ca="1" si="49">$C45+$D45+G45</f>
-        <v>1.0003744572004774</v>
+        <v>1.0004900940903978</v>
       </c>
       <c r="H60" s="8">
         <f ca="1">$C45+$D45+H45</f>
-        <v>1.0005615456839305</v>
+        <v>1.0007348245960308</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0007485408493788</v>
+        <v>1.0009793444385879</v>
       </c>
       <c r="J60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0009354427666239</v>
+        <v>1.0012236538899593</v>
       </c>
       <c r="K60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0011222515053984</v>
+        <v>1.0014677532215668</v>
       </c>
       <c r="L60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0013089671353643</v>
+        <v>1.0017116427043664</v>
       </c>
       <c r="M60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0014955897261153</v>
+        <v>1.001955322608848</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0016821193471754</v>
+        <v>1.0021987932050362</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0018685560679994</v>
+        <v>1.0024420547624933</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0020548999579726</v>
+        <v>1.0026851075503176</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0022411510864115</v>
+        <v>1.0029279518371466</v>
       </c>
       <c r="R60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0024273095225638</v>
+        <v>1.0031705878911568</v>
       </c>
       <c r="S60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0026133753356077</v>
+        <v>1.0034130159800647</v>
       </c>
       <c r="T60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0027993485946529</v>
+        <v>1.0036552363711286</v>
       </c>
       <c r="U60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0029852293687409</v>
+        <v>1.0038972493311487</v>
       </c>
       <c r="V60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0031710177268436</v>
+        <v>1.0041390551264682</v>
       </c>
       <c r="W60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0033567137378649</v>
+        <v>1.0043806540229756</v>
       </c>
       <c r="X60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0035423174706402</v>
+        <v>1.0046220462861031</v>
       </c>
       <c r="Y60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0037278289939362</v>
+        <v>1.00486323218083</v>
       </c>
       <c r="Z60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0039132483764515</v>
+        <v>1.0051042119716826</v>
       </c>
       <c r="AA60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0040985756868168</v>
+        <v>1.0053449859227352</v>
       </c>
       <c r="AB60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0042838109935939</v>
+        <v>1.0055855542976111</v>
       </c>
       <c r="AC60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0044689543652772</v>
+        <v>1.0058259173594837</v>
       </c>
       <c r="AD60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0046540058702929</v>
+        <v>1.0060660753710775</v>
       </c>
       <c r="AE60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0048389655769991</v>
+        <v>1.0063060285946686</v>
       </c>
       <c r="AF60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0050238335536865</v>
+        <v>1.0065457772920861</v>
       </c>
       <c r="AG60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.005208609868578</v>
+        <v>1.0067853217247134</v>
       </c>
       <c r="AH60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0053932945898283</v>
+        <v>1.007024662153488</v>
       </c>
       <c r="AI60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0055778877855255</v>
+        <v>1.0072637988389037</v>
       </c>
       <c r="AJ60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0057623895236893</v>
+        <v>1.0075027320410108</v>
       </c>
       <c r="AK60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0059467998722729</v>
+        <v>1.0077414620194169</v>
       </c>
       <c r="AL60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0061311188991611</v>
+        <v>1.0079799890332888</v>
       </c>
       <c r="AM60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0063153466721728</v>
+        <v>1.0082183133413523</v>
       </c>
       <c r="AN60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0064994832590586</v>
+        <v>1.0084564352018939</v>
       </c>
       <c r="AO60" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0066835287275029</v>
+        <v>1.0086943548727614</v>
       </c>
     </row>
     <row r="61" spans="2:41" x14ac:dyDescent="0.3">
@@ -8749,180 +8739,180 @@
     </row>
     <row r="63" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E63" s="14">
         <f ca="1">F45/E45-1</f>
-        <v>7.5016830901497578E-4</v>
+        <v>5.6861452697520853E-4</v>
       </c>
     </row>
     <row r="64" spans="2:41" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" ref="E64:AO64" ca="1" si="50">AVERAGE(E45:E59)</f>
-        <v>0.36268892519281831</v>
+        <v>0.31567982757883783</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36289529344175719</v>
+        <v>0.31586483925516939</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36310149086471388</v>
+        <v>0.3160497100006523</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36330751768591713</v>
+        <v>0.31623443999740863</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36351337412918766</v>
+        <v>0.31641902942722316</v>
       </c>
       <c r="J64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36371906041793817</v>
+        <v>0.31660347847154335</v>
       </c>
       <c r="K64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36392457677517476</v>
+        <v>0.31678778731148155</v>
       </c>
       <c r="L64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36412992342349759</v>
+        <v>0.31697195612781398</v>
       </c>
       <c r="M64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36433510058510243</v>
+        <v>0.31715598510098331</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3645401084817807</v>
+        <v>0.31733987441109834</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3647449473349213</v>
+        <v>0.3175236242379354</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36494961736551085</v>
+        <v>0.31770723476093882</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36515411879413523</v>
+        <v>0.31789070615922221</v>
       </c>
       <c r="R64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36535845184098026</v>
+        <v>0.31807403861156858</v>
       </c>
       <c r="S64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36556261672583223</v>
+        <v>0.31825723229643182</v>
       </c>
       <c r="T64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36576661366807994</v>
+        <v>0.31844028739193703</v>
       </c>
       <c r="U64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36597044288671426</v>
+        <v>0.31862320407588174</v>
       </c>
       <c r="V64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3661741046003299</v>
+        <v>0.31880598252573605</v>
       </c>
       <c r="W64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36637759902712635</v>
+        <v>0.31898862291864455</v>
       </c>
       <c r="X64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36658092638490852</v>
+        <v>0.31917112543142567</v>
       </c>
       <c r="Y64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36678408689108793</v>
+        <v>0.3193534902405738</v>
       </c>
       <c r="Z64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36698708076268305</v>
+        <v>0.31953571752225901</v>
       </c>
       <c r="AA64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36718990821632097</v>
+        <v>0.31971780745232897</v>
       </c>
       <c r="AB64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3673925694682379</v>
+        <v>0.31989976020630856</v>
       </c>
       <c r="AC64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36759506473428022</v>
+        <v>0.32008157595940151</v>
       </c>
       <c r="AD64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36779739422990526</v>
+        <v>0.3202632548864906</v>
       </c>
       <c r="AE64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36799955817018221</v>
+        <v>0.32044479716213914</v>
       </c>
       <c r="AF64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3682015567697931</v>
+        <v>0.32062620296059069</v>
       </c>
       <c r="AG64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36840339024303387</v>
+        <v>0.32080747245577101</v>
       </c>
       <c r="AH64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36860505880381489</v>
+        <v>0.32098860582128813</v>
       </c>
       <c r="AI64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36880656266566231</v>
+        <v>0.3211696032304332</v>
       </c>
       <c r="AJ64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36900790204171841</v>
+        <v>0.32135046485618124</v>
       </c>
       <c r="AK64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36920907714474271</v>
+        <v>0.32153119087119231</v>
       </c>
       <c r="AL64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36941008818711346</v>
+        <v>0.32171178144781165</v>
       </c>
       <c r="AM64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.3696109353808274</v>
+        <v>0.32189223675807088</v>
       </c>
       <c r="AN64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.36981161893750164</v>
+        <v>0.3220725569736887</v>
       </c>
       <c r="AO64" s="8">
         <f t="shared" ca="1" si="50"/>
-        <v>0.37001213906837399</v>
+        <v>0.32225274226607126</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E66" s="13">
         <f ca="1">AC64/E64-1</f>
-        <v>1.3527128072227779E-2</v>
+        <v>1.3943711304975182E-2</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H66" s="13">
         <f ca="1">AO64/E64-1</f>
-        <v>2.0191446076448072E-2</v>
+        <v>2.0821459317326596E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8948,7 +8938,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>0.14000000000000001</v>
@@ -8956,13 +8946,13 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0.26</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <f>(C2+C3)/2</f>
@@ -8971,7 +8961,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <f>C3-C2</f>
@@ -8980,16 +8970,16 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <f ca="1">RAND()*0.12</f>
-        <v>7.8101150498930448E-3</v>
+        <v>0.10539855020625306</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0.2</v>
@@ -8997,34 +8987,34 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <f ca="1">C2+C6*C8</f>
-        <v>0.14156202300997861</v>
+        <v>0.16107971004125063</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <f ca="1">C2+C6^(1-C8)</f>
-        <v>0.16061227581524559</v>
+        <v>0.30529804214094719</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <f ca="1">(C2+C6)^(1-C8)</f>
-        <v>0.21665231003864324</v>
+        <v>0.32501065138985091</v>
       </c>
     </row>
   </sheetData>
